--- a/Jogos_do_Dia/2024-04-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="161">
   <si>
     <t>League</t>
   </si>
@@ -157,12 +157,21 @@
     <t>Italy Serie A</t>
   </si>
   <si>
+    <t>Norway First Division</t>
+  </si>
+  <si>
     <t>Turkey Süper Lig</t>
   </si>
   <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
@@ -178,15 +187,27 @@
     <t>France Ligue 2</t>
   </si>
   <si>
+    <t>England Premier League</t>
+  </si>
+  <si>
     <t>Spain La Liga</t>
   </si>
   <si>
-    <t>England Premier League</t>
-  </si>
-  <si>
     <t>Portugal Liga NOS</t>
   </si>
   <si>
+    <t>Iceland Úrvalsdeild</t>
+  </si>
+  <si>
+    <t>Uruguay Primera División</t>
+  </si>
+  <si>
+    <t>Chile Primera División</t>
+  </si>
+  <si>
+    <t>Argentina Primera División</t>
+  </si>
+  <si>
     <t>11:00:00</t>
   </si>
   <si>
@@ -205,6 +226,9 @@
     <t>14:00:00</t>
   </si>
   <si>
+    <t>14:10:00</t>
+  </si>
+  <si>
     <t>14:30:00</t>
   </si>
   <si>
@@ -223,6 +247,18 @@
     <t>16:15:00</t>
   </si>
   <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
+    <t>19:00:00</t>
+  </si>
+  <si>
+    <t>20:00:00</t>
+  </si>
+  <si>
+    <t>20:30:00</t>
+  </si>
+  <si>
     <t>Novi Pazar</t>
   </si>
   <si>
@@ -241,16 +277,52 @@
     <t>Fiorentina</t>
   </si>
   <si>
+    <t>Bryne</t>
+  </si>
+  <si>
     <t>Alanyaspor</t>
   </si>
   <si>
+    <t>Ludogorets</t>
+  </si>
+  <si>
+    <t>Häcken</t>
+  </si>
+  <si>
+    <t>Värnamo</t>
+  </si>
+  <si>
+    <t>Kongsvinger</t>
+  </si>
+  <si>
+    <t>Sandnes Ulf</t>
+  </si>
+  <si>
     <t>Piast Gliwice</t>
   </si>
   <si>
+    <t>Åsane</t>
+  </si>
+  <si>
+    <t>Mjøndalen</t>
+  </si>
+  <si>
+    <t>Aalesund</t>
+  </si>
+  <si>
+    <t>Örgryte</t>
+  </si>
+  <si>
+    <t>Gefle</t>
+  </si>
+  <si>
+    <t>Moss</t>
+  </si>
+  <si>
     <t>Silkeborg</t>
   </si>
   <si>
-    <t>Ludogorets</t>
+    <t>Hammarby</t>
   </si>
   <si>
     <t>Rapid Bucureşti</t>
@@ -274,15 +346,39 @@
     <t>Atalanta</t>
   </si>
   <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
     <t>CA Osasuna</t>
   </si>
   <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
     <t>FC Vizela</t>
   </si>
   <si>
+    <t>Fram</t>
+  </si>
+  <si>
+    <t>Wanderers</t>
+  </si>
+  <si>
+    <t>Cobresal</t>
+  </si>
+  <si>
+    <t>Instituto</t>
+  </si>
+  <si>
+    <t>Argentinos Juniors</t>
+  </si>
+  <si>
+    <t>Independiente Rivadavia</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
+    <t>Miramar Misiones</t>
+  </si>
+  <si>
     <t>Radnički Niš</t>
   </si>
   <si>
@@ -301,16 +397,52 @@
     <t>Genoa</t>
   </si>
   <si>
+    <t>Levanger</t>
+  </si>
+  <si>
     <t>Galatasaray</t>
   </si>
   <si>
+    <t>Arda</t>
+  </si>
+  <si>
+    <t>Brommapojkarna</t>
+  </si>
+  <si>
+    <t>Malmö FF</t>
+  </si>
+  <si>
+    <t>Egersund</t>
+  </si>
+  <si>
+    <t>Raufoss</t>
+  </si>
+  <si>
     <t>Zagłębie Lubin</t>
   </si>
   <si>
+    <t>Sogndal</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Lyn</t>
+  </si>
+  <si>
+    <t>Brage</t>
+  </si>
+  <si>
+    <t>Degerfors</t>
+  </si>
+  <si>
+    <t>Ranheim</t>
+  </si>
+  <si>
     <t>Nordsjælland</t>
   </si>
   <si>
-    <t>Arda</t>
+    <t>Elfsborg</t>
   </si>
   <si>
     <t>Sepsi</t>
@@ -334,13 +466,37 @@
     <t>Hellas Verona</t>
   </si>
   <si>
+    <t>Everton</t>
+  </si>
+  <si>
     <t>Valencia CF</t>
   </si>
   <si>
-    <t>Everton</t>
-  </si>
-  <si>
     <t>GD Chaves</t>
+  </si>
+  <si>
+    <t>Víkingur Reykjavík</t>
+  </si>
+  <si>
+    <t>Liverpool FC Montevideo</t>
+  </si>
+  <si>
+    <t>Copiapó</t>
+  </si>
+  <si>
+    <t>River Plate</t>
+  </si>
+  <si>
+    <t>Barracas Central</t>
+  </si>
+  <si>
+    <t>Vélez Sarsfield</t>
+  </si>
+  <si>
+    <t>Talleres Córdoba</t>
+  </si>
+  <si>
+    <t>Nacional</t>
   </si>
 </sst>
 </file>
@@ -702,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ21"/>
+  <dimension ref="A1:AQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,16 +1003,16 @@
         <v>45397</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="G2">
         <v>2.88</v>
@@ -978,16 +1134,16 @@
         <v>45397</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="G3">
         <v>2.11</v>
@@ -1109,16 +1265,16 @@
         <v>45397</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="G4">
         <v>4.03</v>
@@ -1240,16 +1396,16 @@
         <v>45397</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="G5">
         <v>2.75</v>
@@ -1371,16 +1527,16 @@
         <v>45397</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1502,16 +1658,16 @@
         <v>45397</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="G7">
         <v>2.5</v>
@@ -1633,127 +1789,127 @@
         <v>45397</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="G8">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H8">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="I8">
-        <v>1.83</v>
+        <v>3.9</v>
       </c>
       <c r="J8">
-        <v>5.25</v>
+        <v>1.9</v>
       </c>
       <c r="K8">
-        <v>4.35</v>
+        <v>3.65</v>
       </c>
       <c r="L8">
-        <v>1.48</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="N8">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P8">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="Q8">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>4.58</v>
       </c>
       <c r="S8">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="T8">
-        <v>2.53</v>
+        <v>2.22</v>
       </c>
       <c r="U8">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="V8">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="W8">
-        <v>2.6</v>
+        <v>1.28</v>
       </c>
       <c r="X8">
         <v>1.22</v>
       </c>
       <c r="Y8">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="Z8">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AA8">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AC8">
-        <v>1.7</v>
+        <v>1.11</v>
       </c>
       <c r="AD8">
-        <v>3.11</v>
+        <v>2.46</v>
       </c>
       <c r="AE8">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1764,359 +1920,359 @@
         <v>45397</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="G9">
-        <v>2.75</v>
+        <v>5.3</v>
       </c>
       <c r="H9">
+        <v>2.6</v>
+      </c>
+      <c r="I9">
+        <v>1.83</v>
+      </c>
+      <c r="J9">
+        <v>5.25</v>
+      </c>
+      <c r="K9">
+        <v>4.35</v>
+      </c>
+      <c r="L9">
+        <v>1.48</v>
+      </c>
+      <c r="M9">
+        <v>1.25</v>
+      </c>
+      <c r="N9">
+        <v>3.6</v>
+      </c>
+      <c r="O9">
+        <v>1.01</v>
+      </c>
+      <c r="P9">
+        <v>12</v>
+      </c>
+      <c r="Q9">
+        <v>1.13</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>1.44</v>
+      </c>
+      <c r="T9">
+        <v>2.53</v>
+      </c>
+      <c r="U9">
+        <v>1.61</v>
+      </c>
+      <c r="V9">
+        <v>2.29</v>
+      </c>
+      <c r="W9">
+        <v>2.6</v>
+      </c>
+      <c r="X9">
+        <v>1.22</v>
+      </c>
+      <c r="Y9">
+        <v>1.17</v>
+      </c>
+      <c r="Z9">
+        <v>1.6</v>
+      </c>
+      <c r="AA9">
+        <v>2.4</v>
+      </c>
+      <c r="AB9">
+        <v>1.41</v>
+      </c>
+      <c r="AC9">
+        <v>1.7</v>
+      </c>
+      <c r="AD9">
+        <v>3.11</v>
+      </c>
+      <c r="AE9">
+        <v>3.62</v>
+      </c>
+      <c r="AF9">
+        <v>10.25</v>
+      </c>
+      <c r="AG9">
+        <v>1.39</v>
+      </c>
+      <c r="AH9">
+        <v>1.22</v>
+      </c>
+      <c r="AI9">
+        <v>3.8</v>
+      </c>
+      <c r="AJ9">
+        <v>1.38</v>
+      </c>
+      <c r="AK9">
+        <v>2.8</v>
+      </c>
+      <c r="AL9">
+        <v>1.7</v>
+      </c>
+      <c r="AM9">
         <v>2.05</v>
       </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>2.08</v>
-      </c>
-      <c r="K9">
-        <v>3.2</v>
-      </c>
-      <c r="L9">
-        <v>3.68</v>
-      </c>
-      <c r="M9">
-        <v>1.53</v>
-      </c>
-      <c r="N9">
-        <v>2.41</v>
-      </c>
-      <c r="O9">
-        <v>1.06</v>
-      </c>
-      <c r="P9">
-        <v>6.7</v>
-      </c>
-      <c r="Q9">
-        <v>1.41</v>
-      </c>
-      <c r="R9">
-        <v>2.6</v>
-      </c>
-      <c r="S9">
-        <v>2.22</v>
-      </c>
-      <c r="T9">
-        <v>1.61</v>
-      </c>
-      <c r="U9">
+      <c r="AN9">
         <v>2</v>
       </c>
-      <c r="V9">
-        <v>1.72</v>
-      </c>
-      <c r="W9">
-        <v>1.3</v>
-      </c>
-      <c r="X9">
-        <v>1.35</v>
-      </c>
-      <c r="Y9">
-        <v>1.7</v>
-      </c>
-      <c r="Z9">
-        <v>1.38</v>
-      </c>
-      <c r="AA9">
-        <v>1.15</v>
-      </c>
-      <c r="AB9">
-        <v>1.47</v>
-      </c>
-      <c r="AC9">
-        <v>1.61</v>
-      </c>
-      <c r="AD9">
-        <v>3.08</v>
-      </c>
-      <c r="AE9">
-        <v>1.69</v>
-      </c>
-      <c r="AF9">
-        <v>8</v>
-      </c>
-      <c r="AG9">
-        <v>2.62</v>
-      </c>
-      <c r="AH9">
-        <v>1.29</v>
-      </c>
-      <c r="AI9">
-        <v>3.3</v>
-      </c>
-      <c r="AJ9">
-        <v>1.5</v>
-      </c>
-      <c r="AK9">
-        <v>2.4</v>
-      </c>
-      <c r="AL9">
-        <v>2</v>
-      </c>
-      <c r="AM9">
-        <v>1.8</v>
-      </c>
-      <c r="AN9">
-        <v>2.25</v>
-      </c>
       <c r="AO9">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AP9">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AQ9">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2">
         <v>45397</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="G10">
-        <v>3.75</v>
+        <v>1.61</v>
       </c>
       <c r="H10">
-        <v>2.3</v>
+        <v>2.73</v>
       </c>
       <c r="I10">
-        <v>2.6</v>
+        <v>10.64</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1.22</v>
       </c>
       <c r="K10">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="L10">
-        <v>2.15</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="N10">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="O10">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P10">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Q10">
         <v>1.22</v>
       </c>
       <c r="R10">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="S10">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="T10">
-        <v>2.38</v>
+        <v>1.97</v>
       </c>
       <c r="U10">
-        <v>1.57</v>
+        <v>2.4</v>
       </c>
       <c r="V10">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="W10">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="X10">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="Y10">
-        <v>1.33</v>
+        <v>4.1</v>
       </c>
       <c r="Z10">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AA10">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AB10">
-        <v>1.42</v>
+        <v>2.36</v>
       </c>
       <c r="AC10">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AD10">
-        <v>2.88</v>
+        <v>3.66</v>
       </c>
       <c r="AE10">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>1.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2">
         <v>45397</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="G11">
-        <v>1.61</v>
+        <v>2.3</v>
       </c>
       <c r="H11">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="I11">
-        <v>10.64</v>
+        <v>4</v>
       </c>
       <c r="J11">
+        <v>1.79</v>
+      </c>
+      <c r="K11">
+        <v>3.95</v>
+      </c>
+      <c r="L11">
+        <v>3.75</v>
+      </c>
+      <c r="M11">
+        <v>1.25</v>
+      </c>
+      <c r="N11">
+        <v>3.75</v>
+      </c>
+      <c r="O11">
+        <v>1.04</v>
+      </c>
+      <c r="P11">
+        <v>11</v>
+      </c>
+      <c r="Q11">
+        <v>1.17</v>
+      </c>
+      <c r="R11">
+        <v>5.25</v>
+      </c>
+      <c r="S11">
+        <v>1.45</v>
+      </c>
+      <c r="T11">
+        <v>2.55</v>
+      </c>
+      <c r="U11">
+        <v>1.5</v>
+      </c>
+      <c r="V11">
+        <v>2.5</v>
+      </c>
+      <c r="W11">
         <v>1.22</v>
       </c>
-      <c r="K11">
-        <v>5.75</v>
-      </c>
-      <c r="L11">
-        <v>12</v>
-      </c>
-      <c r="M11">
-        <v>1.32</v>
-      </c>
-      <c r="N11">
-        <v>3.15</v>
-      </c>
-      <c r="O11">
-        <v>1.03</v>
-      </c>
-      <c r="P11">
-        <v>16</v>
-      </c>
-      <c r="Q11">
-        <v>1.22</v>
-      </c>
-      <c r="R11">
-        <v>3.9</v>
-      </c>
-      <c r="S11">
-        <v>1.78</v>
-      </c>
-      <c r="T11">
-        <v>1.97</v>
-      </c>
-      <c r="U11">
-        <v>2.4</v>
-      </c>
-      <c r="V11">
-        <v>1.5</v>
-      </c>
-      <c r="W11">
-        <v>1.04</v>
-      </c>
       <c r="X11">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Y11">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>1.14</v>
+        <v>3</v>
       </c>
       <c r="AB11">
-        <v>2.36</v>
+        <v>1.85</v>
       </c>
       <c r="AC11">
-        <v>1.3</v>
+        <v>1.93</v>
       </c>
       <c r="AD11">
-        <v>3.66</v>
+        <v>3.78</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -2125,260 +2281,260 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2">
         <v>45397</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="G12">
+        <v>7.5</v>
+      </c>
+      <c r="H12">
         <v>2.6</v>
       </c>
-      <c r="H12">
-        <v>2.2</v>
-      </c>
       <c r="I12">
-        <v>4.33</v>
+        <v>1.8</v>
       </c>
       <c r="J12">
-        <v>1.98</v>
+        <v>8</v>
       </c>
       <c r="K12">
-        <v>3.35</v>
+        <v>4.9</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>1.35</v>
       </c>
       <c r="M12">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="N12">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="O12">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P12">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Q12">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="R12">
+        <v>4.75</v>
+      </c>
+      <c r="S12">
+        <v>1.55</v>
+      </c>
+      <c r="T12">
+        <v>2.3</v>
+      </c>
+      <c r="U12">
+        <v>1.95</v>
+      </c>
+      <c r="V12">
+        <v>1.8</v>
+      </c>
+      <c r="W12">
         <v>3.3</v>
       </c>
-      <c r="S12">
-        <v>2.1</v>
-      </c>
-      <c r="T12">
-        <v>1.71</v>
-      </c>
-      <c r="U12">
-        <v>1.78</v>
-      </c>
-      <c r="V12">
-        <v>1.95</v>
-      </c>
-      <c r="W12">
-        <v>1.22</v>
-      </c>
       <c r="X12">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="Y12">
+        <v>1.05</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>1.23</v>
+      </c>
+      <c r="AC12">
         <v>1.72</v>
       </c>
-      <c r="Z12">
-        <v>1.88</v>
-      </c>
-      <c r="AA12">
-        <v>1.06</v>
-      </c>
-      <c r="AB12">
-        <v>1.83</v>
-      </c>
-      <c r="AC12">
-        <v>1.28</v>
-      </c>
       <c r="AD12">
-        <v>3.11</v>
+        <v>2.95</v>
       </c>
       <c r="AE12">
-        <v>1.59</v>
+        <v>5.1</v>
       </c>
       <c r="AF12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG12">
-        <v>2.82</v>
+        <v>1.23</v>
       </c>
       <c r="AH12">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1.55</v>
+      </c>
+      <c r="AM12">
+        <v>2.4</v>
+      </c>
+      <c r="AN12">
+        <v>1.87</v>
+      </c>
+      <c r="AO12">
+        <v>1.93</v>
+      </c>
+      <c r="AP12">
         <v>2.28</v>
       </c>
-      <c r="AL12">
-        <v>1.94</v>
-      </c>
-      <c r="AM12">
-        <v>1.77</v>
-      </c>
-      <c r="AN12">
-        <v>2.51</v>
-      </c>
-      <c r="AO12">
-        <v>1.44</v>
-      </c>
-      <c r="AP12">
-        <v>3.46</v>
-      </c>
       <c r="AQ12">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2">
         <v>45397</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="G13">
+        <v>2.15</v>
+      </c>
+      <c r="H13">
+        <v>2.35</v>
+      </c>
+      <c r="I13">
+        <v>4.5</v>
+      </c>
+      <c r="J13">
+        <v>1.67</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>4.4</v>
+      </c>
+      <c r="M13">
+        <v>1.3</v>
+      </c>
+      <c r="N13">
+        <v>3.3</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>17</v>
+      </c>
+      <c r="Q13">
+        <v>1.2</v>
+      </c>
+      <c r="R13">
+        <v>4.55</v>
+      </c>
+      <c r="S13">
+        <v>1.67</v>
+      </c>
+      <c r="T13">
+        <v>2.22</v>
+      </c>
+      <c r="U13">
+        <v>1.65</v>
+      </c>
+      <c r="V13">
+        <v>2.2</v>
+      </c>
+      <c r="W13">
+        <v>1.17</v>
+      </c>
+      <c r="X13">
+        <v>1.18</v>
+      </c>
+      <c r="Y13">
+        <v>2.1</v>
+      </c>
+      <c r="Z13">
         <v>3</v>
       </c>
-      <c r="H13">
-        <v>2.25</v>
-      </c>
-      <c r="I13">
-        <v>3.25</v>
-      </c>
-      <c r="J13">
-        <v>2.38</v>
-      </c>
-      <c r="K13">
-        <v>3.6</v>
-      </c>
-      <c r="L13">
-        <v>2.63</v>
-      </c>
-      <c r="M13">
-        <v>1.36</v>
-      </c>
-      <c r="N13">
+      <c r="AA13">
         <v>3</v>
       </c>
-      <c r="O13">
-        <v>1.04</v>
-      </c>
-      <c r="P13">
-        <v>8.5</v>
-      </c>
-      <c r="Q13">
-        <v>1.22</v>
-      </c>
-      <c r="R13">
-        <v>3.7</v>
-      </c>
-      <c r="S13">
-        <v>1.75</v>
-      </c>
-      <c r="T13">
-        <v>2.05</v>
-      </c>
-      <c r="U13">
-        <v>1.67</v>
-      </c>
-      <c r="V13">
-        <v>2.1</v>
-      </c>
-      <c r="W13">
-        <v>1.32</v>
-      </c>
-      <c r="X13">
-        <v>1.3</v>
-      </c>
-      <c r="Y13">
-        <v>1.57</v>
-      </c>
-      <c r="Z13">
-        <v>1.13</v>
-      </c>
-      <c r="AA13">
-        <v>0.75</v>
-      </c>
       <c r="AB13">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AC13">
-        <v>1.1</v>
+        <v>1.83</v>
       </c>
       <c r="AD13">
-        <v>2.43</v>
+        <v>3.17</v>
       </c>
       <c r="AE13">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -2387,129 +2543,129 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="AL13">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AN13">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AQ13">
-        <v>1.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2">
         <v>45397</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="G14">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H14">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I14">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="J14">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K14">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="L14">
+        <v>2.7</v>
+      </c>
+      <c r="M14">
+        <v>1.3</v>
+      </c>
+      <c r="N14">
+        <v>3.2</v>
+      </c>
+      <c r="O14">
+        <v>1.04</v>
+      </c>
+      <c r="P14">
+        <v>8.5</v>
+      </c>
+      <c r="Q14">
+        <v>1.18</v>
+      </c>
+      <c r="R14">
+        <v>4.2</v>
+      </c>
+      <c r="S14">
+        <v>1.67</v>
+      </c>
+      <c r="T14">
+        <v>2.07</v>
+      </c>
+      <c r="U14">
+        <v>1.57</v>
+      </c>
+      <c r="V14">
         <v>2.3</v>
       </c>
-      <c r="M14">
+      <c r="W14">
+        <v>1.47</v>
+      </c>
+      <c r="X14">
         <v>1.25</v>
       </c>
-      <c r="N14">
-        <v>3.75</v>
-      </c>
-      <c r="O14">
-        <v>1.02</v>
-      </c>
-      <c r="P14">
-        <v>21</v>
-      </c>
-      <c r="Q14">
-        <v>1.13</v>
-      </c>
-      <c r="R14">
-        <v>5</v>
-      </c>
-      <c r="S14">
-        <v>1.5</v>
-      </c>
-      <c r="T14">
-        <v>2.5</v>
-      </c>
-      <c r="U14">
-        <v>1.44</v>
-      </c>
-      <c r="V14">
-        <v>2.63</v>
-      </c>
-      <c r="W14">
-        <v>1.6</v>
-      </c>
-      <c r="X14">
-        <v>1.27</v>
-      </c>
       <c r="Y14">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="Z14">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="AC14">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="AD14">
-        <v>3.17</v>
+        <v>3.48</v>
       </c>
       <c r="AE14">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="AF14">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="AG14">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2518,945 +2674,3565 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AK14">
-        <v>2.93</v>
+        <v>3.9</v>
       </c>
       <c r="AL14">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="AM14">
-        <v>2.16</v>
+        <v>2.98</v>
       </c>
       <c r="AN14">
-        <v>1.99</v>
+        <v>1.55</v>
       </c>
       <c r="AO14">
-        <v>1.73</v>
+        <v>2.23</v>
       </c>
       <c r="AP14">
-        <v>2.57</v>
+        <v>1.92</v>
       </c>
       <c r="AQ14">
-        <v>1.42</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
         <v>45397</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="G15">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="H15">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I15">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>2.52</v>
+        <v>2.08</v>
       </c>
       <c r="K15">
-        <v>3.44</v>
+        <v>3.2</v>
       </c>
       <c r="L15">
-        <v>2.52</v>
+        <v>3.68</v>
       </c>
       <c r="M15">
+        <v>1.53</v>
+      </c>
+      <c r="N15">
+        <v>2.41</v>
+      </c>
+      <c r="O15">
+        <v>1.06</v>
+      </c>
+      <c r="P15">
+        <v>6.7</v>
+      </c>
+      <c r="Q15">
+        <v>1.41</v>
+      </c>
+      <c r="R15">
+        <v>2.6</v>
+      </c>
+      <c r="S15">
+        <v>2.22</v>
+      </c>
+      <c r="T15">
+        <v>1.61</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>1.72</v>
+      </c>
+      <c r="W15">
+        <v>1.3</v>
+      </c>
+      <c r="X15">
+        <v>1.35</v>
+      </c>
+      <c r="Y15">
+        <v>1.7</v>
+      </c>
+      <c r="Z15">
+        <v>1.38</v>
+      </c>
+      <c r="AA15">
+        <v>1.15</v>
+      </c>
+      <c r="AB15">
+        <v>1.47</v>
+      </c>
+      <c r="AC15">
+        <v>1.61</v>
+      </c>
+      <c r="AD15">
+        <v>3.08</v>
+      </c>
+      <c r="AE15">
+        <v>1.69</v>
+      </c>
+      <c r="AF15">
+        <v>8</v>
+      </c>
+      <c r="AG15">
+        <v>2.62</v>
+      </c>
+      <c r="AH15">
+        <v>1.29</v>
+      </c>
+      <c r="AI15">
+        <v>3.3</v>
+      </c>
+      <c r="AJ15">
+        <v>1.5</v>
+      </c>
+      <c r="AK15">
+        <v>2.4</v>
+      </c>
+      <c r="AL15">
+        <v>2</v>
+      </c>
+      <c r="AM15">
+        <v>1.8</v>
+      </c>
+      <c r="AN15">
+        <v>2.25</v>
+      </c>
+      <c r="AO15">
+        <v>1.57</v>
+      </c>
+      <c r="AP15">
+        <v>2.9</v>
+      </c>
+      <c r="AQ15">
         <v>1.36</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
-      </c>
-      <c r="O15">
-        <v>1.04</v>
-      </c>
-      <c r="P15">
-        <v>9</v>
-      </c>
-      <c r="Q15">
-        <v>1.25</v>
-      </c>
-      <c r="R15">
-        <v>3.7</v>
-      </c>
-      <c r="S15">
-        <v>1.73</v>
-      </c>
-      <c r="T15">
-        <v>1.88</v>
-      </c>
-      <c r="U15">
-        <v>1.67</v>
-      </c>
-      <c r="V15">
-        <v>2.1</v>
-      </c>
-      <c r="W15">
-        <v>1.5</v>
-      </c>
-      <c r="X15">
-        <v>1.22</v>
-      </c>
-      <c r="Y15">
-        <v>1.5</v>
-      </c>
-      <c r="Z15">
-        <v>1.64</v>
-      </c>
-      <c r="AA15">
-        <v>1.14</v>
-      </c>
-      <c r="AB15">
-        <v>1.56</v>
-      </c>
-      <c r="AC15">
-        <v>1.56</v>
-      </c>
-      <c r="AD15">
-        <v>3.12</v>
-      </c>
-      <c r="AE15">
-        <v>2.25</v>
-      </c>
-      <c r="AF15">
-        <v>7.5</v>
-      </c>
-      <c r="AG15">
-        <v>1.91</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>1.95</v>
-      </c>
-      <c r="AK15">
-        <v>1.85</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2">
         <v>45397</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>3.46</v>
       </c>
       <c r="J16">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="K16">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="L16">
-        <v>3.25</v>
+        <v>2.74</v>
       </c>
       <c r="M16">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="N16">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O16">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="P16">
-        <v>8.25</v>
+        <v>17</v>
       </c>
       <c r="Q16">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="R16">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="S16">
-        <v>2.3</v>
+        <v>1.61</v>
       </c>
       <c r="T16">
-        <v>1.55</v>
+        <v>2.18</v>
       </c>
       <c r="U16">
-        <v>1.91</v>
+        <v>1.52</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="W16">
+        <v>1.42</v>
+      </c>
+      <c r="X16">
         <v>1.22</v>
-      </c>
-      <c r="X16">
-        <v>1.35</v>
       </c>
       <c r="Y16">
         <v>1.65</v>
       </c>
       <c r="Z16">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>1.28</v>
+        <v>1.02</v>
       </c>
       <c r="AC16">
-        <v>0.98</v>
+        <v>0.47</v>
       </c>
       <c r="AD16">
-        <v>2.26</v>
+        <v>1.49</v>
       </c>
       <c r="AE16">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AF16">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG16">
-        <v>2.63</v>
+        <v>2.12</v>
       </c>
       <c r="AH16">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AI16">
-        <v>2.71</v>
+        <v>4.5</v>
       </c>
       <c r="AJ16">
-        <v>1.7</v>
+        <v>1.24</v>
       </c>
       <c r="AK16">
-        <v>2.03</v>
+        <v>3.48</v>
       </c>
       <c r="AL16">
-        <v>2.22</v>
+        <v>1.44</v>
       </c>
       <c r="AM16">
-        <v>1.62</v>
+        <v>2.51</v>
       </c>
       <c r="AN16">
-        <v>2.98</v>
+        <v>1.77</v>
       </c>
       <c r="AO16">
-        <v>1.34</v>
+        <v>1.94</v>
       </c>
       <c r="AP16">
-        <v>4.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2">
         <v>45397</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="G17">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="H17">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="I17">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J17">
-        <v>2.8</v>
+        <v>2.33</v>
       </c>
       <c r="K17">
-        <v>2.95</v>
+        <v>3.65</v>
       </c>
       <c r="L17">
         <v>2.6</v>
       </c>
       <c r="M17">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="N17">
-        <v>2.58</v>
+        <v>3.15</v>
       </c>
       <c r="O17">
         <v>1.04</v>
       </c>
       <c r="P17">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="Q17">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="R17">
-        <v>3.11</v>
+        <v>4.3</v>
       </c>
       <c r="S17">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="T17">
-        <v>1.66</v>
+        <v>2.16</v>
       </c>
       <c r="U17">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="W17">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="X17">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="Y17">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="Z17">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
         <v>1.2</v>
       </c>
-      <c r="AB17">
-        <v>1.55</v>
-      </c>
       <c r="AC17">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="AD17">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="AE17">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AL17">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AN17">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AQ17">
-        <v>1.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:43">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2">
         <v>45397</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G18">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H18">
         <v>2.4</v>
       </c>
       <c r="I18">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="J18">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="K18">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="M18">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="N18">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O18">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P18">
-        <v>15.5</v>
+        <v>17.25</v>
       </c>
       <c r="Q18">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="R18">
-        <v>4.18</v>
+        <v>4.7</v>
       </c>
       <c r="S18">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="T18">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="U18">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="V18">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W18">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="X18">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="Y18">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Z18">
-        <v>2.21</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="AC18">
-        <v>1.15</v>
+        <v>0.65</v>
       </c>
       <c r="AD18">
-        <v>2.97</v>
+        <v>2.17</v>
       </c>
       <c r="AE18">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>3.84</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
-        <v>1.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2">
         <v>45397</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G19">
+        <v>3.4</v>
+      </c>
+      <c r="H19">
+        <v>2.2</v>
+      </c>
+      <c r="I19">
         <v>3</v>
       </c>
-      <c r="H19">
-        <v>1.91</v>
-      </c>
-      <c r="I19">
-        <v>4.5</v>
-      </c>
       <c r="J19">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="K19">
+        <v>3.35</v>
+      </c>
+      <c r="L19">
+        <v>2.4</v>
+      </c>
+      <c r="M19">
+        <v>1.34</v>
+      </c>
+      <c r="N19">
         <v>3</v>
       </c>
-      <c r="L19">
-        <v>3.2</v>
-      </c>
-      <c r="M19">
+      <c r="O19">
+        <v>1.04</v>
+      </c>
+      <c r="P19">
+        <v>13</v>
+      </c>
+      <c r="Q19">
+        <v>1.25</v>
+      </c>
+      <c r="R19">
+        <v>3.75</v>
+      </c>
+      <c r="S19">
+        <v>1.75</v>
+      </c>
+      <c r="T19">
+        <v>1.95</v>
+      </c>
+      <c r="U19">
+        <v>1.63</v>
+      </c>
+      <c r="V19">
+        <v>2.25</v>
+      </c>
+      <c r="W19">
         <v>1.57</v>
       </c>
-      <c r="N19">
-        <v>2.25</v>
-      </c>
-      <c r="O19">
-        <v>1.13</v>
-      </c>
-      <c r="P19">
-        <v>7.8</v>
-      </c>
-      <c r="Q19">
-        <v>1.5</v>
-      </c>
-      <c r="R19">
-        <v>2.55</v>
-      </c>
-      <c r="S19">
-        <v>2.48</v>
-      </c>
-      <c r="T19">
-        <v>1.44</v>
-      </c>
-      <c r="U19">
-        <v>2.2</v>
-      </c>
-      <c r="V19">
-        <v>1.62</v>
-      </c>
-      <c r="W19">
-        <v>1.4</v>
-      </c>
       <c r="X19">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Y19">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="Z19">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>1</v>
       </c>
       <c r="AB19">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AC19">
-        <v>1.05</v>
+        <v>1.61</v>
       </c>
       <c r="AD19">
-        <v>2.49</v>
+        <v>2.97</v>
       </c>
       <c r="AE19">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="AF19">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG19">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="AH19">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>1.79</v>
+        <v>1.23</v>
       </c>
       <c r="AK19">
-        <v>1.89</v>
+        <v>3.56</v>
       </c>
       <c r="AL19">
-        <v>2.28</v>
+        <v>1.43</v>
       </c>
       <c r="AM19">
-        <v>1.53</v>
+        <v>2.54</v>
       </c>
       <c r="AN19">
-        <v>3</v>
+        <v>1.74</v>
       </c>
       <c r="AO19">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="AP19">
-        <v>4.1</v>
+        <v>2.16</v>
       </c>
       <c r="AQ19">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2">
         <v>45397</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="G20">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H20">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="I20">
-        <v>4.5</v>
+        <v>2.19</v>
       </c>
       <c r="J20">
-        <v>1.62</v>
+        <v>4.8</v>
       </c>
       <c r="K20">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
       <c r="L20">
-        <v>5.3</v>
+        <v>1.63</v>
       </c>
       <c r="M20">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N20">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="O20">
         <v>1.02</v>
       </c>
       <c r="P20">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Q20">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="R20">
-        <v>4.6</v>
+        <v>3.88</v>
       </c>
       <c r="S20">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="T20">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="V20">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="W20">
+        <v>2.15</v>
+      </c>
+      <c r="X20">
+        <v>1.25</v>
+      </c>
+      <c r="Y20">
         <v>1.2</v>
       </c>
-      <c r="X20">
-        <v>1.22</v>
-      </c>
-      <c r="Y20">
-        <v>2.3</v>
-      </c>
       <c r="Z20">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>1.72</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AD20">
-        <v>3.01</v>
+        <v>2.21</v>
       </c>
       <c r="AE20">
-        <v>1.52</v>
+        <v>2.9</v>
       </c>
       <c r="AF20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG20">
-        <v>3.1</v>
+        <v>1.55</v>
       </c>
       <c r="AH20">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AK20">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AM20">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AN20">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="AO20">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="AP20">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AQ20">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2">
         <v>45397</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21">
+        <v>2.81</v>
+      </c>
+      <c r="H21">
+        <v>2.4</v>
+      </c>
+      <c r="I21">
+        <v>3.42</v>
+      </c>
+      <c r="J21">
+        <v>2.16</v>
+      </c>
+      <c r="K21">
+        <v>4.21</v>
+      </c>
+      <c r="L21">
+        <v>2.62</v>
+      </c>
+      <c r="M21">
+        <v>1.31</v>
+      </c>
+      <c r="N21">
+        <v>3.28</v>
+      </c>
+      <c r="O21">
+        <v>1.04</v>
+      </c>
+      <c r="P21">
+        <v>8.5</v>
+      </c>
+      <c r="Q21">
+        <v>1.17</v>
+      </c>
+      <c r="R21">
+        <v>4.15</v>
+      </c>
+      <c r="S21">
+        <v>1.64</v>
+      </c>
+      <c r="T21">
+        <v>2.13</v>
+      </c>
+      <c r="U21">
+        <v>1.53</v>
+      </c>
+      <c r="V21">
+        <v>2.33</v>
+      </c>
+      <c r="W21">
+        <v>1.4</v>
+      </c>
+      <c r="X21">
+        <v>1.27</v>
+      </c>
+      <c r="Y21">
+        <v>1.6</v>
+      </c>
+      <c r="Z21">
+        <v>3</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>1.13</v>
+      </c>
+      <c r="AC21">
+        <v>1.53</v>
+      </c>
+      <c r="AD21">
+        <v>2.66</v>
+      </c>
+      <c r="AE21">
+        <v>1.85</v>
+      </c>
+      <c r="AF21">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG21">
+        <v>2.19</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>1.27</v>
+      </c>
+      <c r="AK21">
+        <v>3.28</v>
+      </c>
+      <c r="AL21">
+        <v>1.48</v>
+      </c>
+      <c r="AM21">
+        <v>2.4</v>
+      </c>
+      <c r="AN21">
+        <v>1.83</v>
+      </c>
+      <c r="AO21">
+        <v>1.87</v>
+      </c>
+      <c r="AP21">
+        <v>2.32</v>
+      </c>
+      <c r="AQ21">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22">
+        <v>3.75</v>
+      </c>
+      <c r="H22">
+        <v>2.3</v>
+      </c>
+      <c r="I22">
+        <v>2.6</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>3.8</v>
+      </c>
+      <c r="L22">
+        <v>2.15</v>
+      </c>
+      <c r="M22">
+        <v>1.3</v>
+      </c>
+      <c r="N22">
+        <v>3.4</v>
+      </c>
+      <c r="O22">
+        <v>1.02</v>
+      </c>
+      <c r="P22">
+        <v>14.5</v>
+      </c>
+      <c r="Q22">
+        <v>1.22</v>
+      </c>
+      <c r="R22">
+        <v>4.3</v>
+      </c>
+      <c r="S22">
+        <v>1.58</v>
+      </c>
+      <c r="T22">
+        <v>2.38</v>
+      </c>
+      <c r="U22">
+        <v>1.57</v>
+      </c>
+      <c r="V22">
+        <v>2.25</v>
+      </c>
+      <c r="W22">
+        <v>1.83</v>
+      </c>
+      <c r="X22">
+        <v>1.22</v>
+      </c>
+      <c r="Y22">
+        <v>1.33</v>
+      </c>
+      <c r="Z22">
+        <v>1.5</v>
+      </c>
+      <c r="AA22">
+        <v>1.5</v>
+      </c>
+      <c r="AB22">
+        <v>1.42</v>
+      </c>
+      <c r="AC22">
+        <v>1.46</v>
+      </c>
+      <c r="AD22">
+        <v>2.88</v>
+      </c>
+      <c r="AE22">
+        <v>2.66</v>
+      </c>
+      <c r="AF22">
+        <v>9</v>
+      </c>
+      <c r="AG22">
+        <v>1.67</v>
+      </c>
+      <c r="AH22">
+        <v>1.29</v>
+      </c>
+      <c r="AI22">
+        <v>3.14</v>
+      </c>
+      <c r="AJ22">
+        <v>1.56</v>
+      </c>
+      <c r="AK22">
+        <v>2.27</v>
+      </c>
+      <c r="AL22">
+        <v>1.97</v>
+      </c>
+      <c r="AM22">
+        <v>1.78</v>
+      </c>
+      <c r="AN22">
+        <v>2.57</v>
+      </c>
+      <c r="AO22">
+        <v>1.44</v>
+      </c>
+      <c r="AP22">
+        <v>3.48</v>
+      </c>
+      <c r="AQ22">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23">
+        <v>3.1</v>
+      </c>
+      <c r="H23">
+        <v>2.2</v>
+      </c>
+      <c r="I23">
+        <v>3.25</v>
+      </c>
+      <c r="J23">
+        <v>2.45</v>
+      </c>
+      <c r="K23">
+        <v>3.4</v>
+      </c>
+      <c r="L23">
+        <v>2.63</v>
+      </c>
+      <c r="M23">
+        <v>1.36</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>1.05</v>
+      </c>
+      <c r="P23">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>1.25</v>
+      </c>
+      <c r="R23">
+        <v>3.75</v>
+      </c>
+      <c r="S23">
+        <v>1.85</v>
+      </c>
+      <c r="T23">
+        <v>2.01</v>
+      </c>
+      <c r="U23">
+        <v>1.67</v>
+      </c>
+      <c r="V23">
+        <v>2.1</v>
+      </c>
+      <c r="W23">
+        <v>1.5</v>
+      </c>
+      <c r="X23">
+        <v>1.24</v>
+      </c>
+      <c r="Y23">
+        <v>1.55</v>
+      </c>
+      <c r="Z23">
+        <v>3</v>
+      </c>
+      <c r="AA23">
+        <v>3</v>
+      </c>
+      <c r="AB23">
+        <v>1.52</v>
+      </c>
+      <c r="AC23">
+        <v>1.37</v>
+      </c>
+      <c r="AD23">
+        <v>2.89</v>
+      </c>
+      <c r="AE23">
+        <v>1.91</v>
+      </c>
+      <c r="AF23">
+        <v>8</v>
+      </c>
+      <c r="AG23">
+        <v>2.2</v>
+      </c>
+      <c r="AH23">
+        <v>1.16</v>
+      </c>
+      <c r="AI23">
+        <v>4.33</v>
+      </c>
+      <c r="AJ23">
+        <v>1.33</v>
+      </c>
+      <c r="AK23">
+        <v>2.93</v>
+      </c>
+      <c r="AL23">
+        <v>1.73</v>
+      </c>
+      <c r="AM23">
+        <v>2</v>
+      </c>
+      <c r="AN23">
+        <v>2.01</v>
+      </c>
+      <c r="AO23">
+        <v>1.81</v>
+      </c>
+      <c r="AP23">
+        <v>2.5</v>
+      </c>
+      <c r="AQ23">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24">
+        <v>2.6</v>
+      </c>
+      <c r="H24">
+        <v>2.2</v>
+      </c>
+      <c r="I24">
+        <v>4.33</v>
+      </c>
+      <c r="J24">
+        <v>1.98</v>
+      </c>
+      <c r="K24">
+        <v>3.35</v>
+      </c>
+      <c r="L24">
+        <v>3.75</v>
+      </c>
+      <c r="M24">
+        <v>1.4</v>
+      </c>
+      <c r="N24">
+        <v>2.75</v>
+      </c>
+      <c r="O24">
+        <v>1.06</v>
+      </c>
+      <c r="P24">
+        <v>8</v>
+      </c>
+      <c r="Q24">
+        <v>1.3</v>
+      </c>
+      <c r="R24">
+        <v>3.3</v>
+      </c>
+      <c r="S24">
+        <v>2.1</v>
+      </c>
+      <c r="T24">
+        <v>1.71</v>
+      </c>
+      <c r="U24">
+        <v>1.78</v>
+      </c>
+      <c r="V24">
+        <v>1.95</v>
+      </c>
+      <c r="W24">
+        <v>1.22</v>
+      </c>
+      <c r="X24">
+        <v>1.25</v>
+      </c>
+      <c r="Y24">
+        <v>1.72</v>
+      </c>
+      <c r="Z24">
+        <v>1.88</v>
+      </c>
+      <c r="AA24">
+        <v>1.06</v>
+      </c>
+      <c r="AB24">
+        <v>1.83</v>
+      </c>
+      <c r="AC24">
+        <v>1.28</v>
+      </c>
+      <c r="AD24">
+        <v>3.11</v>
+      </c>
+      <c r="AE24">
+        <v>1.59</v>
+      </c>
+      <c r="AF24">
+        <v>9</v>
+      </c>
+      <c r="AG24">
+        <v>2.82</v>
+      </c>
+      <c r="AH24">
+        <v>1.3</v>
+      </c>
+      <c r="AI24">
+        <v>3.21</v>
+      </c>
+      <c r="AJ24">
+        <v>1.53</v>
+      </c>
+      <c r="AK24">
+        <v>2.28</v>
+      </c>
+      <c r="AL24">
+        <v>1.94</v>
+      </c>
+      <c r="AM24">
+        <v>1.77</v>
+      </c>
+      <c r="AN24">
+        <v>2.51</v>
+      </c>
+      <c r="AO24">
+        <v>1.44</v>
+      </c>
+      <c r="AP24">
+        <v>3.46</v>
+      </c>
+      <c r="AQ24">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>2.25</v>
+      </c>
+      <c r="I25">
+        <v>3.25</v>
+      </c>
+      <c r="J25">
+        <v>2.38</v>
+      </c>
+      <c r="K25">
+        <v>3.6</v>
+      </c>
+      <c r="L25">
+        <v>2.63</v>
+      </c>
+      <c r="M25">
+        <v>1.36</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>1.04</v>
+      </c>
+      <c r="P25">
+        <v>8.5</v>
+      </c>
+      <c r="Q25">
+        <v>1.22</v>
+      </c>
+      <c r="R25">
+        <v>3.7</v>
+      </c>
+      <c r="S25">
+        <v>1.75</v>
+      </c>
+      <c r="T25">
+        <v>2.05</v>
+      </c>
+      <c r="U25">
+        <v>1.67</v>
+      </c>
+      <c r="V25">
+        <v>2.1</v>
+      </c>
+      <c r="W25">
+        <v>1.32</v>
+      </c>
+      <c r="X25">
+        <v>1.3</v>
+      </c>
+      <c r="Y25">
+        <v>1.57</v>
+      </c>
+      <c r="Z25">
+        <v>1.13</v>
+      </c>
+      <c r="AA25">
+        <v>0.75</v>
+      </c>
+      <c r="AB25">
+        <v>1.33</v>
+      </c>
+      <c r="AC25">
+        <v>1.1</v>
+      </c>
+      <c r="AD25">
+        <v>2.43</v>
+      </c>
+      <c r="AE25">
+        <v>1.92</v>
+      </c>
+      <c r="AF25">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG25">
+        <v>2.12</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>1.36</v>
+      </c>
+      <c r="AK25">
+        <v>2.79</v>
+      </c>
+      <c r="AL25">
+        <v>1.64</v>
+      </c>
+      <c r="AM25">
+        <v>2.07</v>
+      </c>
+      <c r="AN25">
+        <v>2.09</v>
+      </c>
+      <c r="AO25">
+        <v>1.66</v>
+      </c>
+      <c r="AP25">
+        <v>2.71</v>
+      </c>
+      <c r="AQ25">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26">
+        <v>3.1</v>
+      </c>
+      <c r="H26">
+        <v>2.5</v>
+      </c>
+      <c r="I26">
+        <v>2.88</v>
+      </c>
+      <c r="J26">
+        <v>2.88</v>
+      </c>
+      <c r="K26">
+        <v>3.4</v>
+      </c>
+      <c r="L26">
+        <v>2.3</v>
+      </c>
+      <c r="M26">
+        <v>1.25</v>
+      </c>
+      <c r="N26">
+        <v>3.75</v>
+      </c>
+      <c r="O26">
+        <v>1.02</v>
+      </c>
+      <c r="P26">
+        <v>21</v>
+      </c>
+      <c r="Q26">
+        <v>1.13</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+      <c r="S26">
+        <v>1.5</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.44</v>
+      </c>
+      <c r="V26">
+        <v>2.63</v>
+      </c>
+      <c r="W26">
+        <v>1.6</v>
+      </c>
+      <c r="X26">
+        <v>1.27</v>
+      </c>
+      <c r="Y26">
+        <v>1.48</v>
+      </c>
+      <c r="Z26">
+        <v>1.56</v>
+      </c>
+      <c r="AA26">
+        <v>1.44</v>
+      </c>
+      <c r="AB26">
+        <v>1.54</v>
+      </c>
+      <c r="AC26">
+        <v>1.63</v>
+      </c>
+      <c r="AD26">
+        <v>3.17</v>
+      </c>
+      <c r="AE26">
+        <v>2.18</v>
+      </c>
+      <c r="AF26">
+        <v>8.9</v>
+      </c>
+      <c r="AG26">
+        <v>1.87</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>1.33</v>
+      </c>
+      <c r="AK26">
+        <v>2.93</v>
+      </c>
+      <c r="AL26">
+        <v>1.59</v>
+      </c>
+      <c r="AM26">
+        <v>2.16</v>
+      </c>
+      <c r="AN26">
+        <v>1.99</v>
+      </c>
+      <c r="AO26">
+        <v>1.73</v>
+      </c>
+      <c r="AP26">
+        <v>2.57</v>
+      </c>
+      <c r="AQ26">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27">
+        <v>3.1</v>
+      </c>
+      <c r="H27">
+        <v>2.2</v>
+      </c>
+      <c r="I27">
+        <v>3.1</v>
+      </c>
+      <c r="J27">
+        <v>2.52</v>
+      </c>
+      <c r="K27">
+        <v>3.44</v>
+      </c>
+      <c r="L27">
+        <v>2.52</v>
+      </c>
+      <c r="M27">
+        <v>1.36</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>1.04</v>
+      </c>
+      <c r="P27">
+        <v>9</v>
+      </c>
+      <c r="Q27">
+        <v>1.25</v>
+      </c>
+      <c r="R27">
+        <v>3.7</v>
+      </c>
+      <c r="S27">
+        <v>1.73</v>
+      </c>
+      <c r="T27">
+        <v>1.88</v>
+      </c>
+      <c r="U27">
+        <v>1.67</v>
+      </c>
+      <c r="V27">
+        <v>2.1</v>
+      </c>
+      <c r="W27">
+        <v>1.5</v>
+      </c>
+      <c r="X27">
+        <v>1.22</v>
+      </c>
+      <c r="Y27">
+        <v>1.5</v>
+      </c>
+      <c r="Z27">
+        <v>1.64</v>
+      </c>
+      <c r="AA27">
+        <v>1.14</v>
+      </c>
+      <c r="AB27">
+        <v>1.56</v>
+      </c>
+      <c r="AC27">
+        <v>1.56</v>
+      </c>
+      <c r="AD27">
+        <v>3.12</v>
+      </c>
+      <c r="AE27">
+        <v>2.25</v>
+      </c>
+      <c r="AF27">
+        <v>7.5</v>
+      </c>
+      <c r="AG27">
+        <v>1.91</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>1.95</v>
+      </c>
+      <c r="AK27">
+        <v>1.85</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>2.2</v>
+      </c>
+      <c r="K28">
+        <v>2.95</v>
+      </c>
+      <c r="L28">
+        <v>3.25</v>
+      </c>
+      <c r="M28">
+        <v>1.5</v>
+      </c>
+      <c r="N28">
+        <v>2.5</v>
+      </c>
+      <c r="O28">
+        <v>1.08</v>
+      </c>
+      <c r="P28">
+        <v>8.25</v>
+      </c>
+      <c r="Q28">
+        <v>1.4</v>
+      </c>
+      <c r="R28">
+        <v>2.75</v>
+      </c>
+      <c r="S28">
+        <v>2.3</v>
+      </c>
+      <c r="T28">
+        <v>1.55</v>
+      </c>
+      <c r="U28">
+        <v>1.91</v>
+      </c>
+      <c r="V28">
+        <v>1.8</v>
+      </c>
+      <c r="W28">
+        <v>1.22</v>
+      </c>
+      <c r="X28">
+        <v>1.35</v>
+      </c>
+      <c r="Y28">
+        <v>1.65</v>
+      </c>
+      <c r="Z28">
+        <v>1.18</v>
+      </c>
+      <c r="AA28">
+        <v>0.41</v>
+      </c>
+      <c r="AB28">
+        <v>1.28</v>
+      </c>
+      <c r="AC28">
+        <v>0.98</v>
+      </c>
+      <c r="AD28">
+        <v>2.26</v>
+      </c>
+      <c r="AE28">
+        <v>1.7</v>
+      </c>
+      <c r="AF28">
+        <v>8.6</v>
+      </c>
+      <c r="AG28">
+        <v>2.63</v>
+      </c>
+      <c r="AH28">
+        <v>1.38</v>
+      </c>
+      <c r="AI28">
+        <v>2.71</v>
+      </c>
+      <c r="AJ28">
+        <v>1.7</v>
+      </c>
+      <c r="AK28">
+        <v>2.03</v>
+      </c>
+      <c r="AL28">
+        <v>2.22</v>
+      </c>
+      <c r="AM28">
+        <v>1.62</v>
+      </c>
+      <c r="AN28">
+        <v>2.98</v>
+      </c>
+      <c r="AO28">
+        <v>1.34</v>
+      </c>
+      <c r="AP28">
+        <v>4.15</v>
+      </c>
+      <c r="AQ28">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29">
+        <v>3.5</v>
+      </c>
+      <c r="H29">
+        <v>2.05</v>
+      </c>
+      <c r="I29">
+        <v>3.25</v>
+      </c>
+      <c r="J29">
+        <v>2.8</v>
+      </c>
+      <c r="K29">
+        <v>2.95</v>
+      </c>
+      <c r="L29">
+        <v>2.6</v>
+      </c>
+      <c r="M29">
+        <v>1.47</v>
+      </c>
+      <c r="N29">
+        <v>2.58</v>
+      </c>
+      <c r="O29">
+        <v>1.04</v>
+      </c>
+      <c r="P29">
+        <v>7.6</v>
+      </c>
+      <c r="Q29">
+        <v>1.37</v>
+      </c>
+      <c r="R29">
+        <v>3.11</v>
+      </c>
+      <c r="S29">
+        <v>2.15</v>
+      </c>
+      <c r="T29">
+        <v>1.66</v>
+      </c>
+      <c r="U29">
+        <v>1.89</v>
+      </c>
+      <c r="V29">
+        <v>1.85</v>
+      </c>
+      <c r="W29">
+        <v>1.51</v>
+      </c>
+      <c r="X29">
+        <v>1.34</v>
+      </c>
+      <c r="Y29">
+        <v>1.44</v>
+      </c>
+      <c r="Z29">
+        <v>1.6</v>
+      </c>
+      <c r="AA29">
+        <v>1.2</v>
+      </c>
+      <c r="AB29">
+        <v>1.55</v>
+      </c>
+      <c r="AC29">
+        <v>1.35</v>
+      </c>
+      <c r="AD29">
+        <v>2.9</v>
+      </c>
+      <c r="AE29">
+        <v>1.87</v>
+      </c>
+      <c r="AF29">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG29">
+        <v>2.29</v>
+      </c>
+      <c r="AH29">
+        <v>1.26</v>
+      </c>
+      <c r="AI29">
+        <v>3.34</v>
+      </c>
+      <c r="AJ29">
+        <v>1.49</v>
+      </c>
+      <c r="AK29">
+        <v>2.44</v>
+      </c>
+      <c r="AL29">
+        <v>1.87</v>
+      </c>
+      <c r="AM29">
+        <v>1.87</v>
+      </c>
+      <c r="AN29">
+        <v>2.41</v>
+      </c>
+      <c r="AO29">
+        <v>1.5</v>
+      </c>
+      <c r="AP29">
+        <v>3.2</v>
+      </c>
+      <c r="AQ29">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30">
+        <v>1.95</v>
+      </c>
+      <c r="H30">
+        <v>2.4</v>
+      </c>
+      <c r="I30">
+        <v>6.5</v>
+      </c>
+      <c r="J30">
+        <v>1.4</v>
+      </c>
+      <c r="K30">
+        <v>4.8</v>
+      </c>
+      <c r="L30">
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <v>1.33</v>
+      </c>
+      <c r="N30">
+        <v>3.25</v>
+      </c>
+      <c r="O30">
+        <v>1.04</v>
+      </c>
+      <c r="P30">
+        <v>15.5</v>
+      </c>
+      <c r="Q30">
+        <v>1.23</v>
+      </c>
+      <c r="R30">
+        <v>4.18</v>
+      </c>
+      <c r="S30">
+        <v>1.71</v>
+      </c>
+      <c r="T30">
+        <v>2.14</v>
+      </c>
+      <c r="U30">
+        <v>1.91</v>
+      </c>
+      <c r="V30">
+        <v>1.91</v>
+      </c>
+      <c r="W30">
+        <v>1.1</v>
+      </c>
+      <c r="X30">
+        <v>1.21</v>
+      </c>
+      <c r="Y30">
+        <v>2.7</v>
+      </c>
+      <c r="Z30">
+        <v>2.21</v>
+      </c>
+      <c r="AA30">
+        <v>0.63</v>
+      </c>
+      <c r="AB30">
+        <v>1.82</v>
+      </c>
+      <c r="AC30">
+        <v>1.15</v>
+      </c>
+      <c r="AD30">
+        <v>2.97</v>
+      </c>
+      <c r="AE30">
+        <v>1.26</v>
+      </c>
+      <c r="AF30">
+        <v>9.5</v>
+      </c>
+      <c r="AG30">
+        <v>4.3</v>
+      </c>
+      <c r="AH30">
+        <v>1.2</v>
+      </c>
+      <c r="AI30">
+        <v>3.84</v>
+      </c>
+      <c r="AJ30">
+        <v>1.43</v>
+      </c>
+      <c r="AK30">
+        <v>2.66</v>
+      </c>
+      <c r="AL30">
+        <v>1.9</v>
+      </c>
+      <c r="AM30">
+        <v>1.79</v>
+      </c>
+      <c r="AN30">
+        <v>2.4</v>
+      </c>
+      <c r="AO30">
+        <v>1.47</v>
+      </c>
+      <c r="AP30">
+        <v>3.15</v>
+      </c>
+      <c r="AQ30">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31">
+        <v>2.2</v>
+      </c>
+      <c r="H31">
+        <v>2.5</v>
+      </c>
+      <c r="I31">
+        <v>4.5</v>
+      </c>
+      <c r="J31">
+        <v>1.62</v>
+      </c>
+      <c r="K31">
+        <v>4.25</v>
+      </c>
+      <c r="L31">
+        <v>5.3</v>
+      </c>
+      <c r="M31">
+        <v>1.29</v>
+      </c>
+      <c r="N31">
+        <v>3.5</v>
+      </c>
+      <c r="O31">
+        <v>1.02</v>
+      </c>
+      <c r="P31">
+        <v>17.5</v>
+      </c>
+      <c r="Q31">
+        <v>1.14</v>
+      </c>
+      <c r="R31">
+        <v>4.6</v>
+      </c>
+      <c r="S31">
+        <v>1.58</v>
+      </c>
+      <c r="T31">
+        <v>2.38</v>
+      </c>
+      <c r="U31">
+        <v>1.57</v>
+      </c>
+      <c r="V31">
+        <v>2.25</v>
+      </c>
+      <c r="W31">
+        <v>1.2</v>
+      </c>
+      <c r="X31">
+        <v>1.22</v>
+      </c>
+      <c r="Y31">
+        <v>2.3</v>
+      </c>
+      <c r="Z31">
+        <v>1.67</v>
+      </c>
+      <c r="AA31">
+        <v>1.19</v>
+      </c>
+      <c r="AB31">
+        <v>1.72</v>
+      </c>
+      <c r="AC31">
+        <v>1.29</v>
+      </c>
+      <c r="AD31">
+        <v>3.01</v>
+      </c>
+      <c r="AE31">
+        <v>1.52</v>
+      </c>
+      <c r="AF31">
+        <v>11</v>
+      </c>
+      <c r="AG31">
+        <v>3.1</v>
+      </c>
+      <c r="AH31">
+        <v>1.16</v>
+      </c>
+      <c r="AI31">
+        <v>5.2</v>
+      </c>
+      <c r="AJ31">
+        <v>1.28</v>
+      </c>
+      <c r="AK31">
+        <v>3.5</v>
+      </c>
+      <c r="AL31">
+        <v>1.46</v>
+      </c>
+      <c r="AM31">
+        <v>2.55</v>
+      </c>
+      <c r="AN31">
+        <v>1.78</v>
+      </c>
+      <c r="AO31">
+        <v>1.97</v>
+      </c>
+      <c r="AP31">
+        <v>2.2</v>
+      </c>
+      <c r="AQ31">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>1.91</v>
+      </c>
+      <c r="I32">
+        <v>4.5</v>
+      </c>
+      <c r="J32">
+        <v>2.38</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>3.2</v>
+      </c>
+      <c r="M32">
+        <v>1.57</v>
+      </c>
+      <c r="N32">
+        <v>2.25</v>
+      </c>
+      <c r="O32">
+        <v>1.13</v>
+      </c>
+      <c r="P32">
+        <v>7.8</v>
+      </c>
+      <c r="Q32">
+        <v>1.5</v>
+      </c>
+      <c r="R32">
+        <v>2.55</v>
+      </c>
+      <c r="S32">
+        <v>2.48</v>
+      </c>
+      <c r="T32">
+        <v>1.44</v>
+      </c>
+      <c r="U32">
+        <v>2.2</v>
+      </c>
+      <c r="V32">
+        <v>1.62</v>
+      </c>
+      <c r="W32">
+        <v>1.4</v>
+      </c>
+      <c r="X32">
+        <v>1.33</v>
+      </c>
+      <c r="Y32">
+        <v>1.55</v>
+      </c>
+      <c r="Z32">
+        <v>1.4</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1.44</v>
+      </c>
+      <c r="AC32">
+        <v>1.05</v>
+      </c>
+      <c r="AD32">
+        <v>2.49</v>
+      </c>
+      <c r="AE32">
+        <v>1.82</v>
+      </c>
+      <c r="AF32">
+        <v>7.5</v>
+      </c>
+      <c r="AG32">
+        <v>2.32</v>
+      </c>
+      <c r="AH32">
+        <v>1.44</v>
+      </c>
+      <c r="AI32">
+        <v>2.45</v>
+      </c>
+      <c r="AJ32">
+        <v>1.79</v>
+      </c>
+      <c r="AK32">
+        <v>1.89</v>
+      </c>
+      <c r="AL32">
+        <v>2.28</v>
+      </c>
+      <c r="AM32">
+        <v>1.53</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>1.3</v>
+      </c>
+      <c r="AP32">
+        <v>4.1</v>
+      </c>
+      <c r="AQ32">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33">
         <v>29</v>
       </c>
-      <c r="E21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="E33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>1.95</v>
       </c>
-      <c r="K21">
+      <c r="K33">
         <v>3.3</v>
       </c>
-      <c r="L21">
+      <c r="L33">
         <v>3.75</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>2.02</v>
       </c>
-      <c r="T21">
+      <c r="T33">
         <v>1.73</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
         <v>0.71</v>
       </c>
-      <c r="AA21">
+      <c r="AA33">
         <v>0.5</v>
       </c>
-      <c r="AB21">
+      <c r="AB33">
         <v>1.4</v>
       </c>
-      <c r="AC21">
+      <c r="AC33">
         <v>1.08</v>
       </c>
-      <c r="AD21">
+      <c r="AD33">
         <v>2.48</v>
       </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34">
+        <v>4.8</v>
+      </c>
+      <c r="H34">
+        <v>2.65</v>
+      </c>
+      <c r="I34">
+        <v>1.85</v>
+      </c>
+      <c r="J34">
+        <v>4.79</v>
+      </c>
+      <c r="K34">
+        <v>4.62</v>
+      </c>
+      <c r="L34">
+        <v>1.53</v>
+      </c>
+      <c r="M34">
+        <v>1.22</v>
+      </c>
+      <c r="N34">
+        <v>3.8</v>
+      </c>
+      <c r="O34">
+        <v>1.02</v>
+      </c>
+      <c r="P34">
+        <v>15</v>
+      </c>
+      <c r="Q34">
+        <v>1.08</v>
+      </c>
+      <c r="R34">
+        <v>6.2</v>
+      </c>
+      <c r="S34">
+        <v>1.4</v>
+      </c>
+      <c r="T34">
+        <v>2.75</v>
+      </c>
+      <c r="U34">
+        <v>1.48</v>
+      </c>
+      <c r="V34">
+        <v>2.46</v>
+      </c>
+      <c r="W34">
+        <v>2.2</v>
+      </c>
+      <c r="X34">
+        <v>1.18</v>
+      </c>
+      <c r="Y34">
+        <v>1.17</v>
+      </c>
+      <c r="Z34">
+        <v>3</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>1.23</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>1.23</v>
+      </c>
+      <c r="AE34">
+        <v>2.79</v>
+      </c>
+      <c r="AF34">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG34">
+        <v>1.55</v>
+      </c>
+      <c r="AH34">
+        <v>1.1</v>
+      </c>
+      <c r="AI34">
+        <v>5.4</v>
+      </c>
+      <c r="AJ34">
+        <v>1.23</v>
+      </c>
+      <c r="AK34">
+        <v>3.56</v>
+      </c>
+      <c r="AL34">
+        <v>1.42</v>
+      </c>
+      <c r="AM34">
+        <v>2.57</v>
+      </c>
+      <c r="AN34">
+        <v>1.73</v>
+      </c>
+      <c r="AO34">
+        <v>1.99</v>
+      </c>
+      <c r="AP34">
+        <v>2.15</v>
+      </c>
+      <c r="AQ34">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>2.05</v>
+      </c>
+      <c r="I35">
+        <v>2.88</v>
+      </c>
+      <c r="J35">
+        <v>3.45</v>
+      </c>
+      <c r="K35">
+        <v>3.3</v>
+      </c>
+      <c r="L35">
+        <v>2.06</v>
+      </c>
+      <c r="M35">
+        <v>1.44</v>
+      </c>
+      <c r="N35">
+        <v>2.63</v>
+      </c>
+      <c r="O35">
+        <v>1.06</v>
+      </c>
+      <c r="P35">
+        <v>7.5</v>
+      </c>
+      <c r="Q35">
+        <v>1.36</v>
+      </c>
+      <c r="R35">
+        <v>2.9</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <v>1.7</v>
+      </c>
+      <c r="U35">
+        <v>1.83</v>
+      </c>
+      <c r="V35">
+        <v>1.83</v>
+      </c>
+      <c r="W35">
+        <v>1.73</v>
+      </c>
+      <c r="X35">
+        <v>1.3</v>
+      </c>
+      <c r="Y35">
+        <v>1.33</v>
+      </c>
+      <c r="Z35">
+        <v>0.33</v>
+      </c>
+      <c r="AA35">
+        <v>1.67</v>
+      </c>
+      <c r="AB35">
+        <v>1.42</v>
+      </c>
+      <c r="AC35">
+        <v>1.58</v>
+      </c>
+      <c r="AD35">
+        <v>3</v>
+      </c>
+      <c r="AE35">
+        <v>2.4</v>
+      </c>
+      <c r="AF35">
+        <v>8</v>
+      </c>
+      <c r="AG35">
+        <v>1.73</v>
+      </c>
+      <c r="AH35">
+        <v>1.3</v>
+      </c>
+      <c r="AI35">
+        <v>3.2</v>
+      </c>
+      <c r="AJ35">
+        <v>1.5</v>
+      </c>
+      <c r="AK35">
+        <v>2.4</v>
+      </c>
+      <c r="AL35">
+        <v>1.94</v>
+      </c>
+      <c r="AM35">
+        <v>1.77</v>
+      </c>
+      <c r="AN35">
+        <v>2.5</v>
+      </c>
+      <c r="AO35">
+        <v>1.47</v>
+      </c>
+      <c r="AP35">
+        <v>3.2</v>
+      </c>
+      <c r="AQ35">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36">
+        <v>2.38</v>
+      </c>
+      <c r="H36">
+        <v>2.3</v>
+      </c>
+      <c r="I36">
+        <v>4.5</v>
+      </c>
+      <c r="J36">
+        <v>1.74</v>
+      </c>
+      <c r="K36">
+        <v>3.6</v>
+      </c>
+      <c r="L36">
+        <v>3.75</v>
+      </c>
+      <c r="M36">
+        <v>1.32</v>
+      </c>
+      <c r="N36">
+        <v>3.22</v>
+      </c>
+      <c r="O36">
+        <v>1.02</v>
+      </c>
+      <c r="P36">
+        <v>10.5</v>
+      </c>
+      <c r="Q36">
+        <v>1.19</v>
+      </c>
+      <c r="R36">
+        <v>3.92</v>
+      </c>
+      <c r="S36">
+        <v>1.6</v>
+      </c>
+      <c r="T36">
+        <v>2.19</v>
+      </c>
+      <c r="U36">
+        <v>1.66</v>
+      </c>
+      <c r="V36">
+        <v>2.09</v>
+      </c>
+      <c r="W36">
+        <v>1.2</v>
+      </c>
+      <c r="X36">
+        <v>1.23</v>
+      </c>
+      <c r="Y36">
+        <v>1.76</v>
+      </c>
+      <c r="Z36">
+        <v>0.33</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>1.34</v>
+      </c>
+      <c r="AC36">
+        <v>0.9</v>
+      </c>
+      <c r="AD36">
+        <v>2.24</v>
+      </c>
+      <c r="AE36">
+        <v>1.59</v>
+      </c>
+      <c r="AF36">
+        <v>9.1</v>
+      </c>
+      <c r="AG36">
+        <v>2.81</v>
+      </c>
+      <c r="AH36">
+        <v>1.25</v>
+      </c>
+      <c r="AI36">
+        <v>3.42</v>
+      </c>
+      <c r="AJ36">
+        <v>1.47</v>
+      </c>
+      <c r="AK36">
+        <v>2.42</v>
+      </c>
+      <c r="AL36">
+        <v>1.84</v>
+      </c>
+      <c r="AM36">
+        <v>1.86</v>
+      </c>
+      <c r="AN36">
+        <v>2.34</v>
+      </c>
+      <c r="AO36">
+        <v>1.5</v>
+      </c>
+      <c r="AP36">
+        <v>3.2</v>
+      </c>
+      <c r="AQ36">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>2.1</v>
+      </c>
+      <c r="I37">
+        <v>2.4</v>
+      </c>
+      <c r="J37">
+        <v>4.75</v>
+      </c>
+      <c r="K37">
+        <v>3.5</v>
+      </c>
+      <c r="L37">
+        <v>1.8</v>
+      </c>
+      <c r="M37">
+        <v>1.44</v>
+      </c>
+      <c r="N37">
+        <v>2.63</v>
+      </c>
+      <c r="O37">
+        <v>1.08</v>
+      </c>
+      <c r="P37">
+        <v>9.15</v>
+      </c>
+      <c r="Q37">
+        <v>1.39</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>2.15</v>
+      </c>
+      <c r="T37">
+        <v>1.67</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>1.73</v>
+      </c>
+      <c r="W37">
+        <v>2</v>
+      </c>
+      <c r="X37">
+        <v>1.25</v>
+      </c>
+      <c r="Y37">
+        <v>1.18</v>
+      </c>
+      <c r="Z37">
+        <v>1.14</v>
+      </c>
+      <c r="AA37">
+        <v>1.5</v>
+      </c>
+      <c r="AB37">
+        <v>1.51</v>
+      </c>
+      <c r="AC37">
+        <v>1.54</v>
+      </c>
+      <c r="AD37">
+        <v>3.05</v>
+      </c>
+      <c r="AE37">
+        <v>2.48</v>
+      </c>
+      <c r="AF37">
+        <v>8.65</v>
+      </c>
+      <c r="AG37">
+        <v>1.78</v>
+      </c>
+      <c r="AH37">
+        <v>1.13</v>
+      </c>
+      <c r="AI37">
+        <v>5.07</v>
+      </c>
+      <c r="AJ37">
+        <v>1.26</v>
+      </c>
+      <c r="AK37">
+        <v>3.45</v>
+      </c>
+      <c r="AL37">
+        <v>1.91</v>
+      </c>
+      <c r="AM37">
+        <v>2.55</v>
+      </c>
+      <c r="AN37">
+        <v>1.78</v>
+      </c>
+      <c r="AO37">
+        <v>1.97</v>
+      </c>
+      <c r="AP37">
+        <v>2.2</v>
+      </c>
+      <c r="AQ37">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38">
+        <v>2.88</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>4.33</v>
+      </c>
+      <c r="J38">
+        <v>2.15</v>
+      </c>
+      <c r="K38">
+        <v>2.8</v>
+      </c>
+      <c r="L38">
+        <v>4.2</v>
+      </c>
+      <c r="M38">
+        <v>1.5</v>
+      </c>
+      <c r="N38">
+        <v>2.5</v>
+      </c>
+      <c r="O38">
+        <v>1.1</v>
+      </c>
+      <c r="P38">
+        <v>7.9</v>
+      </c>
+      <c r="Q38">
+        <v>1.4</v>
+      </c>
+      <c r="R38">
+        <v>2.97</v>
+      </c>
+      <c r="S38">
+        <v>2.3</v>
+      </c>
+      <c r="T38">
+        <v>1.6</v>
+      </c>
+      <c r="U38">
+        <v>1.83</v>
+      </c>
+      <c r="V38">
+        <v>1.83</v>
+      </c>
+      <c r="W38">
+        <v>1.19</v>
+      </c>
+      <c r="X38">
+        <v>1.4</v>
+      </c>
+      <c r="Y38">
+        <v>1.75</v>
+      </c>
+      <c r="Z38">
+        <v>3</v>
+      </c>
+      <c r="AA38">
+        <v>1.83</v>
+      </c>
+      <c r="AB38">
+        <v>1.7</v>
+      </c>
+      <c r="AC38">
+        <v>1.14</v>
+      </c>
+      <c r="AD38">
+        <v>2.84</v>
+      </c>
+      <c r="AE38">
+        <v>1.45</v>
+      </c>
+      <c r="AF38">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG38">
+        <v>3.6</v>
+      </c>
+      <c r="AH38">
+        <v>1.35</v>
+      </c>
+      <c r="AI38">
+        <v>3</v>
+      </c>
+      <c r="AJ38">
+        <v>1.62</v>
+      </c>
+      <c r="AK38">
+        <v>2.2</v>
+      </c>
+      <c r="AL38">
+        <v>2.38</v>
+      </c>
+      <c r="AM38">
+        <v>1.75</v>
+      </c>
+      <c r="AN38">
+        <v>2.6</v>
+      </c>
+      <c r="AO38">
+        <v>1.45</v>
+      </c>
+      <c r="AP38">
+        <v>3.51</v>
+      </c>
+      <c r="AQ38">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39">
+        <v>4.33</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>2.88</v>
+      </c>
+      <c r="J39">
+        <v>3.6</v>
+      </c>
+      <c r="K39">
+        <v>3.3</v>
+      </c>
+      <c r="L39">
+        <v>2.1</v>
+      </c>
+      <c r="M39">
+        <v>1.5</v>
+      </c>
+      <c r="N39">
+        <v>2.5</v>
+      </c>
+      <c r="O39">
+        <v>1.07</v>
+      </c>
+      <c r="P39">
+        <v>7.77</v>
+      </c>
+      <c r="Q39">
+        <v>1.43</v>
+      </c>
+      <c r="R39">
+        <v>2.76</v>
+      </c>
+      <c r="S39">
+        <v>2.25</v>
+      </c>
+      <c r="T39">
+        <v>1.62</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>1.73</v>
+      </c>
+      <c r="W39">
+        <v>1.75</v>
+      </c>
+      <c r="X39">
+        <v>1.3</v>
+      </c>
+      <c r="Y39">
+        <v>1.28</v>
+      </c>
+      <c r="Z39">
+        <v>0.5</v>
+      </c>
+      <c r="AA39">
+        <v>1.33</v>
+      </c>
+      <c r="AB39">
+        <v>1.46</v>
+      </c>
+      <c r="AC39">
+        <v>1.24</v>
+      </c>
+      <c r="AD39">
+        <v>2.7</v>
+      </c>
+      <c r="AE39">
+        <v>2.18</v>
+      </c>
+      <c r="AF39">
+        <v>7.75</v>
+      </c>
+      <c r="AG39">
+        <v>2.02</v>
+      </c>
+      <c r="AH39">
+        <v>1.35</v>
+      </c>
+      <c r="AI39">
+        <v>3</v>
+      </c>
+      <c r="AJ39">
+        <v>1.62</v>
+      </c>
+      <c r="AK39">
+        <v>2.2</v>
+      </c>
+      <c r="AL39">
+        <v>2</v>
+      </c>
+      <c r="AM39">
+        <v>1.75</v>
+      </c>
+      <c r="AN39">
+        <v>2.6</v>
+      </c>
+      <c r="AO39">
+        <v>1.45</v>
+      </c>
+      <c r="AP39">
+        <v>3.51</v>
+      </c>
+      <c r="AQ39">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40">
+        <v>3.2</v>
+      </c>
+      <c r="H40">
+        <v>1.95</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>2.3</v>
+      </c>
+      <c r="K40">
+        <v>3.4</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>1.53</v>
+      </c>
+      <c r="N40">
+        <v>2.38</v>
+      </c>
+      <c r="O40">
+        <v>1.08</v>
+      </c>
+      <c r="P40">
+        <v>7.29</v>
+      </c>
+      <c r="Q40">
+        <v>1.46</v>
+      </c>
+      <c r="R40">
+        <v>2.65</v>
+      </c>
+      <c r="S40">
+        <v>2.4</v>
+      </c>
+      <c r="T40">
+        <v>1.53</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>1.73</v>
+      </c>
+      <c r="W40">
+        <v>1.36</v>
+      </c>
+      <c r="X40">
+        <v>1.32</v>
+      </c>
+      <c r="Y40">
+        <v>1.62</v>
+      </c>
+      <c r="Z40">
+        <v>1.33</v>
+      </c>
+      <c r="AA40">
+        <v>1.5</v>
+      </c>
+      <c r="AB40">
+        <v>1.64</v>
+      </c>
+      <c r="AC40">
+        <v>1.65</v>
+      </c>
+      <c r="AD40">
+        <v>3.29</v>
+      </c>
+      <c r="AE40">
+        <v>1.75</v>
+      </c>
+      <c r="AF40">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG40">
+        <v>2.45</v>
+      </c>
+      <c r="AH40">
+        <v>1.26</v>
+      </c>
+      <c r="AI40">
+        <v>3.45</v>
+      </c>
+      <c r="AJ40">
+        <v>1.53</v>
+      </c>
+      <c r="AK40">
+        <v>2.28</v>
+      </c>
+      <c r="AL40">
+        <v>1.92</v>
+      </c>
+      <c r="AM40">
+        <v>1.79</v>
+      </c>
+      <c r="AN40">
+        <v>2.5</v>
+      </c>
+      <c r="AO40">
+        <v>1.44</v>
+      </c>
+      <c r="AP40">
+        <v>3</v>
+      </c>
+      <c r="AQ40">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41">
+        <v>6.5</v>
+      </c>
+      <c r="H41">
+        <v>2.05</v>
+      </c>
+      <c r="I41">
+        <v>2.3</v>
+      </c>
+      <c r="J41">
+        <v>4.27</v>
+      </c>
+      <c r="K41">
+        <v>3.04</v>
+      </c>
+      <c r="L41">
+        <v>1.59</v>
+      </c>
+      <c r="M41">
+        <v>1.5</v>
+      </c>
+      <c r="N41">
+        <v>2.5</v>
+      </c>
+      <c r="O41">
+        <v>1.07</v>
+      </c>
+      <c r="P41">
+        <v>7.5</v>
+      </c>
+      <c r="Q41">
+        <v>1.4</v>
+      </c>
+      <c r="R41">
+        <v>2.85</v>
+      </c>
+      <c r="S41">
+        <v>2.25</v>
+      </c>
+      <c r="T41">
+        <v>1.61</v>
+      </c>
+      <c r="U41">
+        <v>2.2</v>
+      </c>
+      <c r="V41">
+        <v>1.62</v>
+      </c>
+      <c r="W41">
+        <v>2.2</v>
+      </c>
+      <c r="X41">
+        <v>1.22</v>
+      </c>
+      <c r="Y41">
+        <v>1.1</v>
+      </c>
+      <c r="Z41">
+        <v>0.5</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>1.2</v>
+      </c>
+      <c r="AC41">
+        <v>1.15</v>
+      </c>
+      <c r="AD41">
+        <v>2.35</v>
+      </c>
+      <c r="AE41">
+        <v>3</v>
+      </c>
+      <c r="AF41">
+        <v>8.5</v>
+      </c>
+      <c r="AG41">
+        <v>1.53</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>1.48</v>
+      </c>
+      <c r="AK41">
+        <v>2.47</v>
+      </c>
+      <c r="AL41">
+        <v>1.8</v>
+      </c>
+      <c r="AM41">
+        <v>1.9</v>
+      </c>
+      <c r="AN41">
+        <v>2.37</v>
+      </c>
+      <c r="AO41">
+        <v>1.51</v>
+      </c>
+      <c r="AP41">
+        <v>3.3</v>
+      </c>
+      <c r="AQ41">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-04-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="164">
   <si>
     <t>League</t>
   </si>
@@ -160,21 +160,21 @@
     <t>Norway First Division</t>
   </si>
   <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
     <t>Turkey Süper Lig</t>
   </si>
   <si>
-    <t>Sweden Allsvenskan</t>
-  </si>
-  <si>
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
     <t>Romania Liga I</t>
   </si>
   <si>
@@ -259,6 +259,9 @@
     <t>20:30:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Novi Pazar</t>
   </si>
   <si>
@@ -277,51 +280,51 @@
     <t>Fiorentina</t>
   </si>
   <si>
+    <t>Moss</t>
+  </si>
+  <si>
+    <t>Häcken</t>
+  </si>
+  <si>
+    <t>Värnamo</t>
+  </si>
+  <si>
+    <t>Kongsvinger</t>
+  </si>
+  <si>
     <t>Bryne</t>
   </si>
   <si>
     <t>Alanyaspor</t>
   </si>
   <si>
+    <t>Sandnes Ulf</t>
+  </si>
+  <si>
+    <t>Piast Gliwice</t>
+  </si>
+  <si>
+    <t>Åsane</t>
+  </si>
+  <si>
+    <t>Silkeborg</t>
+  </si>
+  <si>
     <t>Ludogorets</t>
   </si>
   <si>
-    <t>Häcken</t>
-  </si>
-  <si>
-    <t>Värnamo</t>
-  </si>
-  <si>
-    <t>Kongsvinger</t>
-  </si>
-  <si>
-    <t>Sandnes Ulf</t>
-  </si>
-  <si>
-    <t>Piast Gliwice</t>
-  </si>
-  <si>
-    <t>Åsane</t>
-  </si>
-  <si>
     <t>Mjøndalen</t>
   </si>
   <si>
+    <t>Örgryte</t>
+  </si>
+  <si>
     <t>Aalesund</t>
   </si>
   <si>
-    <t>Örgryte</t>
-  </si>
-  <si>
     <t>Gefle</t>
   </si>
   <si>
-    <t>Moss</t>
-  </si>
-  <si>
-    <t>Silkeborg</t>
-  </si>
-  <si>
     <t>Hammarby</t>
   </si>
   <si>
@@ -331,21 +334,21 @@
     <t>Utrecht II</t>
   </si>
   <si>
+    <t>Voždovac</t>
+  </si>
+  <si>
     <t>Ajax II</t>
   </si>
   <si>
-    <t>Voždovac</t>
-  </si>
-  <si>
     <t>AD Alcorcón</t>
   </si>
   <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
     <t>Grenoble Foot 38</t>
   </si>
   <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
     <t>Chelsea</t>
   </si>
   <si>
@@ -379,6 +382,9 @@
     <t>Miramar Misiones</t>
   </si>
   <si>
+    <t>Colo-Colo</t>
+  </si>
+  <si>
     <t>Radnički Niš</t>
   </si>
   <si>
@@ -397,51 +403,51 @@
     <t>Genoa</t>
   </si>
   <si>
+    <t>Ranheim</t>
+  </si>
+  <si>
+    <t>Brommapojkarna</t>
+  </si>
+  <si>
+    <t>Malmö FF</t>
+  </si>
+  <si>
+    <t>Egersund</t>
+  </si>
+  <si>
     <t>Levanger</t>
   </si>
   <si>
     <t>Galatasaray</t>
   </si>
   <si>
+    <t>Raufoss</t>
+  </si>
+  <si>
+    <t>Zagłębie Lubin</t>
+  </si>
+  <si>
+    <t>Sogndal</t>
+  </si>
+  <si>
+    <t>Nordsjælland</t>
+  </si>
+  <si>
     <t>Arda</t>
   </si>
   <si>
-    <t>Brommapojkarna</t>
-  </si>
-  <si>
-    <t>Malmö FF</t>
-  </si>
-  <si>
-    <t>Egersund</t>
-  </si>
-  <si>
-    <t>Raufoss</t>
-  </si>
-  <si>
-    <t>Zagłębie Lubin</t>
-  </si>
-  <si>
-    <t>Sogndal</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
+    <t>Brage</t>
+  </si>
+  <si>
     <t>Lyn</t>
   </si>
   <si>
-    <t>Brage</t>
-  </si>
-  <si>
     <t>Degerfors</t>
   </si>
   <si>
-    <t>Ranheim</t>
-  </si>
-  <si>
-    <t>Nordsjælland</t>
-  </si>
-  <si>
     <t>Elfsborg</t>
   </si>
   <si>
@@ -451,21 +457,21 @@
     <t>Den Bosch</t>
   </si>
   <si>
+    <t>Radnički Kragujevac</t>
+  </si>
+  <si>
     <t>Cambuur</t>
   </si>
   <si>
-    <t>Radnički Kragujevac</t>
-  </si>
-  <si>
     <t>Villarreal II</t>
   </si>
   <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
     <t>Angers SCO</t>
   </si>
   <si>
-    <t>Hellas Verona</t>
-  </si>
-  <si>
     <t>Everton</t>
   </si>
   <si>
@@ -497,6 +503,9 @@
   </si>
   <si>
     <t>Nacional</t>
+  </si>
+  <si>
+    <t>Cobreloa</t>
   </si>
 </sst>
 </file>
@@ -858,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AQ42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G2">
         <v>2.88</v>
@@ -1024,13 +1033,13 @@
         <v>3.6</v>
       </c>
       <c r="J2">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="K2">
-        <v>3.31</v>
+        <v>3.25</v>
       </c>
       <c r="L2">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
         <v>1.44</v>
@@ -1051,10 +1060,10 @@
         <v>3.1</v>
       </c>
       <c r="S2">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="U2">
         <v>1.8</v>
@@ -1096,16 +1105,16 @@
         <v>2.1</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AL2">
         <v>1.9</v>
@@ -1114,16 +1123,16 @@
         <v>1.9</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1140,10 +1149,10 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G3">
         <v>2.11</v>
@@ -1155,13 +1164,13 @@
         <v>7.04</v>
       </c>
       <c r="J3">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="K3">
-        <v>3.55</v>
+        <v>3.43</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>5.65</v>
       </c>
       <c r="M3">
         <v>1.45</v>
@@ -1271,10 +1280,10 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4">
         <v>4.03</v>
@@ -1286,13 +1295,13 @@
         <v>2.72</v>
       </c>
       <c r="J4">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="K4">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="L4">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="M4">
         <v>1.38</v>
@@ -1304,7 +1313,7 @@
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q4">
         <v>1.28</v>
@@ -1313,10 +1322,10 @@
         <v>3.18</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T4">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U4">
         <v>1.7</v>
@@ -1402,10 +1411,10 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G5">
         <v>2.75</v>
@@ -1417,13 +1426,13 @@
         <v>3.75</v>
       </c>
       <c r="J5">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="K5">
-        <v>3.29</v>
+        <v>3.2</v>
       </c>
       <c r="L5">
-        <v>3.29</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>1.44</v>
@@ -1444,10 +1453,10 @@
         <v>3.1</v>
       </c>
       <c r="S5">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="U5">
         <v>1.83</v>
@@ -1489,16 +1498,16 @@
         <v>2.33</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AL5">
         <v>1.95</v>
@@ -1507,16 +1516,16 @@
         <v>1.85</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1533,10 +1542,10 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1548,13 +1557,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="K6">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="L6">
-        <v>2.79</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1575,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1664,10 +1673,10 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G7">
         <v>2.5</v>
@@ -1679,13 +1688,13 @@
         <v>4.75</v>
       </c>
       <c r="J7">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="K7">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L7">
-        <v>4.35</v>
+        <v>4.22</v>
       </c>
       <c r="M7">
         <v>1.44</v>
@@ -1706,10 +1715,10 @@
         <v>3.35</v>
       </c>
       <c r="S7">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T7">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U7">
         <v>1.95</v>
@@ -1795,91 +1804,91 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G8">
+        <v>2.81</v>
+      </c>
+      <c r="H8">
         <v>2.4</v>
       </c>
-      <c r="H8">
+      <c r="I8">
+        <v>3.42</v>
+      </c>
+      <c r="J8">
         <v>2.3</v>
       </c>
-      <c r="I8">
-        <v>3.9</v>
-      </c>
-      <c r="J8">
-        <v>1.9</v>
-      </c>
       <c r="K8">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="M8">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="N8">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="O8">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P8">
-        <v>16.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q8">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="R8">
-        <v>4.58</v>
+        <v>4.15</v>
       </c>
       <c r="S8">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="T8">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="U8">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="V8">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="W8">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="X8">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="Y8">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="Z8">
         <v>3</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="AC8">
-        <v>1.11</v>
+        <v>1.53</v>
       </c>
       <c r="AD8">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1888,28 +1897,28 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1923,129 +1932,129 @@
         <v>69</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G9">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H9">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I9">
-        <v>1.83</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>5.25</v>
+        <v>1.81</v>
       </c>
       <c r="K9">
-        <v>4.35</v>
+        <v>4.28</v>
       </c>
       <c r="L9">
-        <v>1.48</v>
+        <v>3.83</v>
       </c>
       <c r="M9">
         <v>1.25</v>
       </c>
       <c r="N9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O9">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q9">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="S9">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
+        <v>1.5</v>
+      </c>
+      <c r="V9">
+        <v>2.5</v>
+      </c>
+      <c r="W9">
+        <v>1.22</v>
+      </c>
+      <c r="X9">
+        <v>1.2</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>1.85</v>
+      </c>
+      <c r="AC9">
+        <v>1.93</v>
+      </c>
+      <c r="AD9">
+        <v>3.78</v>
+      </c>
+      <c r="AE9">
+        <v>1.69</v>
+      </c>
+      <c r="AF9">
+        <v>8.5</v>
+      </c>
+      <c r="AG9">
         <v>2.53</v>
       </c>
-      <c r="U9">
-        <v>1.61</v>
-      </c>
-      <c r="V9">
-        <v>2.29</v>
-      </c>
-      <c r="W9">
-        <v>2.6</v>
-      </c>
-      <c r="X9">
-        <v>1.22</v>
-      </c>
-      <c r="Y9">
-        <v>1.17</v>
-      </c>
-      <c r="Z9">
-        <v>1.6</v>
-      </c>
-      <c r="AA9">
-        <v>2.4</v>
-      </c>
-      <c r="AB9">
-        <v>1.41</v>
-      </c>
-      <c r="AC9">
-        <v>1.7</v>
-      </c>
-      <c r="AD9">
-        <v>3.11</v>
-      </c>
-      <c r="AE9">
-        <v>3.62</v>
-      </c>
-      <c r="AF9">
-        <v>10.25</v>
-      </c>
-      <c r="AG9">
-        <v>1.39</v>
-      </c>
       <c r="AH9">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AI9">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="AJ9">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AK9">
-        <v>2.8</v>
+        <v>4.05</v>
       </c>
       <c r="AL9">
-        <v>1.7</v>
+        <v>1.36</v>
       </c>
       <c r="AM9">
-        <v>2.05</v>
+        <v>2.79</v>
       </c>
       <c r="AN9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AO9">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="AP9">
-        <v>2.5</v>
+        <v>2.04</v>
       </c>
       <c r="AQ9">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2">
         <v>45397</v>
@@ -2054,129 +2063,129 @@
         <v>69</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G10">
+        <v>7.5</v>
+      </c>
+      <c r="H10">
+        <v>2.6</v>
+      </c>
+      <c r="I10">
+        <v>1.8</v>
+      </c>
+      <c r="J10">
+        <v>9.65</v>
+      </c>
+      <c r="K10">
+        <v>5.89</v>
+      </c>
+      <c r="L10">
+        <v>1.29</v>
+      </c>
+      <c r="M10">
+        <v>1.29</v>
+      </c>
+      <c r="N10">
+        <v>3.5</v>
+      </c>
+      <c r="O10">
+        <v>1.02</v>
+      </c>
+      <c r="P10">
+        <v>17</v>
+      </c>
+      <c r="Q10">
+        <v>1.19</v>
+      </c>
+      <c r="R10">
+        <v>4.75</v>
+      </c>
+      <c r="S10">
+        <v>1.53</v>
+      </c>
+      <c r="T10">
+        <v>2.28</v>
+      </c>
+      <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
+        <v>1.8</v>
+      </c>
+      <c r="W10">
+        <v>3.3</v>
+      </c>
+      <c r="X10">
+        <v>1.12</v>
+      </c>
+      <c r="Y10">
+        <v>1.05</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>3</v>
+      </c>
+      <c r="AB10">
+        <v>1.23</v>
+      </c>
+      <c r="AC10">
+        <v>1.72</v>
+      </c>
+      <c r="AD10">
+        <v>2.95</v>
+      </c>
+      <c r="AE10">
+        <v>5.1</v>
+      </c>
+      <c r="AF10">
+        <v>11</v>
+      </c>
+      <c r="AG10">
+        <v>1.23</v>
+      </c>
+      <c r="AH10">
+        <v>1.15</v>
+      </c>
+      <c r="AI10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ10">
+        <v>1.29</v>
+      </c>
+      <c r="AK10">
+        <v>3.4</v>
+      </c>
+      <c r="AL10">
+        <v>1.55</v>
+      </c>
+      <c r="AM10">
+        <v>2.4</v>
+      </c>
+      <c r="AN10">
+        <v>1.87</v>
+      </c>
+      <c r="AO10">
+        <v>1.93</v>
+      </c>
+      <c r="AP10">
+        <v>2.28</v>
+      </c>
+      <c r="AQ10">
         <v>1.61</v>
-      </c>
-      <c r="H10">
-        <v>2.73</v>
-      </c>
-      <c r="I10">
-        <v>10.64</v>
-      </c>
-      <c r="J10">
-        <v>1.22</v>
-      </c>
-      <c r="K10">
-        <v>5.75</v>
-      </c>
-      <c r="L10">
-        <v>12</v>
-      </c>
-      <c r="M10">
-        <v>1.32</v>
-      </c>
-      <c r="N10">
-        <v>3.15</v>
-      </c>
-      <c r="O10">
-        <v>1.03</v>
-      </c>
-      <c r="P10">
-        <v>16</v>
-      </c>
-      <c r="Q10">
-        <v>1.22</v>
-      </c>
-      <c r="R10">
-        <v>3.9</v>
-      </c>
-      <c r="S10">
-        <v>1.78</v>
-      </c>
-      <c r="T10">
-        <v>1.97</v>
-      </c>
-      <c r="U10">
-        <v>2.4</v>
-      </c>
-      <c r="V10">
-        <v>1.5</v>
-      </c>
-      <c r="W10">
-        <v>1.04</v>
-      </c>
-      <c r="X10">
-        <v>1.1</v>
-      </c>
-      <c r="Y10">
-        <v>4.1</v>
-      </c>
-      <c r="Z10">
-        <v>2.5</v>
-      </c>
-      <c r="AA10">
-        <v>1.14</v>
-      </c>
-      <c r="AB10">
-        <v>2.36</v>
-      </c>
-      <c r="AC10">
-        <v>1.3</v>
-      </c>
-      <c r="AD10">
-        <v>3.66</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2">
         <v>45397</v>
@@ -2188,126 +2197,126 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G11">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H11">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J11">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="K11">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M11">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="N11">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O11">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P11">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q11">
+        <v>1.2</v>
+      </c>
+      <c r="R11">
+        <v>4.55</v>
+      </c>
+      <c r="S11">
+        <v>1.56</v>
+      </c>
+      <c r="T11">
+        <v>2.35</v>
+      </c>
+      <c r="U11">
+        <v>1.65</v>
+      </c>
+      <c r="V11">
+        <v>2.2</v>
+      </c>
+      <c r="W11">
         <v>1.17</v>
       </c>
-      <c r="R11">
-        <v>5.25</v>
-      </c>
-      <c r="S11">
-        <v>1.45</v>
-      </c>
-      <c r="T11">
-        <v>2.55</v>
-      </c>
-      <c r="U11">
-        <v>1.5</v>
-      </c>
-      <c r="V11">
-        <v>2.5</v>
-      </c>
-      <c r="W11">
-        <v>1.22</v>
-      </c>
       <c r="X11">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA11">
         <v>3</v>
       </c>
       <c r="AB11">
+        <v>1.34</v>
+      </c>
+      <c r="AC11">
+        <v>1.83</v>
+      </c>
+      <c r="AD11">
+        <v>3.17</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1.58</v>
+      </c>
+      <c r="AM11">
+        <v>2.33</v>
+      </c>
+      <c r="AN11">
+        <v>1.95</v>
+      </c>
+      <c r="AO11">
         <v>1.85</v>
       </c>
-      <c r="AC11">
-        <v>1.93</v>
-      </c>
-      <c r="AD11">
-        <v>3.78</v>
-      </c>
-      <c r="AE11">
-        <v>1.69</v>
-      </c>
-      <c r="AF11">
-        <v>8.5</v>
-      </c>
-      <c r="AG11">
-        <v>2.53</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>1.18</v>
-      </c>
-      <c r="AK11">
-        <v>4.05</v>
-      </c>
-      <c r="AL11">
-        <v>1.36</v>
-      </c>
-      <c r="AM11">
-        <v>2.79</v>
-      </c>
-      <c r="AN11">
-        <v>1.85</v>
-      </c>
-      <c r="AO11">
-        <v>1.95</v>
-      </c>
       <c r="AP11">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="AQ11">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2">
         <v>45397</v>
@@ -2319,91 +2328,91 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G12">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="H12">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="I12">
+        <v>3.9</v>
+      </c>
+      <c r="J12">
         <v>1.8</v>
       </c>
-      <c r="J12">
-        <v>8</v>
-      </c>
       <c r="K12">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>1.3</v>
+      </c>
+      <c r="N12">
+        <v>3.3</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>16.5</v>
+      </c>
+      <c r="Q12">
+        <v>1.2</v>
+      </c>
+      <c r="R12">
+        <v>4.58</v>
+      </c>
+      <c r="S12">
+        <v>1.63</v>
+      </c>
+      <c r="T12">
+        <v>2.2</v>
+      </c>
+      <c r="U12">
+        <v>1.58</v>
+      </c>
+      <c r="V12">
+        <v>2.3</v>
+      </c>
+      <c r="W12">
+        <v>1.28</v>
+      </c>
+      <c r="X12">
+        <v>1.22</v>
+      </c>
+      <c r="Y12">
+        <v>1.83</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
         <v>1.35</v>
       </c>
-      <c r="M12">
-        <v>1.29</v>
-      </c>
-      <c r="N12">
-        <v>3.5</v>
-      </c>
-      <c r="O12">
-        <v>1.02</v>
-      </c>
-      <c r="P12">
-        <v>17</v>
-      </c>
-      <c r="Q12">
-        <v>1.19</v>
-      </c>
-      <c r="R12">
-        <v>4.75</v>
-      </c>
-      <c r="S12">
-        <v>1.55</v>
-      </c>
-      <c r="T12">
-        <v>2.3</v>
-      </c>
-      <c r="U12">
-        <v>1.95</v>
-      </c>
-      <c r="V12">
-        <v>1.8</v>
-      </c>
-      <c r="W12">
-        <v>3.3</v>
-      </c>
-      <c r="X12">
-        <v>1.12</v>
-      </c>
-      <c r="Y12">
-        <v>1.05</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>3</v>
-      </c>
-      <c r="AB12">
-        <v>1.23</v>
-      </c>
       <c r="AC12">
-        <v>1.72</v>
+        <v>1.11</v>
       </c>
       <c r="AD12">
-        <v>2.95</v>
+        <v>2.46</v>
       </c>
       <c r="AE12">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -2418,27 +2427,27 @@
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AM12">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="AN12">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="AO12">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="AP12">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
-        <v>1.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2">
         <v>45397</v>
@@ -2447,124 +2456,124 @@
         <v>69</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G13">
-        <v>2.15</v>
+        <v>5.3</v>
       </c>
       <c r="H13">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="I13">
-        <v>4.5</v>
+        <v>1.83</v>
       </c>
       <c r="J13">
-        <v>1.67</v>
+        <v>5.54</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>4.69</v>
       </c>
       <c r="L13">
-        <v>4.4</v>
+        <v>1.52</v>
       </c>
       <c r="M13">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="N13">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O13">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P13">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q13">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="R13">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="S13">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="T13">
-        <v>2.22</v>
+        <v>2.55</v>
       </c>
       <c r="U13">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="V13">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="W13">
+        <v>2.6</v>
+      </c>
+      <c r="X13">
+        <v>1.22</v>
+      </c>
+      <c r="Y13">
         <v>1.17</v>
       </c>
-      <c r="X13">
-        <v>1.18</v>
-      </c>
-      <c r="Y13">
-        <v>2.1</v>
-      </c>
       <c r="Z13">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AA13">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AB13">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AC13">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AD13">
-        <v>3.17</v>
+        <v>3.11</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2581,10 +2590,10 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G14">
         <v>2.9</v>
@@ -2596,13 +2605,13 @@
         <v>3.3</v>
       </c>
       <c r="J14">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K14">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="L14">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="M14">
         <v>1.3</v>
@@ -2623,10 +2632,10 @@
         <v>4.2</v>
       </c>
       <c r="S14">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="T14">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="U14">
         <v>1.57</v>
@@ -2712,10 +2721,10 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G15">
         <v>2.75</v>
@@ -2727,10 +2736,10 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="K15">
-        <v>3.2</v>
+        <v>3.19</v>
       </c>
       <c r="L15">
         <v>3.68</v>
@@ -2843,10 +2852,10 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G16">
         <v>2.76</v>
@@ -2858,13 +2867,13 @@
         <v>3.46</v>
       </c>
       <c r="J16">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="M16">
         <v>1.28</v>
@@ -2885,10 +2894,10 @@
         <v>4.5</v>
       </c>
       <c r="S16">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="T16">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="U16">
         <v>1.52</v>
@@ -2962,7 +2971,7 @@
     </row>
     <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
         <v>45397</v>
@@ -2974,40 +2983,40 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G17">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="H17">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I17">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="J17">
-        <v>2.33</v>
+        <v>3.49</v>
       </c>
       <c r="K17">
-        <v>3.65</v>
+        <v>3.61</v>
       </c>
       <c r="L17">
-        <v>2.6</v>
+        <v>1.98</v>
       </c>
       <c r="M17">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="N17">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="O17">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P17">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Q17">
         <v>1.22</v>
@@ -3016,84 +3025,84 @@
         <v>4.3</v>
       </c>
       <c r="S17">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="T17">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U17">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V17">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="W17">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="X17">
         <v>1.22</v>
       </c>
       <c r="Y17">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB17">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="AC17">
+        <v>1.46</v>
+      </c>
+      <c r="AD17">
+        <v>2.88</v>
+      </c>
+      <c r="AE17">
+        <v>2.66</v>
+      </c>
+      <c r="AF17">
+        <v>9</v>
+      </c>
+      <c r="AG17">
+        <v>1.67</v>
+      </c>
+      <c r="AH17">
+        <v>1.29</v>
+      </c>
+      <c r="AI17">
+        <v>3.14</v>
+      </c>
+      <c r="AJ17">
+        <v>1.56</v>
+      </c>
+      <c r="AK17">
+        <v>2.27</v>
+      </c>
+      <c r="AL17">
+        <v>1.97</v>
+      </c>
+      <c r="AM17">
         <v>1.78</v>
       </c>
-      <c r="AD17">
-        <v>2.98</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
       <c r="AN17">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="18" spans="1:43">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2">
         <v>45397</v>
@@ -3102,85 +3111,85 @@
         <v>69</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G18">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="H18">
-        <v>2.4</v>
+        <v>2.73</v>
       </c>
       <c r="I18">
-        <v>4.8</v>
+        <v>10.64</v>
       </c>
       <c r="J18">
-        <v>1.61</v>
+        <v>1.18</v>
       </c>
       <c r="K18">
-        <v>3.9</v>
+        <v>5.86</v>
       </c>
       <c r="L18">
-        <v>4.75</v>
+        <v>13.73</v>
       </c>
       <c r="M18">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="N18">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>17.25</v>
+        <v>16</v>
       </c>
       <c r="Q18">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="R18">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="S18">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="T18">
-        <v>2.33</v>
+        <v>1.97</v>
       </c>
       <c r="U18">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="V18">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="W18">
+        <v>1.04</v>
+      </c>
+      <c r="X18">
+        <v>1.1</v>
+      </c>
+      <c r="Y18">
+        <v>4.1</v>
+      </c>
+      <c r="Z18">
+        <v>2.5</v>
+      </c>
+      <c r="AA18">
         <v>1.14</v>
       </c>
-      <c r="X18">
-        <v>1.18</v>
-      </c>
-      <c r="Y18">
-        <v>2.2</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
       <c r="AB18">
-        <v>1.52</v>
+        <v>2.36</v>
       </c>
       <c r="AC18">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="AD18">
-        <v>2.17</v>
+        <v>3.66</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -3224,7 +3233,7 @@
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>45397</v>
@@ -3236,126 +3245,126 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G19">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="H19">
         <v>2.2</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J19">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="K19">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="L19">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M19">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O19">
         <v>1.04</v>
       </c>
       <c r="P19">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Q19">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R19">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="S19">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="T19">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="U19">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="V19">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="W19">
+        <v>1.45</v>
+      </c>
+      <c r="X19">
+        <v>1.22</v>
+      </c>
+      <c r="Y19">
         <v>1.57</v>
       </c>
-      <c r="X19">
-        <v>1.25</v>
-      </c>
-      <c r="Y19">
-        <v>1.45</v>
-      </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AC19">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="AD19">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="AE19">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1.72</v>
+      </c>
+      <c r="AM19">
         <v>2.1</v>
       </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>1.23</v>
-      </c>
-      <c r="AK19">
-        <v>3.56</v>
-      </c>
-      <c r="AL19">
-        <v>1.43</v>
-      </c>
-      <c r="AM19">
-        <v>2.54</v>
-      </c>
       <c r="AN19">
-        <v>1.74</v>
+        <v>2.15</v>
       </c>
       <c r="AO19">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="AP19">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
-        <v>1.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2">
         <v>45397</v>
@@ -3367,67 +3376,67 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G20">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="H20">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="I20">
-        <v>2.19</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>4.8</v>
+        <v>2.51</v>
       </c>
       <c r="K20">
-        <v>3.9</v>
+        <v>3.63</v>
       </c>
       <c r="L20">
+        <v>2.49</v>
+      </c>
+      <c r="M20">
+        <v>1.34</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>1.04</v>
+      </c>
+      <c r="P20">
+        <v>13</v>
+      </c>
+      <c r="Q20">
+        <v>1.25</v>
+      </c>
+      <c r="R20">
+        <v>3.75</v>
+      </c>
+      <c r="S20">
+        <v>1.73</v>
+      </c>
+      <c r="T20">
+        <v>2.05</v>
+      </c>
+      <c r="U20">
         <v>1.63</v>
       </c>
-      <c r="M20">
-        <v>1.33</v>
-      </c>
-      <c r="N20">
-        <v>3.15</v>
-      </c>
-      <c r="O20">
-        <v>1.02</v>
-      </c>
-      <c r="P20">
-        <v>15</v>
-      </c>
-      <c r="Q20">
-        <v>1.2</v>
-      </c>
-      <c r="R20">
-        <v>3.88</v>
-      </c>
-      <c r="S20">
-        <v>1.7</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>1.7</v>
-      </c>
       <c r="V20">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="W20">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="X20">
         <v>1.25</v>
       </c>
       <c r="Y20">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3436,22 +3445,22 @@
         <v>1</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AC20">
-        <v>1.21</v>
+        <v>1.61</v>
       </c>
       <c r="AD20">
-        <v>2.21</v>
+        <v>2.97</v>
       </c>
       <c r="AE20">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="AF20">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG20">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -3460,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AL20">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AM20">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="AN20">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="AO20">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AP20">
-        <v>2.43</v>
+        <v>2.16</v>
       </c>
       <c r="AQ20">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3498,91 +3507,91 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G21">
-        <v>2.81</v>
+        <v>2.05</v>
       </c>
       <c r="H21">
         <v>2.4</v>
       </c>
       <c r="I21">
-        <v>3.42</v>
+        <v>4.8</v>
       </c>
       <c r="J21">
-        <v>2.16</v>
+        <v>1.55</v>
       </c>
       <c r="K21">
-        <v>4.21</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>2.62</v>
+        <v>4.6</v>
       </c>
       <c r="M21">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="N21">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="O21">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P21">
-        <v>8.5</v>
+        <v>17.25</v>
       </c>
       <c r="Q21">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="R21">
-        <v>4.15</v>
+        <v>4.7</v>
       </c>
       <c r="S21">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="T21">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="U21">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="V21">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="W21">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="X21">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="Y21">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Z21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>1.13</v>
+        <v>1.52</v>
       </c>
       <c r="AC21">
-        <v>1.53</v>
+        <v>0.65</v>
       </c>
       <c r="AD21">
-        <v>2.66</v>
+        <v>2.17</v>
       </c>
       <c r="AE21">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -3591,28 +3600,28 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AK21">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AL21">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="AM21">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="AN21">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO21">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AP21">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="AQ21">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3629,126 +3638,126 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G22">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="H22">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="I22">
-        <v>2.6</v>
+        <v>2.19</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4.66</v>
       </c>
       <c r="K22">
-        <v>3.8</v>
+        <v>3.91</v>
       </c>
       <c r="L22">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="M22">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="O22">
         <v>1.02</v>
       </c>
       <c r="P22">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Q22">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R22">
-        <v>4.3</v>
+        <v>3.88</v>
       </c>
       <c r="S22">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="T22">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="V22">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="W22">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="X22">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y22">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="Z22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AD22">
-        <v>2.88</v>
+        <v>2.21</v>
       </c>
       <c r="AE22">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="AF22">
         <v>9</v>
       </c>
       <c r="AG22">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AH22">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AI22">
-        <v>3.14</v>
+        <v>4.3</v>
       </c>
       <c r="AJ22">
-        <v>1.56</v>
+        <v>1.28</v>
       </c>
       <c r="AK22">
-        <v>2.27</v>
+        <v>3.2</v>
       </c>
       <c r="AL22">
-        <v>1.97</v>
+        <v>1.5</v>
       </c>
       <c r="AM22">
-        <v>1.78</v>
+        <v>2.45</v>
       </c>
       <c r="AN22">
-        <v>2.57</v>
+        <v>1.92</v>
       </c>
       <c r="AO22">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="AP22">
-        <v>3.48</v>
+        <v>2.43</v>
       </c>
       <c r="AQ22">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2">
         <v>45397</v>
@@ -3760,10 +3769,10 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G23">
         <v>3.1</v>
@@ -3775,13 +3784,13 @@
         <v>3.25</v>
       </c>
       <c r="J23">
-        <v>2.45</v>
+        <v>2.86</v>
       </c>
       <c r="K23">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="L23">
-        <v>2.63</v>
+        <v>2.46</v>
       </c>
       <c r="M23">
         <v>1.36</v>
@@ -3802,10 +3811,10 @@
         <v>3.75</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T23">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="U23">
         <v>1.67</v>
@@ -3891,10 +3900,10 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G24">
         <v>2.6</v>
@@ -3906,13 +3915,13 @@
         <v>4.33</v>
       </c>
       <c r="J24">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="K24">
-        <v>3.35</v>
+        <v>3.48</v>
       </c>
       <c r="L24">
-        <v>3.75</v>
+        <v>3.67</v>
       </c>
       <c r="M24">
         <v>1.4</v>
@@ -3933,10 +3942,10 @@
         <v>3.3</v>
       </c>
       <c r="S24">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T24">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="U24">
         <v>1.78</v>
@@ -4022,10 +4031,10 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -4109,10 +4118,10 @@
         <v>2.12</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ25">
         <v>1.36</v>
@@ -4141,7 +4150,7 @@
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2">
         <v>45397</v>
@@ -4150,25 +4159,25 @@
         <v>72</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>3.1</v>
       </c>
       <c r="H26">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I26">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J26">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K26">
         <v>3.4</v>
@@ -4177,102 +4186,102 @@
         <v>2.3</v>
       </c>
       <c r="M26">
+        <v>1.36</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>1.04</v>
+      </c>
+      <c r="P26">
+        <v>9</v>
+      </c>
+      <c r="Q26">
         <v>1.25</v>
       </c>
-      <c r="N26">
-        <v>3.75</v>
-      </c>
-      <c r="O26">
-        <v>1.02</v>
-      </c>
-      <c r="P26">
-        <v>21</v>
-      </c>
-      <c r="Q26">
-        <v>1.13</v>
-      </c>
       <c r="R26">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="S26">
+        <v>1.73</v>
+      </c>
+      <c r="T26">
+        <v>1.88</v>
+      </c>
+      <c r="U26">
+        <v>1.67</v>
+      </c>
+      <c r="V26">
+        <v>2.1</v>
+      </c>
+      <c r="W26">
         <v>1.5</v>
       </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.44</v>
-      </c>
-      <c r="V26">
-        <v>2.63</v>
-      </c>
-      <c r="W26">
-        <v>1.6</v>
-      </c>
       <c r="X26">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="Y26">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Z26">
+        <v>1.64</v>
+      </c>
+      <c r="AA26">
+        <v>1.14</v>
+      </c>
+      <c r="AB26">
         <v>1.56</v>
       </c>
-      <c r="AA26">
-        <v>1.44</v>
-      </c>
-      <c r="AB26">
-        <v>1.54</v>
-      </c>
       <c r="AC26">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AD26">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="AE26">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AF26">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="AG26">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AJ26">
-        <v>1.33</v>
+        <v>1.95</v>
       </c>
       <c r="AK26">
-        <v>2.93</v>
+        <v>1.85</v>
       </c>
       <c r="AL26">
-        <v>1.59</v>
+        <v>2.36</v>
       </c>
       <c r="AM26">
-        <v>2.16</v>
+        <v>1.52</v>
       </c>
       <c r="AN26">
-        <v>1.99</v>
+        <v>3.1</v>
       </c>
       <c r="AO26">
-        <v>1.73</v>
+        <v>1.31</v>
       </c>
       <c r="AP26">
-        <v>2.57</v>
+        <v>4.4</v>
       </c>
       <c r="AQ26">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2">
         <v>45397</v>
@@ -4281,124 +4290,124 @@
         <v>72</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G27">
         <v>3.1</v>
       </c>
       <c r="H27">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="I27">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J27">
-        <v>2.52</v>
+        <v>2.88</v>
       </c>
       <c r="K27">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="L27">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="M27">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O27">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P27">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Q27">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="R27">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="S27">
+        <v>1.5</v>
+      </c>
+      <c r="T27">
+        <v>2.5</v>
+      </c>
+      <c r="U27">
+        <v>1.44</v>
+      </c>
+      <c r="V27">
+        <v>2.63</v>
+      </c>
+      <c r="W27">
+        <v>1.6</v>
+      </c>
+      <c r="X27">
+        <v>1.27</v>
+      </c>
+      <c r="Y27">
+        <v>1.48</v>
+      </c>
+      <c r="Z27">
+        <v>1.56</v>
+      </c>
+      <c r="AA27">
+        <v>1.44</v>
+      </c>
+      <c r="AB27">
+        <v>1.54</v>
+      </c>
+      <c r="AC27">
+        <v>1.63</v>
+      </c>
+      <c r="AD27">
+        <v>3.17</v>
+      </c>
+      <c r="AE27">
+        <v>2.18</v>
+      </c>
+      <c r="AF27">
+        <v>8.9</v>
+      </c>
+      <c r="AG27">
+        <v>1.87</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>1.33</v>
+      </c>
+      <c r="AK27">
+        <v>2.93</v>
+      </c>
+      <c r="AL27">
+        <v>1.59</v>
+      </c>
+      <c r="AM27">
+        <v>2.16</v>
+      </c>
+      <c r="AN27">
+        <v>1.99</v>
+      </c>
+      <c r="AO27">
         <v>1.73</v>
       </c>
-      <c r="T27">
-        <v>1.88</v>
-      </c>
-      <c r="U27">
-        <v>1.67</v>
-      </c>
-      <c r="V27">
-        <v>2.1</v>
-      </c>
-      <c r="W27">
-        <v>1.5</v>
-      </c>
-      <c r="X27">
-        <v>1.22</v>
-      </c>
-      <c r="Y27">
-        <v>1.5</v>
-      </c>
-      <c r="Z27">
-        <v>1.64</v>
-      </c>
-      <c r="AA27">
-        <v>1.14</v>
-      </c>
-      <c r="AB27">
-        <v>1.56</v>
-      </c>
-      <c r="AC27">
-        <v>1.56</v>
-      </c>
-      <c r="AD27">
-        <v>3.12</v>
-      </c>
-      <c r="AE27">
-        <v>2.25</v>
-      </c>
-      <c r="AF27">
-        <v>7.5</v>
-      </c>
-      <c r="AG27">
-        <v>1.91</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>1.95</v>
-      </c>
-      <c r="AK27">
-        <v>1.85</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
       <c r="AP27">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4415,10 +4424,10 @@
         <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -4430,13 +4439,13 @@
         <v>4</v>
       </c>
       <c r="J28">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="K28">
-        <v>2.95</v>
+        <v>3.18</v>
       </c>
       <c r="L28">
-        <v>3.25</v>
+        <v>3.48</v>
       </c>
       <c r="M28">
         <v>1.5</v>
@@ -4457,10 +4466,10 @@
         <v>2.75</v>
       </c>
       <c r="S28">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="T28">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="U28">
         <v>1.91</v>
@@ -4534,7 +4543,7 @@
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2">
         <v>45397</v>
@@ -4546,126 +4555,126 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G29">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="H29">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="I29">
+        <v>6.5</v>
+      </c>
+      <c r="J29">
+        <v>1.44</v>
+      </c>
+      <c r="K29">
+        <v>4.55</v>
+      </c>
+      <c r="L29">
+        <v>6.44</v>
+      </c>
+      <c r="M29">
+        <v>1.33</v>
+      </c>
+      <c r="N29">
         <v>3.25</v>
-      </c>
-      <c r="J29">
-        <v>2.8</v>
-      </c>
-      <c r="K29">
-        <v>2.95</v>
-      </c>
-      <c r="L29">
-        <v>2.6</v>
-      </c>
-      <c r="M29">
-        <v>1.47</v>
-      </c>
-      <c r="N29">
-        <v>2.58</v>
       </c>
       <c r="O29">
         <v>1.04</v>
       </c>
       <c r="P29">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="Q29">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="R29">
-        <v>3.11</v>
+        <v>4.18</v>
       </c>
       <c r="S29">
-        <v>2.15</v>
+        <v>1.77</v>
       </c>
       <c r="T29">
-        <v>1.66</v>
+        <v>2.05</v>
       </c>
       <c r="U29">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="W29">
-        <v>1.51</v>
+        <v>1.1</v>
       </c>
       <c r="X29">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="Y29">
-        <v>1.44</v>
+        <v>2.7</v>
       </c>
       <c r="Z29">
-        <v>1.6</v>
+        <v>2.21</v>
       </c>
       <c r="AA29">
+        <v>0.63</v>
+      </c>
+      <c r="AB29">
+        <v>1.82</v>
+      </c>
+      <c r="AC29">
+        <v>1.15</v>
+      </c>
+      <c r="AD29">
+        <v>2.97</v>
+      </c>
+      <c r="AE29">
+        <v>1.26</v>
+      </c>
+      <c r="AF29">
+        <v>9.5</v>
+      </c>
+      <c r="AG29">
+        <v>4.3</v>
+      </c>
+      <c r="AH29">
         <v>1.2</v>
       </c>
-      <c r="AB29">
-        <v>1.55</v>
-      </c>
-      <c r="AC29">
-        <v>1.35</v>
-      </c>
-      <c r="AD29">
-        <v>2.9</v>
-      </c>
-      <c r="AE29">
-        <v>1.87</v>
-      </c>
-      <c r="AF29">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AG29">
-        <v>2.29</v>
-      </c>
-      <c r="AH29">
-        <v>1.26</v>
-      </c>
       <c r="AI29">
-        <v>3.34</v>
+        <v>3.84</v>
       </c>
       <c r="AJ29">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AK29">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="AL29">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AM29">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AN29">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AP29">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AQ29">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2">
         <v>45397</v>
@@ -4677,121 +4686,121 @@
         <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G30">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="H30">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="I30">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="J30">
-        <v>1.4</v>
+        <v>2.81</v>
       </c>
       <c r="K30">
-        <v>4.8</v>
+        <v>3.05</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="M30">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="N30">
-        <v>3.25</v>
+        <v>2.58</v>
       </c>
       <c r="O30">
         <v>1.04</v>
       </c>
       <c r="P30">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="Q30">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="R30">
-        <v>4.18</v>
+        <v>3.11</v>
       </c>
       <c r="S30">
-        <v>1.71</v>
+        <v>2.09</v>
       </c>
       <c r="T30">
-        <v>2.14</v>
+        <v>1.63</v>
       </c>
       <c r="U30">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V30">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>1.1</v>
+        <v>1.51</v>
       </c>
       <c r="X30">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="Y30">
-        <v>2.7</v>
+        <v>1.44</v>
       </c>
       <c r="Z30">
-        <v>2.21</v>
+        <v>1.6</v>
       </c>
       <c r="AA30">
-        <v>0.63</v>
+        <v>1.2</v>
       </c>
       <c r="AB30">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AC30">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="AD30">
-        <v>2.97</v>
+        <v>2.9</v>
       </c>
       <c r="AE30">
+        <v>1.87</v>
+      </c>
+      <c r="AF30">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG30">
+        <v>2.29</v>
+      </c>
+      <c r="AH30">
         <v>1.26</v>
       </c>
-      <c r="AF30">
-        <v>9.5</v>
-      </c>
-      <c r="AG30">
-        <v>4.3</v>
-      </c>
-      <c r="AH30">
-        <v>1.2</v>
-      </c>
       <c r="AI30">
-        <v>3.84</v>
+        <v>3.34</v>
       </c>
       <c r="AJ30">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AK30">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="AL30">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AM30">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AN30">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AO30">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AQ30">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -4808,10 +4817,10 @@
         <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G31">
         <v>2.2</v>
@@ -4823,13 +4832,13 @@
         <v>4.5</v>
       </c>
       <c r="J31">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="K31">
-        <v>4.25</v>
+        <v>4.16</v>
       </c>
       <c r="L31">
-        <v>5.3</v>
+        <v>4.57</v>
       </c>
       <c r="M31">
         <v>1.29</v>
@@ -4850,10 +4859,10 @@
         <v>4.6</v>
       </c>
       <c r="S31">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="T31">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="U31">
         <v>1.57</v>
@@ -4939,10 +4948,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -4954,13 +4963,13 @@
         <v>4.5</v>
       </c>
       <c r="J32">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="M32">
         <v>1.57</v>
@@ -4975,16 +4984,16 @@
         <v>7.8</v>
       </c>
       <c r="Q32">
+        <v>1.51</v>
+      </c>
+      <c r="R32">
+        <v>2.57</v>
+      </c>
+      <c r="S32">
+        <v>2.55</v>
+      </c>
+      <c r="T32">
         <v>1.5</v>
-      </c>
-      <c r="R32">
-        <v>2.55</v>
-      </c>
-      <c r="S32">
-        <v>2.48</v>
-      </c>
-      <c r="T32">
-        <v>1.44</v>
       </c>
       <c r="U32">
         <v>2.2</v>
@@ -5070,10 +5079,10 @@
         <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -5085,13 +5094,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="K33">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>3.61</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -5112,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="T33">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -5201,10 +5210,10 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G34">
         <v>4.8</v>
@@ -5216,13 +5225,13 @@
         <v>1.85</v>
       </c>
       <c r="J34">
-        <v>4.79</v>
+        <v>4.8</v>
       </c>
       <c r="K34">
-        <v>4.62</v>
+        <v>4.4</v>
       </c>
       <c r="L34">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M34">
         <v>1.22</v>
@@ -5243,10 +5252,10 @@
         <v>6.2</v>
       </c>
       <c r="S34">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="U34">
         <v>1.48</v>
@@ -5332,10 +5341,10 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -5347,13 +5356,13 @@
         <v>2.88</v>
       </c>
       <c r="J35">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K35">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L35">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="M35">
         <v>1.44</v>
@@ -5374,10 +5383,10 @@
         <v>2.9</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="U35">
         <v>1.83</v>
@@ -5463,10 +5472,10 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G36">
         <v>2.38</v>
@@ -5478,13 +5487,13 @@
         <v>4.5</v>
       </c>
       <c r="J36">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L36">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M36">
         <v>1.32</v>
@@ -5505,10 +5514,10 @@
         <v>3.92</v>
       </c>
       <c r="S36">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T36">
-        <v>2.19</v>
+        <v>2</v>
       </c>
       <c r="U36">
         <v>1.66</v>
@@ -5594,10 +5603,10 @@
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -5672,13 +5681,13 @@
         <v>3.05</v>
       </c>
       <c r="AE37">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="AF37">
-        <v>8.65</v>
+        <v>9</v>
       </c>
       <c r="AG37">
-        <v>1.78</v>
+        <v>1.59</v>
       </c>
       <c r="AH37">
         <v>1.13</v>
@@ -5725,16 +5734,16 @@
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G38">
         <v>2.88</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="I38">
         <v>4.33</v>
@@ -5767,10 +5776,10 @@
         <v>2.97</v>
       </c>
       <c r="S38">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T38">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U38">
         <v>1.83</v>
@@ -5803,13 +5812,13 @@
         <v>2.84</v>
       </c>
       <c r="AE38">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AF38">
-        <v>8.699999999999999</v>
+        <v>8.35</v>
       </c>
       <c r="AG38">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
       <c r="AH38">
         <v>1.35</v>
@@ -5856,10 +5865,10 @@
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G39">
         <v>4.33</v>
@@ -5898,10 +5907,10 @@
         <v>2.76</v>
       </c>
       <c r="S39">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T39">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U39">
         <v>2</v>
@@ -5934,13 +5943,13 @@
         <v>2.7</v>
       </c>
       <c r="AE39">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="AF39">
-        <v>7.75</v>
+        <v>7.7</v>
       </c>
       <c r="AG39">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AH39">
         <v>1.35</v>
@@ -5987,10 +5996,10 @@
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G40">
         <v>3.2</v>
@@ -6065,13 +6074,13 @@
         <v>3.29</v>
       </c>
       <c r="AE40">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AF40">
-        <v>8.699999999999999</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="AG40">
-        <v>2.45</v>
+        <v>2.93</v>
       </c>
       <c r="AH40">
         <v>1.26</v>
@@ -6118,10 +6127,10 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F41" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G41">
         <v>6.5</v>
@@ -6133,13 +6142,13 @@
         <v>2.3</v>
       </c>
       <c r="J41">
-        <v>4.27</v>
+        <v>4.5</v>
       </c>
       <c r="K41">
-        <v>3.04</v>
+        <v>3.3</v>
       </c>
       <c r="L41">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="M41">
         <v>1.5</v>
@@ -6205,10 +6214,10 @@
         <v>1.53</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ41">
         <v>1.48</v>
@@ -6233,6 +6242,137 @@
       </c>
       <c r="AQ41">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" t="s">
+        <v>163</v>
+      </c>
+      <c r="G42">
+        <v>2.05</v>
+      </c>
+      <c r="H42">
+        <v>2.38</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
+      </c>
+      <c r="J42">
+        <v>1.44</v>
+      </c>
+      <c r="K42">
+        <v>4.2</v>
+      </c>
+      <c r="L42">
+        <v>5.8</v>
+      </c>
+      <c r="M42">
+        <v>1.3</v>
+      </c>
+      <c r="N42">
+        <v>3.2</v>
+      </c>
+      <c r="O42">
+        <v>1.03</v>
+      </c>
+      <c r="P42">
+        <v>13</v>
+      </c>
+      <c r="Q42">
+        <v>1.22</v>
+      </c>
+      <c r="R42">
+        <v>4.2</v>
+      </c>
+      <c r="S42">
+        <v>1.72</v>
+      </c>
+      <c r="T42">
+        <v>2.04</v>
+      </c>
+      <c r="U42">
+        <v>1.85</v>
+      </c>
+      <c r="V42">
+        <v>1.9</v>
+      </c>
+      <c r="W42">
+        <v>1.12</v>
+      </c>
+      <c r="X42">
+        <v>1.17</v>
+      </c>
+      <c r="Y42">
+        <v>2.65</v>
+      </c>
+      <c r="Z42">
+        <v>2</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42">
+        <v>1.82</v>
+      </c>
+      <c r="AC42">
+        <v>0.87</v>
+      </c>
+      <c r="AD42">
+        <v>2.69</v>
+      </c>
+      <c r="AE42">
+        <v>1.51</v>
+      </c>
+      <c r="AF42">
+        <v>8.5</v>
+      </c>
+      <c r="AG42">
+        <v>3.16</v>
+      </c>
+      <c r="AH42">
+        <v>1.32</v>
+      </c>
+      <c r="AI42">
+        <v>3.1</v>
+      </c>
+      <c r="AJ42">
+        <v>1.51</v>
+      </c>
+      <c r="AK42">
+        <v>2.37</v>
+      </c>
+      <c r="AL42">
+        <v>1.9</v>
+      </c>
+      <c r="AM42">
+        <v>1.8</v>
+      </c>
+      <c r="AN42">
+        <v>2.47</v>
+      </c>
+      <c r="AO42">
+        <v>1.48</v>
+      </c>
+      <c r="AP42">
+        <v>4</v>
+      </c>
+      <c r="AQ42">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-04-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -157,24 +157,24 @@
     <t>Italy Serie A</t>
   </si>
   <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
+    <t>Turkey Süper Lig</t>
+  </si>
+  <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
     <t>Norway First Division</t>
   </si>
   <si>
-    <t>Sweden Allsvenskan</t>
-  </si>
-  <si>
-    <t>Turkey Süper Lig</t>
-  </si>
-  <si>
-    <t>Poland Ekstraklasa</t>
+    <t>Sweden Superettan</t>
   </si>
   <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
-    <t>Sweden Superettan</t>
-  </si>
-  <si>
     <t>Romania Liga I</t>
   </si>
   <si>
@@ -280,75 +280,75 @@
     <t>Fiorentina</t>
   </si>
   <si>
+    <t>Piast Gliwice</t>
+  </si>
+  <si>
+    <t>Alanyaspor</t>
+  </si>
+  <si>
+    <t>Ludogorets</t>
+  </si>
+  <si>
+    <t>Häcken</t>
+  </si>
+  <si>
+    <t>Värnamo</t>
+  </si>
+  <si>
+    <t>Kongsvinger</t>
+  </si>
+  <si>
+    <t>Gefle</t>
+  </si>
+  <si>
+    <t>Bryne</t>
+  </si>
+  <si>
+    <t>Sandnes Ulf</t>
+  </si>
+  <si>
+    <t>Åsane</t>
+  </si>
+  <si>
+    <t>Mjøndalen</t>
+  </si>
+  <si>
+    <t>Aalesund</t>
+  </si>
+  <si>
+    <t>Örgryte</t>
+  </si>
+  <si>
+    <t>Silkeborg</t>
+  </si>
+  <si>
     <t>Moss</t>
   </si>
   <si>
-    <t>Häcken</t>
-  </si>
-  <si>
-    <t>Värnamo</t>
-  </si>
-  <si>
-    <t>Kongsvinger</t>
-  </si>
-  <si>
-    <t>Bryne</t>
-  </si>
-  <si>
-    <t>Alanyaspor</t>
-  </si>
-  <si>
-    <t>Sandnes Ulf</t>
-  </si>
-  <si>
-    <t>Piast Gliwice</t>
-  </si>
-  <si>
-    <t>Åsane</t>
-  </si>
-  <si>
-    <t>Silkeborg</t>
-  </si>
-  <si>
-    <t>Ludogorets</t>
-  </si>
-  <si>
-    <t>Mjøndalen</t>
-  </si>
-  <si>
-    <t>Örgryte</t>
-  </si>
-  <si>
-    <t>Aalesund</t>
-  </si>
-  <si>
-    <t>Gefle</t>
-  </si>
-  <si>
     <t>Hammarby</t>
   </si>
   <si>
     <t>Rapid Bucureşti</t>
   </si>
   <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
     <t>Utrecht II</t>
   </si>
   <si>
     <t>Voždovac</t>
   </si>
   <si>
-    <t>Ajax II</t>
-  </si>
-  <si>
     <t>AD Alcorcón</t>
   </si>
   <si>
+    <t>Grenoble Foot 38</t>
+  </si>
+  <si>
     <t>Atalanta</t>
   </si>
   <si>
-    <t>Grenoble Foot 38</t>
-  </si>
-  <si>
     <t>Chelsea</t>
   </si>
   <si>
@@ -367,18 +367,18 @@
     <t>Cobresal</t>
   </si>
   <si>
+    <t>Independiente Rivadavia</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
     <t>Instituto</t>
   </si>
   <si>
     <t>Argentinos Juniors</t>
   </si>
   <si>
-    <t>Independiente Rivadavia</t>
-  </si>
-  <si>
-    <t>Independiente</t>
-  </si>
-  <si>
     <t>Miramar Misiones</t>
   </si>
   <si>
@@ -403,75 +403,75 @@
     <t>Genoa</t>
   </si>
   <si>
+    <t>Zagłębie Lubin</t>
+  </si>
+  <si>
+    <t>Galatasaray</t>
+  </si>
+  <si>
+    <t>Arda</t>
+  </si>
+  <si>
+    <t>Brommapojkarna</t>
+  </si>
+  <si>
+    <t>Malmö FF</t>
+  </si>
+  <si>
+    <t>Egersund</t>
+  </si>
+  <si>
+    <t>Degerfors</t>
+  </si>
+  <si>
+    <t>Levanger</t>
+  </si>
+  <si>
+    <t>Raufoss</t>
+  </si>
+  <si>
+    <t>Sogndal</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Lyn</t>
+  </si>
+  <si>
+    <t>Brage</t>
+  </si>
+  <si>
+    <t>Nordsjælland</t>
+  </si>
+  <si>
     <t>Ranheim</t>
   </si>
   <si>
-    <t>Brommapojkarna</t>
-  </si>
-  <si>
-    <t>Malmö FF</t>
-  </si>
-  <si>
-    <t>Egersund</t>
-  </si>
-  <si>
-    <t>Levanger</t>
-  </si>
-  <si>
-    <t>Galatasaray</t>
-  </si>
-  <si>
-    <t>Raufoss</t>
-  </si>
-  <si>
-    <t>Zagłębie Lubin</t>
-  </si>
-  <si>
-    <t>Sogndal</t>
-  </si>
-  <si>
-    <t>Nordsjælland</t>
-  </si>
-  <si>
-    <t>Arda</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Brage</t>
-  </si>
-  <si>
-    <t>Lyn</t>
-  </si>
-  <si>
-    <t>Degerfors</t>
-  </si>
-  <si>
     <t>Elfsborg</t>
   </si>
   <si>
     <t>Sepsi</t>
   </si>
   <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
     <t>Den Bosch</t>
   </si>
   <si>
     <t>Radnički Kragujevac</t>
   </si>
   <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
     <t>Villarreal II</t>
   </si>
   <si>
+    <t>Angers SCO</t>
+  </si>
+  <si>
     <t>Hellas Verona</t>
   </si>
   <si>
-    <t>Angers SCO</t>
-  </si>
-  <si>
     <t>Everton</t>
   </si>
   <si>
@@ -490,16 +490,16 @@
     <t>Copiapó</t>
   </si>
   <si>
+    <t>Vélez Sarsfield</t>
+  </si>
+  <si>
+    <t>Talleres Córdoba</t>
+  </si>
+  <si>
     <t>River Plate</t>
   </si>
   <si>
     <t>Barracas Central</t>
-  </si>
-  <si>
-    <t>Vélez Sarsfield</t>
-  </si>
-  <si>
-    <t>Talleres Córdoba</t>
   </si>
   <si>
     <t>Nacional</t>
@@ -1033,10 +1033,10 @@
         <v>3.6</v>
       </c>
       <c r="J2">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="K2">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>3.1</v>
@@ -1060,10 +1060,10 @@
         <v>3.1</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T2">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U2">
         <v>1.8</v>
@@ -1081,10 +1081,10 @@
         <v>1.65</v>
       </c>
       <c r="Z2">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AA2">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
         <v>1.53</v>
@@ -1164,13 +1164,13 @@
         <v>7.04</v>
       </c>
       <c r="J3">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="K3">
-        <v>3.43</v>
+        <v>3.62</v>
       </c>
       <c r="L3">
-        <v>5.65</v>
+        <v>6.5</v>
       </c>
       <c r="M3">
         <v>1.45</v>
@@ -1191,10 +1191,10 @@
         <v>2.8</v>
       </c>
       <c r="S3">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="T3">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="U3">
         <v>2.3</v>
@@ -1212,10 +1212,10 @@
         <v>2.5</v>
       </c>
       <c r="Z3">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AA3">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AB3">
         <v>1.49</v>
@@ -1295,13 +1295,13 @@
         <v>2.72</v>
       </c>
       <c r="J4">
-        <v>3.41</v>
+        <v>3.3</v>
       </c>
       <c r="K4">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="L4">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="M4">
         <v>1.38</v>
@@ -1322,10 +1322,10 @@
         <v>3.18</v>
       </c>
       <c r="S4">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="T4">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U4">
         <v>1.7</v>
@@ -1343,10 +1343,10 @@
         <v>1.28</v>
       </c>
       <c r="Z4">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AA4">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AB4">
         <v>1.3</v>
@@ -1426,13 +1426,13 @@
         <v>3.75</v>
       </c>
       <c r="J5">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="K5">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M5">
         <v>1.44</v>
@@ -1453,10 +1453,10 @@
         <v>3.1</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U5">
         <v>1.83</v>
@@ -1474,10 +1474,10 @@
         <v>1.67</v>
       </c>
       <c r="Z5">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AA5">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AB5">
         <v>1.21</v>
@@ -1557,13 +1557,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AA6">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AB6">
         <v>1.2</v>
@@ -1688,13 +1688,13 @@
         <v>4.75</v>
       </c>
       <c r="J7">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L7">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="M7">
         <v>1.44</v>
@@ -1715,10 +1715,10 @@
         <v>3.35</v>
       </c>
       <c r="S7">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="U7">
         <v>1.95</v>
@@ -1801,7 +1801,7 @@
         <v>69</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
@@ -1810,115 +1810,115 @@
         <v>129</v>
       </c>
       <c r="G8">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="H8">
+        <v>2.05</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>2.14</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3.3</v>
+      </c>
+      <c r="M8">
+        <v>1.53</v>
+      </c>
+      <c r="N8">
+        <v>2.41</v>
+      </c>
+      <c r="O8">
+        <v>1.06</v>
+      </c>
+      <c r="P8">
+        <v>6.7</v>
+      </c>
+      <c r="Q8">
+        <v>1.41</v>
+      </c>
+      <c r="R8">
+        <v>2.6</v>
+      </c>
+      <c r="S8">
+        <v>2.25</v>
+      </c>
+      <c r="T8">
+        <v>1.57</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>1.72</v>
+      </c>
+      <c r="W8">
+        <v>1.3</v>
+      </c>
+      <c r="X8">
+        <v>1.35</v>
+      </c>
+      <c r="Y8">
+        <v>1.7</v>
+      </c>
+      <c r="Z8">
+        <v>1.38</v>
+      </c>
+      <c r="AA8">
+        <v>1.15</v>
+      </c>
+      <c r="AB8">
+        <v>1.47</v>
+      </c>
+      <c r="AC8">
+        <v>1.61</v>
+      </c>
+      <c r="AD8">
+        <v>3.08</v>
+      </c>
+      <c r="AE8">
+        <v>1.69</v>
+      </c>
+      <c r="AF8">
+        <v>8</v>
+      </c>
+      <c r="AG8">
+        <v>2.62</v>
+      </c>
+      <c r="AH8">
+        <v>1.29</v>
+      </c>
+      <c r="AI8">
+        <v>3.3</v>
+      </c>
+      <c r="AJ8">
+        <v>1.5</v>
+      </c>
+      <c r="AK8">
         <v>2.4</v>
       </c>
-      <c r="I8">
-        <v>3.42</v>
-      </c>
-      <c r="J8">
-        <v>2.3</v>
-      </c>
-      <c r="K8">
-        <v>3.5</v>
-      </c>
-      <c r="L8">
-        <v>2.6</v>
-      </c>
-      <c r="M8">
-        <v>1.31</v>
-      </c>
-      <c r="N8">
-        <v>3.28</v>
-      </c>
-      <c r="O8">
-        <v>1.04</v>
-      </c>
-      <c r="P8">
-        <v>8.5</v>
-      </c>
-      <c r="Q8">
-        <v>1.17</v>
-      </c>
-      <c r="R8">
-        <v>4.15</v>
-      </c>
-      <c r="S8">
-        <v>1.6</v>
-      </c>
-      <c r="T8">
-        <v>2.1</v>
-      </c>
-      <c r="U8">
-        <v>1.53</v>
-      </c>
-      <c r="V8">
-        <v>2.33</v>
-      </c>
-      <c r="W8">
-        <v>1.4</v>
-      </c>
-      <c r="X8">
-        <v>1.27</v>
-      </c>
-      <c r="Y8">
-        <v>1.6</v>
-      </c>
-      <c r="Z8">
-        <v>3</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>1.13</v>
-      </c>
-      <c r="AC8">
-        <v>1.53</v>
-      </c>
-      <c r="AD8">
-        <v>2.66</v>
-      </c>
-      <c r="AE8">
-        <v>1.85</v>
-      </c>
-      <c r="AF8">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG8">
-        <v>2.19</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>1.27</v>
-      </c>
-      <c r="AK8">
-        <v>3.28</v>
-      </c>
       <c r="AL8">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="AM8">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AN8">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AO8">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AP8">
-        <v>2.32</v>
+        <v>2.9</v>
       </c>
       <c r="AQ8">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1932,7 +1932,7 @@
         <v>69</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>89</v>
@@ -1941,120 +1941,120 @@
         <v>130</v>
       </c>
       <c r="G9">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H9">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>1.83</v>
       </c>
       <c r="J9">
-        <v>1.81</v>
+        <v>5.5</v>
       </c>
       <c r="K9">
-        <v>4.28</v>
+        <v>4.5</v>
       </c>
       <c r="L9">
-        <v>3.83</v>
+        <v>1.44</v>
       </c>
       <c r="M9">
         <v>1.25</v>
       </c>
       <c r="N9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O9">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q9">
+        <v>1.13</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>1.4</v>
+      </c>
+      <c r="T9">
+        <v>2.82</v>
+      </c>
+      <c r="U9">
+        <v>1.61</v>
+      </c>
+      <c r="V9">
+        <v>2.29</v>
+      </c>
+      <c r="W9">
+        <v>2.6</v>
+      </c>
+      <c r="X9">
+        <v>1.22</v>
+      </c>
+      <c r="Y9">
         <v>1.17</v>
       </c>
-      <c r="R9">
-        <v>5.25</v>
-      </c>
-      <c r="S9">
-        <v>1.57</v>
-      </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
-      <c r="U9">
-        <v>1.5</v>
-      </c>
-      <c r="V9">
+      <c r="Z9">
+        <v>1.6</v>
+      </c>
+      <c r="AA9">
+        <v>2.4</v>
+      </c>
+      <c r="AB9">
+        <v>1.41</v>
+      </c>
+      <c r="AC9">
+        <v>1.7</v>
+      </c>
+      <c r="AD9">
+        <v>3.11</v>
+      </c>
+      <c r="AE9">
+        <v>3.62</v>
+      </c>
+      <c r="AF9">
+        <v>10.25</v>
+      </c>
+      <c r="AG9">
+        <v>1.39</v>
+      </c>
+      <c r="AH9">
+        <v>1.22</v>
+      </c>
+      <c r="AI9">
+        <v>3.8</v>
+      </c>
+      <c r="AJ9">
+        <v>1.38</v>
+      </c>
+      <c r="AK9">
+        <v>2.8</v>
+      </c>
+      <c r="AL9">
+        <v>1.7</v>
+      </c>
+      <c r="AM9">
+        <v>2.05</v>
+      </c>
+      <c r="AN9">
+        <v>2</v>
+      </c>
+      <c r="AO9">
+        <v>1.73</v>
+      </c>
+      <c r="AP9">
         <v>2.5</v>
       </c>
-      <c r="W9">
-        <v>1.22</v>
-      </c>
-      <c r="X9">
-        <v>1.2</v>
-      </c>
-      <c r="Y9">
-        <v>2</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>3</v>
-      </c>
-      <c r="AB9">
-        <v>1.85</v>
-      </c>
-      <c r="AC9">
-        <v>1.93</v>
-      </c>
-      <c r="AD9">
-        <v>3.78</v>
-      </c>
-      <c r="AE9">
-        <v>1.69</v>
-      </c>
-      <c r="AF9">
-        <v>8.5</v>
-      </c>
-      <c r="AG9">
-        <v>2.53</v>
-      </c>
-      <c r="AH9">
-        <v>1.12</v>
-      </c>
-      <c r="AI9">
-        <v>5.6</v>
-      </c>
-      <c r="AJ9">
-        <v>1.18</v>
-      </c>
-      <c r="AK9">
-        <v>4.05</v>
-      </c>
-      <c r="AL9">
-        <v>1.36</v>
-      </c>
-      <c r="AM9">
-        <v>2.79</v>
-      </c>
-      <c r="AN9">
-        <v>1.85</v>
-      </c>
-      <c r="AO9">
-        <v>1.95</v>
-      </c>
-      <c r="AP9">
-        <v>2.04</v>
-      </c>
       <c r="AQ9">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2">
         <v>45397</v>
@@ -2063,7 +2063,7 @@
         <v>69</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>90</v>
@@ -2072,120 +2072,120 @@
         <v>131</v>
       </c>
       <c r="G10">
-        <v>7.5</v>
+        <v>1.61</v>
       </c>
       <c r="H10">
-        <v>2.6</v>
+        <v>2.73</v>
       </c>
       <c r="I10">
-        <v>1.8</v>
+        <v>10.64</v>
       </c>
       <c r="J10">
-        <v>9.65</v>
+        <v>1.22</v>
       </c>
       <c r="K10">
-        <v>5.89</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>1.29</v>
+        <v>8.4</v>
       </c>
       <c r="M10">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="N10">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="O10">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q10">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="R10">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="S10">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="T10">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="W10">
-        <v>3.3</v>
+        <v>1.04</v>
       </c>
       <c r="X10">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Y10">
-        <v>1.05</v>
+        <v>4.1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AA10">
-        <v>3</v>
+        <v>1.14</v>
       </c>
       <c r="AB10">
-        <v>1.23</v>
+        <v>2.36</v>
       </c>
       <c r="AC10">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="AD10">
-        <v>2.95</v>
+        <v>3.66</v>
       </c>
       <c r="AE10">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>1.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2">
         <v>45397</v>
@@ -2203,120 +2203,120 @@
         <v>132</v>
       </c>
       <c r="G11">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H11">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="I11">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="K11">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M11">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="N11">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O11">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P11">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11">
+        <v>1.17</v>
+      </c>
+      <c r="R11">
+        <v>5.25</v>
+      </c>
+      <c r="S11">
+        <v>1.5</v>
+      </c>
+      <c r="T11">
+        <v>2.48</v>
+      </c>
+      <c r="U11">
+        <v>1.5</v>
+      </c>
+      <c r="V11">
+        <v>2.5</v>
+      </c>
+      <c r="W11">
+        <v>1.22</v>
+      </c>
+      <c r="X11">
         <v>1.2</v>
       </c>
-      <c r="R11">
-        <v>4.55</v>
-      </c>
-      <c r="S11">
-        <v>1.56</v>
-      </c>
-      <c r="T11">
-        <v>2.35</v>
-      </c>
-      <c r="U11">
-        <v>1.65</v>
-      </c>
-      <c r="V11">
-        <v>2.2</v>
-      </c>
-      <c r="W11">
-        <v>1.17</v>
-      </c>
-      <c r="X11">
-        <v>1.18</v>
-      </c>
       <c r="Y11">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>3</v>
       </c>
       <c r="AB11">
-        <v>1.34</v>
+        <v>1.85</v>
       </c>
       <c r="AC11">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AD11">
-        <v>3.17</v>
+        <v>3.78</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AL11">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="AM11">
-        <v>2.33</v>
+        <v>2.79</v>
       </c>
       <c r="AN11">
+        <v>1.85</v>
+      </c>
+      <c r="AO11">
         <v>1.95</v>
       </c>
-      <c r="AO11">
-        <v>1.85</v>
-      </c>
       <c r="AP11">
-        <v>2.46</v>
+        <v>2.04</v>
       </c>
       <c r="AQ11">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2">
         <v>45397</v>
@@ -2334,120 +2334,120 @@
         <v>133</v>
       </c>
       <c r="G12">
+        <v>7.5</v>
+      </c>
+      <c r="H12">
+        <v>2.6</v>
+      </c>
+      <c r="I12">
+        <v>1.8</v>
+      </c>
+      <c r="J12">
+        <v>8.5</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>1.25</v>
+      </c>
+      <c r="M12">
+        <v>1.29</v>
+      </c>
+      <c r="N12">
+        <v>3.5</v>
+      </c>
+      <c r="O12">
+        <v>1.02</v>
+      </c>
+      <c r="P12">
+        <v>17</v>
+      </c>
+      <c r="Q12">
+        <v>1.19</v>
+      </c>
+      <c r="R12">
+        <v>4.75</v>
+      </c>
+      <c r="S12">
+        <v>1.7</v>
+      </c>
+      <c r="T12">
+        <v>2.05</v>
+      </c>
+      <c r="U12">
+        <v>1.95</v>
+      </c>
+      <c r="V12">
+        <v>1.8</v>
+      </c>
+      <c r="W12">
+        <v>3.3</v>
+      </c>
+      <c r="X12">
+        <v>1.12</v>
+      </c>
+      <c r="Y12">
+        <v>1.05</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>1.23</v>
+      </c>
+      <c r="AC12">
+        <v>1.72</v>
+      </c>
+      <c r="AD12">
+        <v>2.95</v>
+      </c>
+      <c r="AE12">
+        <v>5.1</v>
+      </c>
+      <c r="AF12">
+        <v>11</v>
+      </c>
+      <c r="AG12">
+        <v>1.23</v>
+      </c>
+      <c r="AH12">
+        <v>1.15</v>
+      </c>
+      <c r="AI12">
+        <v>5.1</v>
+      </c>
+      <c r="AJ12">
+        <v>1.29</v>
+      </c>
+      <c r="AK12">
+        <v>3.4</v>
+      </c>
+      <c r="AL12">
+        <v>1.55</v>
+      </c>
+      <c r="AM12">
         <v>2.4</v>
       </c>
-      <c r="H12">
-        <v>2.3</v>
-      </c>
-      <c r="I12">
-        <v>3.9</v>
-      </c>
-      <c r="J12">
-        <v>1.8</v>
-      </c>
-      <c r="K12">
-        <v>3.7</v>
-      </c>
-      <c r="L12">
-        <v>3.5</v>
-      </c>
-      <c r="M12">
-        <v>1.3</v>
-      </c>
-      <c r="N12">
-        <v>3.3</v>
-      </c>
-      <c r="O12">
-        <v>1.03</v>
-      </c>
-      <c r="P12">
-        <v>16.5</v>
-      </c>
-      <c r="Q12">
-        <v>1.2</v>
-      </c>
-      <c r="R12">
-        <v>4.58</v>
-      </c>
-      <c r="S12">
-        <v>1.63</v>
-      </c>
-      <c r="T12">
-        <v>2.2</v>
-      </c>
-      <c r="U12">
-        <v>1.58</v>
-      </c>
-      <c r="V12">
-        <v>2.3</v>
-      </c>
-      <c r="W12">
-        <v>1.28</v>
-      </c>
-      <c r="X12">
-        <v>1.22</v>
-      </c>
-      <c r="Y12">
-        <v>1.83</v>
-      </c>
-      <c r="Z12">
-        <v>3</v>
-      </c>
-      <c r="AA12">
-        <v>1</v>
-      </c>
-      <c r="AB12">
-        <v>1.35</v>
-      </c>
-      <c r="AC12">
-        <v>1.11</v>
-      </c>
-      <c r="AD12">
-        <v>2.46</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>1.64</v>
-      </c>
-      <c r="AM12">
-        <v>2.24</v>
-      </c>
       <c r="AN12">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="AO12">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2">
         <v>45397</v>
@@ -2456,7 +2456,7 @@
         <v>69</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>93</v>
@@ -2465,120 +2465,120 @@
         <v>134</v>
       </c>
       <c r="G13">
-        <v>5.3</v>
+        <v>2.15</v>
       </c>
       <c r="H13">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="I13">
+        <v>4.5</v>
+      </c>
+      <c r="J13">
+        <v>1.72</v>
+      </c>
+      <c r="K13">
+        <v>3.5</v>
+      </c>
+      <c r="L13">
+        <v>3.9</v>
+      </c>
+      <c r="M13">
+        <v>1.3</v>
+      </c>
+      <c r="N13">
+        <v>3.3</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>17</v>
+      </c>
+      <c r="Q13">
+        <v>1.2</v>
+      </c>
+      <c r="R13">
+        <v>4.55</v>
+      </c>
+      <c r="S13">
+        <v>1.6</v>
+      </c>
+      <c r="T13">
+        <v>2.2</v>
+      </c>
+      <c r="U13">
+        <v>1.65</v>
+      </c>
+      <c r="V13">
+        <v>2.2</v>
+      </c>
+      <c r="W13">
+        <v>1.17</v>
+      </c>
+      <c r="X13">
+        <v>1.18</v>
+      </c>
+      <c r="Y13">
+        <v>2.1</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>3</v>
+      </c>
+      <c r="AB13">
+        <v>1.34</v>
+      </c>
+      <c r="AC13">
         <v>1.83</v>
       </c>
-      <c r="J13">
-        <v>5.54</v>
-      </c>
-      <c r="K13">
-        <v>4.69</v>
-      </c>
-      <c r="L13">
-        <v>1.52</v>
-      </c>
-      <c r="M13">
-        <v>1.25</v>
-      </c>
-      <c r="N13">
-        <v>3.6</v>
-      </c>
-      <c r="O13">
-        <v>1.01</v>
-      </c>
-      <c r="P13">
-        <v>12</v>
-      </c>
-      <c r="Q13">
-        <v>1.13</v>
-      </c>
-      <c r="R13">
-        <v>5</v>
-      </c>
-      <c r="S13">
+      <c r="AD13">
+        <v>3.17</v>
+      </c>
+      <c r="AE13">
         <v>1.45</v>
       </c>
-      <c r="T13">
-        <v>2.55</v>
-      </c>
-      <c r="U13">
-        <v>1.61</v>
-      </c>
-      <c r="V13">
-        <v>2.29</v>
-      </c>
-      <c r="W13">
-        <v>2.6</v>
-      </c>
-      <c r="X13">
-        <v>1.22</v>
-      </c>
-      <c r="Y13">
+      <c r="AF13">
+        <v>8.25</v>
+      </c>
+      <c r="AG13">
+        <v>3.68</v>
+      </c>
+      <c r="AH13">
         <v>1.17</v>
       </c>
-      <c r="Z13">
-        <v>1.6</v>
-      </c>
-      <c r="AA13">
-        <v>2.4</v>
-      </c>
-      <c r="AB13">
-        <v>1.41</v>
-      </c>
-      <c r="AC13">
-        <v>1.7</v>
-      </c>
-      <c r="AD13">
-        <v>3.11</v>
-      </c>
-      <c r="AE13">
-        <v>3.62</v>
-      </c>
-      <c r="AF13">
-        <v>10.25</v>
-      </c>
-      <c r="AG13">
-        <v>1.39</v>
-      </c>
-      <c r="AH13">
-        <v>1.22</v>
-      </c>
       <c r="AI13">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="AJ13">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AK13">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AL13">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="AM13">
-        <v>2.05</v>
+        <v>2.33</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AO13">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AP13">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="AQ13">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2">
         <v>45397</v>
@@ -2596,61 +2596,61 @@
         <v>135</v>
       </c>
       <c r="G14">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="H14">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="I14">
-        <v>3.3</v>
+        <v>2.19</v>
       </c>
       <c r="J14">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="K14">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L14">
-        <v>2.62</v>
+        <v>1.75</v>
       </c>
       <c r="M14">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N14">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O14">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P14">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Q14">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="R14">
-        <v>4.2</v>
+        <v>3.88</v>
       </c>
       <c r="S14">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="T14">
         <v>2.1</v>
       </c>
       <c r="U14">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="V14">
-        <v>2.3</v>
+        <v>2.03</v>
       </c>
       <c r="W14">
-        <v>1.47</v>
+        <v>2.15</v>
       </c>
       <c r="X14">
         <v>1.25</v>
       </c>
       <c r="Y14">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2659,52 +2659,52 @@
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>1.74</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>1.74</v>
+        <v>1.21</v>
       </c>
       <c r="AD14">
-        <v>3.48</v>
+        <v>2.21</v>
       </c>
       <c r="AE14">
-        <v>2.12</v>
+        <v>2.9</v>
       </c>
       <c r="AF14">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG14">
-        <v>1.89</v>
+        <v>1.55</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AJ14">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AK14">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="AL14">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="AM14">
-        <v>2.98</v>
+        <v>2.45</v>
       </c>
       <c r="AN14">
-        <v>1.55</v>
+        <v>1.92</v>
       </c>
       <c r="AO14">
-        <v>2.23</v>
+        <v>1.88</v>
       </c>
       <c r="AP14">
-        <v>1.92</v>
+        <v>2.43</v>
       </c>
       <c r="AQ14">
-        <v>1.79</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2718,7 +2718,7 @@
         <v>69</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
         <v>95</v>
@@ -2727,120 +2727,120 @@
         <v>136</v>
       </c>
       <c r="G15">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="H15">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J15">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="K15">
-        <v>3.19</v>
+        <v>3.4</v>
       </c>
       <c r="L15">
-        <v>3.68</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="N15">
-        <v>2.41</v>
+        <v>3.3</v>
       </c>
       <c r="O15">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="P15">
-        <v>6.7</v>
+        <v>16.5</v>
       </c>
       <c r="Q15">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="R15">
-        <v>2.6</v>
+        <v>4.58</v>
       </c>
       <c r="S15">
-        <v>2.22</v>
+        <v>1.6</v>
       </c>
       <c r="T15">
-        <v>1.61</v>
+        <v>2.2</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="V15">
-        <v>1.72</v>
+        <v>2.3</v>
       </c>
       <c r="W15">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X15">
+        <v>1.22</v>
+      </c>
+      <c r="Y15">
+        <v>1.83</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
         <v>1.35</v>
       </c>
-      <c r="Y15">
-        <v>1.7</v>
-      </c>
-      <c r="Z15">
-        <v>1.38</v>
-      </c>
-      <c r="AA15">
-        <v>1.15</v>
-      </c>
-      <c r="AB15">
+      <c r="AC15">
+        <v>1.11</v>
+      </c>
+      <c r="AD15">
+        <v>2.46</v>
+      </c>
+      <c r="AE15">
+        <v>1.63</v>
+      </c>
+      <c r="AF15">
+        <v>8.65</v>
+      </c>
+      <c r="AG15">
+        <v>2.83</v>
+      </c>
+      <c r="AH15">
+        <v>1.19</v>
+      </c>
+      <c r="AI15">
+        <v>4.19</v>
+      </c>
+      <c r="AJ15">
+        <v>1.37</v>
+      </c>
+      <c r="AK15">
+        <v>2.85</v>
+      </c>
+      <c r="AL15">
+        <v>1.64</v>
+      </c>
+      <c r="AM15">
+        <v>2.24</v>
+      </c>
+      <c r="AN15">
+        <v>2.02</v>
+      </c>
+      <c r="AO15">
+        <v>1.78</v>
+      </c>
+      <c r="AP15">
+        <v>2.5</v>
+      </c>
+      <c r="AQ15">
         <v>1.47</v>
-      </c>
-      <c r="AC15">
-        <v>1.61</v>
-      </c>
-      <c r="AD15">
-        <v>3.08</v>
-      </c>
-      <c r="AE15">
-        <v>1.69</v>
-      </c>
-      <c r="AF15">
-        <v>8</v>
-      </c>
-      <c r="AG15">
-        <v>2.62</v>
-      </c>
-      <c r="AH15">
-        <v>1.29</v>
-      </c>
-      <c r="AI15">
-        <v>3.3</v>
-      </c>
-      <c r="AJ15">
-        <v>1.5</v>
-      </c>
-      <c r="AK15">
-        <v>2.4</v>
-      </c>
-      <c r="AL15">
-        <v>2</v>
-      </c>
-      <c r="AM15">
-        <v>1.8</v>
-      </c>
-      <c r="AN15">
-        <v>2.25</v>
-      </c>
-      <c r="AO15">
-        <v>1.57</v>
-      </c>
-      <c r="AP15">
-        <v>2.9</v>
-      </c>
-      <c r="AQ15">
-        <v>1.36</v>
       </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
         <v>45397</v>
@@ -2858,120 +2858,120 @@
         <v>137</v>
       </c>
       <c r="G16">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="H16">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="I16">
-        <v>3.46</v>
+        <v>3.3</v>
       </c>
       <c r="J16">
-        <v>2.15</v>
+        <v>2.34</v>
       </c>
       <c r="K16">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L16">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="M16">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="N16">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O16">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P16">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Q16">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="R16">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="S16">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="T16">
+        <v>2.05</v>
+      </c>
+      <c r="U16">
+        <v>1.57</v>
+      </c>
+      <c r="V16">
         <v>2.3</v>
       </c>
-      <c r="U16">
-        <v>1.52</v>
-      </c>
-      <c r="V16">
-        <v>2.45</v>
-      </c>
       <c r="W16">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="X16">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y16">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>1</v>
       </c>
       <c r="AB16">
-        <v>1.02</v>
+        <v>1.74</v>
       </c>
       <c r="AC16">
-        <v>0.47</v>
+        <v>1.74</v>
       </c>
       <c r="AD16">
-        <v>1.49</v>
+        <v>3.48</v>
       </c>
       <c r="AE16">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="AF16">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AG16">
-        <v>2.12</v>
+        <v>1.89</v>
       </c>
       <c r="AH16">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AK16">
-        <v>3.48</v>
+        <v>3.9</v>
       </c>
       <c r="AL16">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="AM16">
-        <v>2.51</v>
+        <v>2.98</v>
       </c>
       <c r="AN16">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="AO16">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="AP16">
-        <v>2.21</v>
+        <v>1.92</v>
       </c>
       <c r="AQ16">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>45397</v>
@@ -2989,25 +2989,25 @@
         <v>138</v>
       </c>
       <c r="G17">
-        <v>3.75</v>
+        <v>2.76</v>
       </c>
       <c r="H17">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I17">
-        <v>2.6</v>
+        <v>3.46</v>
       </c>
       <c r="J17">
-        <v>3.49</v>
+        <v>2.18</v>
       </c>
       <c r="K17">
-        <v>3.61</v>
+        <v>3.3</v>
       </c>
       <c r="L17">
-        <v>1.98</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="N17">
         <v>3.4</v>
@@ -3016,93 +3016,93 @@
         <v>1.02</v>
       </c>
       <c r="P17">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Q17">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R17">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="S17">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="T17">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U17">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="V17">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="W17">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="X17">
         <v>1.22</v>
       </c>
       <c r="Y17">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="Z17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>1.42</v>
+        <v>1.02</v>
       </c>
       <c r="AC17">
-        <v>1.46</v>
+        <v>0.47</v>
       </c>
       <c r="AD17">
-        <v>2.88</v>
+        <v>1.49</v>
       </c>
       <c r="AE17">
-        <v>2.66</v>
+        <v>1.9</v>
       </c>
       <c r="AF17">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG17">
-        <v>1.67</v>
+        <v>2.12</v>
       </c>
       <c r="AH17">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AI17">
-        <v>3.14</v>
+        <v>4.5</v>
       </c>
       <c r="AJ17">
+        <v>1.24</v>
+      </c>
+      <c r="AK17">
+        <v>3.48</v>
+      </c>
+      <c r="AL17">
+        <v>1.44</v>
+      </c>
+      <c r="AM17">
+        <v>2.51</v>
+      </c>
+      <c r="AN17">
+        <v>1.77</v>
+      </c>
+      <c r="AO17">
+        <v>1.94</v>
+      </c>
+      <c r="AP17">
+        <v>2.21</v>
+      </c>
+      <c r="AQ17">
         <v>1.56</v>
-      </c>
-      <c r="AK17">
-        <v>2.27</v>
-      </c>
-      <c r="AL17">
-        <v>1.97</v>
-      </c>
-      <c r="AM17">
-        <v>1.78</v>
-      </c>
-      <c r="AN17">
-        <v>2.57</v>
-      </c>
-      <c r="AO17">
-        <v>1.44</v>
-      </c>
-      <c r="AP17">
-        <v>3.48</v>
-      </c>
-      <c r="AQ17">
-        <v>1.24</v>
       </c>
     </row>
     <row r="18" spans="1:43">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2">
         <v>45397</v>
@@ -3111,7 +3111,7 @@
         <v>69</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
         <v>98</v>
@@ -3120,22 +3120,22 @@
         <v>139</v>
       </c>
       <c r="G18">
-        <v>1.61</v>
+        <v>2.85</v>
       </c>
       <c r="H18">
-        <v>2.73</v>
+        <v>2.2</v>
       </c>
       <c r="I18">
-        <v>10.64</v>
+        <v>3.2</v>
       </c>
       <c r="J18">
-        <v>1.18</v>
+        <v>2.33</v>
       </c>
       <c r="K18">
-        <v>5.86</v>
+        <v>3.3</v>
       </c>
       <c r="L18">
-        <v>13.73</v>
+        <v>2.6</v>
       </c>
       <c r="M18">
         <v>1.32</v>
@@ -3144,96 +3144,96 @@
         <v>3.15</v>
       </c>
       <c r="O18">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P18">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Q18">
         <v>1.22</v>
       </c>
       <c r="R18">
+        <v>4.3</v>
+      </c>
+      <c r="S18">
+        <v>1.6</v>
+      </c>
+      <c r="T18">
+        <v>2.2</v>
+      </c>
+      <c r="U18">
+        <v>1.6</v>
+      </c>
+      <c r="V18">
+        <v>2.3</v>
+      </c>
+      <c r="W18">
+        <v>1.45</v>
+      </c>
+      <c r="X18">
+        <v>1.22</v>
+      </c>
+      <c r="Y18">
+        <v>1.57</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>1.2</v>
+      </c>
+      <c r="AC18">
+        <v>1.78</v>
+      </c>
+      <c r="AD18">
+        <v>2.98</v>
+      </c>
+      <c r="AE18">
+        <v>1.81</v>
+      </c>
+      <c r="AF18">
+        <v>7.85</v>
+      </c>
+      <c r="AG18">
+        <v>2.48</v>
+      </c>
+      <c r="AH18">
+        <v>1.21</v>
+      </c>
+      <c r="AI18">
         <v>3.9</v>
       </c>
-      <c r="S18">
-        <v>1.78</v>
-      </c>
-      <c r="T18">
-        <v>1.97</v>
-      </c>
-      <c r="U18">
-        <v>2.4</v>
-      </c>
-      <c r="V18">
-        <v>1.5</v>
-      </c>
-      <c r="W18">
-        <v>1.04</v>
-      </c>
-      <c r="X18">
-        <v>1.1</v>
-      </c>
-      <c r="Y18">
-        <v>4.1</v>
-      </c>
-      <c r="Z18">
-        <v>2.5</v>
-      </c>
-      <c r="AA18">
-        <v>1.14</v>
-      </c>
-      <c r="AB18">
-        <v>2.36</v>
-      </c>
-      <c r="AC18">
-        <v>1.3</v>
-      </c>
-      <c r="AD18">
-        <v>3.66</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2">
         <v>45397</v>
@@ -3251,61 +3251,61 @@
         <v>140</v>
       </c>
       <c r="G19">
-        <v>2.85</v>
+        <v>2.05</v>
       </c>
       <c r="H19">
+        <v>2.4</v>
+      </c>
+      <c r="I19">
+        <v>4.8</v>
+      </c>
+      <c r="J19">
+        <v>1.6</v>
+      </c>
+      <c r="K19">
+        <v>3.7</v>
+      </c>
+      <c r="L19">
+        <v>4.3</v>
+      </c>
+      <c r="M19">
+        <v>1.28</v>
+      </c>
+      <c r="N19">
+        <v>3.4</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>17.25</v>
+      </c>
+      <c r="Q19">
+        <v>1.19</v>
+      </c>
+      <c r="R19">
+        <v>4.7</v>
+      </c>
+      <c r="S19">
+        <v>1.6</v>
+      </c>
+      <c r="T19">
         <v>2.2</v>
       </c>
-      <c r="I19">
-        <v>3.2</v>
-      </c>
-      <c r="J19">
-        <v>2.3</v>
-      </c>
-      <c r="K19">
-        <v>3.6</v>
-      </c>
-      <c r="L19">
-        <v>2.5</v>
-      </c>
-      <c r="M19">
-        <v>1.32</v>
-      </c>
-      <c r="N19">
-        <v>3.15</v>
-      </c>
-      <c r="O19">
-        <v>1.04</v>
-      </c>
-      <c r="P19">
-        <v>15.5</v>
-      </c>
-      <c r="Q19">
-        <v>1.22</v>
-      </c>
-      <c r="R19">
-        <v>4.3</v>
-      </c>
-      <c r="S19">
-        <v>1.66</v>
-      </c>
-      <c r="T19">
-        <v>2.16</v>
-      </c>
       <c r="U19">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="V19">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="W19">
-        <v>1.45</v>
+        <v>1.14</v>
       </c>
       <c r="X19">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="Y19">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -3314,57 +3314,57 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="AC19">
-        <v>1.78</v>
+        <v>0.65</v>
       </c>
       <c r="AD19">
-        <v>2.98</v>
+        <v>2.17</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>4.48</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL19">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="AM19">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="AN19">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AO19">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2">
         <v>45397</v>
@@ -3391,13 +3391,13 @@
         <v>3</v>
       </c>
       <c r="J20">
-        <v>2.51</v>
+        <v>2.88</v>
       </c>
       <c r="K20">
-        <v>3.63</v>
+        <v>3.3</v>
       </c>
       <c r="L20">
-        <v>2.49</v>
+        <v>2.38</v>
       </c>
       <c r="M20">
         <v>1.34</v>
@@ -3418,10 +3418,10 @@
         <v>3.75</v>
       </c>
       <c r="S20">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U20">
         <v>1.63</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2">
         <v>45397</v>
@@ -3513,120 +3513,120 @@
         <v>142</v>
       </c>
       <c r="G21">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="H21">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I21">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="J21">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>4.6</v>
+        <v>1.83</v>
       </c>
       <c r="M21">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="N21">
         <v>3.4</v>
       </c>
       <c r="O21">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P21">
-        <v>17.25</v>
+        <v>14.5</v>
       </c>
       <c r="Q21">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="R21">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="S21">
+        <v>1.65</v>
+      </c>
+      <c r="T21">
+        <v>2.15</v>
+      </c>
+      <c r="U21">
         <v>1.57</v>
       </c>
-      <c r="T21">
-        <v>2.33</v>
-      </c>
-      <c r="U21">
-        <v>1.65</v>
-      </c>
       <c r="V21">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W21">
-        <v>1.14</v>
+        <v>1.83</v>
       </c>
       <c r="X21">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="Y21">
-        <v>2.2</v>
+        <v>1.33</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB21">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="AC21">
-        <v>0.65</v>
+        <v>1.46</v>
       </c>
       <c r="AD21">
-        <v>2.17</v>
+        <v>2.88</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AL21">
-        <v>1.62</v>
+        <v>1.97</v>
       </c>
       <c r="AM21">
-        <v>2.26</v>
+        <v>1.78</v>
       </c>
       <c r="AN21">
-        <v>2</v>
+        <v>2.57</v>
       </c>
       <c r="AO21">
-        <v>1.79</v>
+        <v>1.44</v>
       </c>
       <c r="AP21">
-        <v>2.56</v>
+        <v>3.48</v>
       </c>
       <c r="AQ21">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2">
         <v>45397</v>
@@ -3644,112 +3644,112 @@
         <v>143</v>
       </c>
       <c r="G22">
-        <v>4.7</v>
+        <v>2.81</v>
       </c>
       <c r="H22">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="I22">
+        <v>3.42</v>
+      </c>
+      <c r="J22">
+        <v>2.34</v>
+      </c>
+      <c r="K22">
+        <v>3.3</v>
+      </c>
+      <c r="L22">
+        <v>2.6</v>
+      </c>
+      <c r="M22">
+        <v>1.31</v>
+      </c>
+      <c r="N22">
+        <v>3.28</v>
+      </c>
+      <c r="O22">
+        <v>1.04</v>
+      </c>
+      <c r="P22">
+        <v>8.5</v>
+      </c>
+      <c r="Q22">
+        <v>1.17</v>
+      </c>
+      <c r="R22">
+        <v>4.15</v>
+      </c>
+      <c r="S22">
+        <v>1.61</v>
+      </c>
+      <c r="T22">
+        <v>2.15</v>
+      </c>
+      <c r="U22">
+        <v>1.53</v>
+      </c>
+      <c r="V22">
+        <v>2.33</v>
+      </c>
+      <c r="W22">
+        <v>1.4</v>
+      </c>
+      <c r="X22">
+        <v>1.27</v>
+      </c>
+      <c r="Y22">
+        <v>1.6</v>
+      </c>
+      <c r="Z22">
+        <v>3</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>1.13</v>
+      </c>
+      <c r="AC22">
+        <v>1.53</v>
+      </c>
+      <c r="AD22">
+        <v>2.66</v>
+      </c>
+      <c r="AE22">
+        <v>1.85</v>
+      </c>
+      <c r="AF22">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG22">
         <v>2.19</v>
       </c>
-      <c r="J22">
-        <v>4.66</v>
-      </c>
-      <c r="K22">
-        <v>3.91</v>
-      </c>
-      <c r="L22">
-        <v>1.62</v>
-      </c>
-      <c r="M22">
-        <v>1.33</v>
-      </c>
-      <c r="N22">
-        <v>3.15</v>
-      </c>
-      <c r="O22">
-        <v>1.02</v>
-      </c>
-      <c r="P22">
-        <v>15</v>
-      </c>
-      <c r="Q22">
-        <v>1.2</v>
-      </c>
-      <c r="R22">
-        <v>3.88</v>
-      </c>
-      <c r="S22">
-        <v>1.7</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.7</v>
-      </c>
-      <c r="V22">
-        <v>2.03</v>
-      </c>
-      <c r="W22">
-        <v>2.15</v>
-      </c>
-      <c r="X22">
-        <v>1.25</v>
-      </c>
-      <c r="Y22">
-        <v>1.2</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>1</v>
-      </c>
-      <c r="AB22">
-        <v>1</v>
-      </c>
-      <c r="AC22">
-        <v>1.21</v>
-      </c>
-      <c r="AD22">
-        <v>2.21</v>
-      </c>
-      <c r="AE22">
-        <v>2.9</v>
-      </c>
-      <c r="AF22">
-        <v>9</v>
-      </c>
-      <c r="AG22">
-        <v>1.55</v>
-      </c>
       <c r="AH22">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AK22">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
       <c r="AL22">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AM22">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AN22">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="AO22">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AP22">
-        <v>2.43</v>
+        <v>2.32</v>
       </c>
       <c r="AQ22">
         <v>1.51</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2">
         <v>45397</v>
@@ -3784,13 +3784,13 @@
         <v>3.25</v>
       </c>
       <c r="J23">
-        <v>2.86</v>
+        <v>2.45</v>
       </c>
       <c r="K23">
-        <v>3.49</v>
+        <v>3.25</v>
       </c>
       <c r="L23">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="M23">
         <v>1.36</v>
@@ -3811,7 +3811,7 @@
         <v>3.75</v>
       </c>
       <c r="S23">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="T23">
         <v>1.93</v>
@@ -3915,13 +3915,13 @@
         <v>4.33</v>
       </c>
       <c r="J24">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="K24">
-        <v>3.48</v>
+        <v>3.1</v>
       </c>
       <c r="L24">
-        <v>3.67</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
         <v>1.4</v>
@@ -3942,10 +3942,10 @@
         <v>3.3</v>
       </c>
       <c r="S24">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T24">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="U24">
         <v>1.78</v>
@@ -4037,120 +4037,120 @@
         <v>146</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H25">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="I25">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="J25">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L25">
+        <v>2.3</v>
+      </c>
+      <c r="M25">
+        <v>1.25</v>
+      </c>
+      <c r="N25">
+        <v>3.75</v>
+      </c>
+      <c r="O25">
+        <v>1.02</v>
+      </c>
+      <c r="P25">
+        <v>21</v>
+      </c>
+      <c r="Q25">
+        <v>1.13</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>1.5</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
+        <v>1.44</v>
+      </c>
+      <c r="V25">
         <v>2.63</v>
       </c>
-      <c r="M25">
-        <v>1.36</v>
-      </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
-      <c r="O25">
-        <v>1.04</v>
-      </c>
-      <c r="P25">
-        <v>8.5</v>
-      </c>
-      <c r="Q25">
-        <v>1.22</v>
-      </c>
-      <c r="R25">
-        <v>3.7</v>
-      </c>
-      <c r="S25">
-        <v>1.75</v>
-      </c>
-      <c r="T25">
-        <v>2.05</v>
-      </c>
-      <c r="U25">
-        <v>1.67</v>
-      </c>
-      <c r="V25">
-        <v>2.1</v>
-      </c>
       <c r="W25">
-        <v>1.32</v>
+        <v>1.6</v>
       </c>
       <c r="X25">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Y25">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="Z25">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AA25">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="AB25">
+        <v>1.54</v>
+      </c>
+      <c r="AC25">
+        <v>1.63</v>
+      </c>
+      <c r="AD25">
+        <v>3.17</v>
+      </c>
+      <c r="AE25">
+        <v>2.18</v>
+      </c>
+      <c r="AF25">
+        <v>8.9</v>
+      </c>
+      <c r="AG25">
+        <v>1.87</v>
+      </c>
+      <c r="AH25">
+        <v>1.19</v>
+      </c>
+      <c r="AI25">
+        <v>4.2</v>
+      </c>
+      <c r="AJ25">
         <v>1.33</v>
       </c>
-      <c r="AC25">
-        <v>1.1</v>
-      </c>
-      <c r="AD25">
-        <v>2.43</v>
-      </c>
-      <c r="AE25">
-        <v>1.92</v>
-      </c>
-      <c r="AF25">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG25">
-        <v>2.12</v>
-      </c>
-      <c r="AH25">
-        <v>1.21</v>
-      </c>
-      <c r="AI25">
-        <v>3.9</v>
-      </c>
-      <c r="AJ25">
-        <v>1.36</v>
-      </c>
       <c r="AK25">
-        <v>2.79</v>
+        <v>2.93</v>
       </c>
       <c r="AL25">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="AM25">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="AN25">
-        <v>2.09</v>
+        <v>1.99</v>
       </c>
       <c r="AO25">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="AP25">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="AQ25">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2">
         <v>45397</v>
@@ -4159,7 +4159,7 @@
         <v>72</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
         <v>106</v>
@@ -4168,22 +4168,22 @@
         <v>147</v>
       </c>
       <c r="G26">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I26">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J26">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="K26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L26">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="M26">
         <v>1.36</v>
@@ -4195,19 +4195,19 @@
         <v>1.04</v>
       </c>
       <c r="P26">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Q26">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R26">
         <v>3.7</v>
       </c>
       <c r="S26">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T26">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="U26">
         <v>1.67</v>
@@ -4216,72 +4216,72 @@
         <v>2.1</v>
       </c>
       <c r="W26">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="X26">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="Y26">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Z26">
+        <v>1.13</v>
+      </c>
+      <c r="AA26">
+        <v>0.75</v>
+      </c>
+      <c r="AB26">
+        <v>1.33</v>
+      </c>
+      <c r="AC26">
+        <v>1.1</v>
+      </c>
+      <c r="AD26">
+        <v>2.43</v>
+      </c>
+      <c r="AE26">
+        <v>1.92</v>
+      </c>
+      <c r="AF26">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG26">
+        <v>2.12</v>
+      </c>
+      <c r="AH26">
+        <v>1.21</v>
+      </c>
+      <c r="AI26">
+        <v>3.9</v>
+      </c>
+      <c r="AJ26">
+        <v>1.36</v>
+      </c>
+      <c r="AK26">
+        <v>2.79</v>
+      </c>
+      <c r="AL26">
         <v>1.64</v>
       </c>
-      <c r="AA26">
-        <v>1.14</v>
-      </c>
-      <c r="AB26">
-        <v>1.56</v>
-      </c>
-      <c r="AC26">
-        <v>1.56</v>
-      </c>
-      <c r="AD26">
-        <v>3.12</v>
-      </c>
-      <c r="AE26">
-        <v>2.25</v>
-      </c>
-      <c r="AF26">
-        <v>7.5</v>
-      </c>
-      <c r="AG26">
-        <v>1.91</v>
-      </c>
-      <c r="AH26">
-        <v>1.49</v>
-      </c>
-      <c r="AI26">
-        <v>2.43</v>
-      </c>
-      <c r="AJ26">
-        <v>1.95</v>
-      </c>
-      <c r="AK26">
-        <v>1.85</v>
-      </c>
-      <c r="AL26">
-        <v>2.36</v>
-      </c>
       <c r="AM26">
-        <v>1.52</v>
+        <v>2.07</v>
       </c>
       <c r="AN26">
-        <v>3.1</v>
+        <v>2.09</v>
       </c>
       <c r="AO26">
-        <v>1.31</v>
+        <v>1.66</v>
       </c>
       <c r="AP26">
-        <v>4.4</v>
+        <v>2.71</v>
       </c>
       <c r="AQ26">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2">
         <v>45397</v>
@@ -4290,7 +4290,7 @@
         <v>72</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
         <v>107</v>
@@ -4302,112 +4302,112 @@
         <v>3.1</v>
       </c>
       <c r="H27">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I27">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J27">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K27">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L27">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M27">
+        <v>1.36</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>1.04</v>
+      </c>
+      <c r="P27">
+        <v>9</v>
+      </c>
+      <c r="Q27">
         <v>1.25</v>
       </c>
-      <c r="N27">
-        <v>3.75</v>
-      </c>
-      <c r="O27">
-        <v>1.02</v>
-      </c>
-      <c r="P27">
-        <v>21</v>
-      </c>
-      <c r="Q27">
-        <v>1.13</v>
-      </c>
       <c r="R27">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="S27">
+        <v>1.91</v>
+      </c>
+      <c r="T27">
+        <v>1.8</v>
+      </c>
+      <c r="U27">
+        <v>1.67</v>
+      </c>
+      <c r="V27">
+        <v>2.1</v>
+      </c>
+      <c r="W27">
         <v>1.5</v>
       </c>
-      <c r="T27">
-        <v>2.5</v>
-      </c>
-      <c r="U27">
-        <v>1.44</v>
-      </c>
-      <c r="V27">
-        <v>2.63</v>
-      </c>
-      <c r="W27">
-        <v>1.6</v>
-      </c>
       <c r="X27">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="Y27">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Z27">
+        <v>1.64</v>
+      </c>
+      <c r="AA27">
+        <v>1.14</v>
+      </c>
+      <c r="AB27">
         <v>1.56</v>
       </c>
-      <c r="AA27">
-        <v>1.44</v>
-      </c>
-      <c r="AB27">
-        <v>1.54</v>
-      </c>
       <c r="AC27">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AD27">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="AE27">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AF27">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="AG27">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AJ27">
-        <v>1.33</v>
+        <v>1.95</v>
       </c>
       <c r="AK27">
-        <v>2.93</v>
+        <v>1.85</v>
       </c>
       <c r="AL27">
-        <v>1.59</v>
+        <v>2.36</v>
       </c>
       <c r="AM27">
-        <v>2.16</v>
+        <v>1.52</v>
       </c>
       <c r="AN27">
-        <v>1.99</v>
+        <v>3.1</v>
       </c>
       <c r="AO27">
-        <v>1.73</v>
+        <v>1.31</v>
       </c>
       <c r="AP27">
-        <v>2.57</v>
+        <v>4.4</v>
       </c>
       <c r="AQ27">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4439,13 +4439,13 @@
         <v>4</v>
       </c>
       <c r="J28">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="K28">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="L28">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
         <v>1.5</v>
@@ -4466,10 +4466,10 @@
         <v>2.75</v>
       </c>
       <c r="S28">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="T28">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="U28">
         <v>1.91</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2">
         <v>45397</v>
@@ -4561,120 +4561,120 @@
         <v>150</v>
       </c>
       <c r="G29">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="H29">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="I29">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="J29">
-        <v>1.44</v>
+        <v>2.7</v>
       </c>
       <c r="K29">
-        <v>4.55</v>
+        <v>3.1</v>
       </c>
       <c r="L29">
-        <v>6.44</v>
+        <v>2.47</v>
       </c>
       <c r="M29">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="N29">
-        <v>3.25</v>
+        <v>2.58</v>
       </c>
       <c r="O29">
         <v>1.04</v>
       </c>
       <c r="P29">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="Q29">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="R29">
-        <v>4.18</v>
+        <v>3.11</v>
       </c>
       <c r="S29">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="T29">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="U29">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V29">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>1.1</v>
+        <v>1.51</v>
       </c>
       <c r="X29">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="Y29">
-        <v>2.7</v>
+        <v>1.44</v>
       </c>
       <c r="Z29">
-        <v>2.21</v>
+        <v>1.6</v>
       </c>
       <c r="AA29">
-        <v>0.63</v>
+        <v>1.2</v>
       </c>
       <c r="AB29">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AC29">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="AD29">
-        <v>2.97</v>
+        <v>2.9</v>
       </c>
       <c r="AE29">
+        <v>1.87</v>
+      </c>
+      <c r="AF29">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG29">
+        <v>2.29</v>
+      </c>
+      <c r="AH29">
         <v>1.26</v>
       </c>
-      <c r="AF29">
-        <v>9.5</v>
-      </c>
-      <c r="AG29">
-        <v>4.3</v>
-      </c>
-      <c r="AH29">
-        <v>1.2</v>
-      </c>
       <c r="AI29">
-        <v>3.84</v>
+        <v>3.34</v>
       </c>
       <c r="AJ29">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AK29">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="AL29">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AM29">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AN29">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AO29">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AQ29">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2">
         <v>45397</v>
@@ -4692,115 +4692,115 @@
         <v>151</v>
       </c>
       <c r="G30">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="H30">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="I30">
+        <v>6.5</v>
+      </c>
+      <c r="J30">
+        <v>1.4</v>
+      </c>
+      <c r="K30">
+        <v>4.5</v>
+      </c>
+      <c r="L30">
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <v>1.33</v>
+      </c>
+      <c r="N30">
         <v>3.25</v>
-      </c>
-      <c r="J30">
-        <v>2.81</v>
-      </c>
-      <c r="K30">
-        <v>3.05</v>
-      </c>
-      <c r="L30">
-        <v>2.6</v>
-      </c>
-      <c r="M30">
-        <v>1.47</v>
-      </c>
-      <c r="N30">
-        <v>2.58</v>
       </c>
       <c r="O30">
         <v>1.04</v>
       </c>
       <c r="P30">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="Q30">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="R30">
-        <v>3.11</v>
+        <v>4.18</v>
       </c>
       <c r="S30">
-        <v>2.09</v>
+        <v>1.67</v>
       </c>
       <c r="T30">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="U30">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="W30">
-        <v>1.51</v>
+        <v>1.1</v>
       </c>
       <c r="X30">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="Y30">
-        <v>1.44</v>
+        <v>2.7</v>
       </c>
       <c r="Z30">
-        <v>1.6</v>
+        <v>2.21</v>
       </c>
       <c r="AA30">
+        <v>0.63</v>
+      </c>
+      <c r="AB30">
+        <v>1.82</v>
+      </c>
+      <c r="AC30">
+        <v>1.15</v>
+      </c>
+      <c r="AD30">
+        <v>2.97</v>
+      </c>
+      <c r="AE30">
+        <v>1.26</v>
+      </c>
+      <c r="AF30">
+        <v>9.5</v>
+      </c>
+      <c r="AG30">
+        <v>4.3</v>
+      </c>
+      <c r="AH30">
         <v>1.2</v>
       </c>
-      <c r="AB30">
-        <v>1.55</v>
-      </c>
-      <c r="AC30">
-        <v>1.35</v>
-      </c>
-      <c r="AD30">
-        <v>2.9</v>
-      </c>
-      <c r="AE30">
-        <v>1.87</v>
-      </c>
-      <c r="AF30">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AG30">
-        <v>2.29</v>
-      </c>
-      <c r="AH30">
-        <v>1.26</v>
-      </c>
       <c r="AI30">
-        <v>3.34</v>
+        <v>3.84</v>
       </c>
       <c r="AJ30">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AK30">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="AL30">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AM30">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="AN30">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AO30">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AP30">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AQ30">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -4832,13 +4832,13 @@
         <v>4.5</v>
       </c>
       <c r="J31">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="K31">
-        <v>4.16</v>
+        <v>4.1</v>
       </c>
       <c r="L31">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="M31">
         <v>1.29</v>
@@ -4859,10 +4859,10 @@
         <v>4.6</v>
       </c>
       <c r="S31">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="T31">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="U31">
         <v>1.57</v>
@@ -4963,13 +4963,13 @@
         <v>4.5</v>
       </c>
       <c r="J32">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="K32">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="L32">
-        <v>3.22</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
         <v>1.57</v>
@@ -4984,16 +4984,16 @@
         <v>7.8</v>
       </c>
       <c r="Q32">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="R32">
+        <v>2.6</v>
+      </c>
+      <c r="S32">
         <v>2.57</v>
       </c>
-      <c r="S32">
-        <v>2.55</v>
-      </c>
       <c r="T32">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U32">
         <v>2.2</v>
@@ -5094,13 +5094,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="L33">
-        <v>3.61</v>
+        <v>3.7</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="T33">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -5225,13 +5225,13 @@
         <v>1.85</v>
       </c>
       <c r="J34">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="K34">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L34">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="M34">
         <v>1.22</v>
@@ -5252,10 +5252,10 @@
         <v>6.2</v>
       </c>
       <c r="S34">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="T34">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
         <v>1.48</v>
@@ -5356,13 +5356,13 @@
         <v>2.88</v>
       </c>
       <c r="J35">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K35">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L35">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M35">
         <v>1.44</v>
@@ -5383,10 +5383,10 @@
         <v>2.9</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T35">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="U35">
         <v>1.83</v>
@@ -5487,10 +5487,10 @@
         <v>4.5</v>
       </c>
       <c r="J36">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="K36">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L36">
         <v>4</v>
@@ -5514,10 +5514,10 @@
         <v>3.92</v>
       </c>
       <c r="S36">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U36">
         <v>1.66</v>
@@ -5612,112 +5612,112 @@
         <v>5</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>2.63</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>3.4</v>
+      </c>
+      <c r="L37">
+        <v>1.91</v>
+      </c>
+      <c r="M37">
+        <v>1.5</v>
+      </c>
+      <c r="N37">
+        <v>2.5</v>
+      </c>
+      <c r="O37">
+        <v>1.07</v>
+      </c>
+      <c r="P37">
+        <v>7.77</v>
+      </c>
+      <c r="Q37">
+        <v>1.43</v>
+      </c>
+      <c r="R37">
+        <v>2.76</v>
+      </c>
+      <c r="S37">
+        <v>2.35</v>
+      </c>
+      <c r="T37">
+        <v>1.57</v>
+      </c>
+      <c r="U37">
         <v>2.1</v>
       </c>
-      <c r="I37">
-        <v>2.4</v>
-      </c>
-      <c r="J37">
-        <v>4.75</v>
-      </c>
-      <c r="K37">
-        <v>3.5</v>
-      </c>
-      <c r="L37">
-        <v>1.8</v>
-      </c>
-      <c r="M37">
-        <v>1.44</v>
-      </c>
-      <c r="N37">
-        <v>2.63</v>
-      </c>
-      <c r="O37">
-        <v>1.08</v>
-      </c>
-      <c r="P37">
-        <v>9.15</v>
-      </c>
-      <c r="Q37">
-        <v>1.39</v>
-      </c>
-      <c r="R37">
+      <c r="V37">
+        <v>1.67</v>
+      </c>
+      <c r="W37">
+        <v>1.75</v>
+      </c>
+      <c r="X37">
+        <v>1.3</v>
+      </c>
+      <c r="Y37">
+        <v>1.28</v>
+      </c>
+      <c r="Z37">
+        <v>0.5</v>
+      </c>
+      <c r="AA37">
+        <v>1.33</v>
+      </c>
+      <c r="AB37">
+        <v>1.46</v>
+      </c>
+      <c r="AC37">
+        <v>1.24</v>
+      </c>
+      <c r="AD37">
+        <v>2.7</v>
+      </c>
+      <c r="AE37">
+        <v>2.24</v>
+      </c>
+      <c r="AF37">
+        <v>7.7</v>
+      </c>
+      <c r="AG37">
+        <v>1.98</v>
+      </c>
+      <c r="AH37">
+        <v>1.35</v>
+      </c>
+      <c r="AI37">
         <v>3</v>
       </c>
-      <c r="S37">
-        <v>2.15</v>
-      </c>
-      <c r="T37">
-        <v>1.67</v>
-      </c>
-      <c r="U37">
+      <c r="AJ37">
+        <v>1.62</v>
+      </c>
+      <c r="AK37">
+        <v>2.2</v>
+      </c>
+      <c r="AL37">
         <v>2</v>
       </c>
-      <c r="V37">
-        <v>1.73</v>
-      </c>
-      <c r="W37">
-        <v>2</v>
-      </c>
-      <c r="X37">
-        <v>1.25</v>
-      </c>
-      <c r="Y37">
-        <v>1.18</v>
-      </c>
-      <c r="Z37">
-        <v>1.14</v>
-      </c>
-      <c r="AA37">
-        <v>1.5</v>
-      </c>
-      <c r="AB37">
-        <v>1.51</v>
-      </c>
-      <c r="AC37">
-        <v>1.54</v>
-      </c>
-      <c r="AD37">
-        <v>3.05</v>
-      </c>
-      <c r="AE37">
-        <v>2.86</v>
-      </c>
-      <c r="AF37">
-        <v>9</v>
-      </c>
-      <c r="AG37">
-        <v>1.59</v>
-      </c>
-      <c r="AH37">
-        <v>1.13</v>
-      </c>
-      <c r="AI37">
-        <v>5.07</v>
-      </c>
-      <c r="AJ37">
+      <c r="AM37">
+        <v>1.75</v>
+      </c>
+      <c r="AN37">
+        <v>2.6</v>
+      </c>
+      <c r="AO37">
+        <v>1.45</v>
+      </c>
+      <c r="AP37">
+        <v>3.51</v>
+      </c>
+      <c r="AQ37">
         <v>1.26</v>
-      </c>
-      <c r="AK37">
-        <v>3.45</v>
-      </c>
-      <c r="AL37">
-        <v>1.91</v>
-      </c>
-      <c r="AM37">
-        <v>2.55</v>
-      </c>
-      <c r="AN37">
-        <v>1.78</v>
-      </c>
-      <c r="AO37">
-        <v>1.97</v>
-      </c>
-      <c r="AP37">
-        <v>2.2</v>
-      </c>
-      <c r="AQ37">
-        <v>1.62</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -5740,115 +5740,115 @@
         <v>159</v>
       </c>
       <c r="G38">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H38">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="I38">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="K38">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L38">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
+        <v>1.53</v>
+      </c>
+      <c r="N38">
+        <v>2.38</v>
+      </c>
+      <c r="O38">
+        <v>1.08</v>
+      </c>
+      <c r="P38">
+        <v>7.29</v>
+      </c>
+      <c r="Q38">
+        <v>1.46</v>
+      </c>
+      <c r="R38">
+        <v>2.65</v>
+      </c>
+      <c r="S38">
+        <v>2.5</v>
+      </c>
+      <c r="T38">
         <v>1.5</v>
       </c>
-      <c r="N38">
+      <c r="U38">
+        <v>2.1</v>
+      </c>
+      <c r="V38">
+        <v>1.67</v>
+      </c>
+      <c r="W38">
+        <v>1.36</v>
+      </c>
+      <c r="X38">
+        <v>1.32</v>
+      </c>
+      <c r="Y38">
+        <v>1.62</v>
+      </c>
+      <c r="Z38">
+        <v>1.33</v>
+      </c>
+      <c r="AA38">
+        <v>1.5</v>
+      </c>
+      <c r="AB38">
+        <v>1.64</v>
+      </c>
+      <c r="AC38">
+        <v>1.65</v>
+      </c>
+      <c r="AD38">
+        <v>3.29</v>
+      </c>
+      <c r="AE38">
+        <v>1.6</v>
+      </c>
+      <c r="AF38">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AG38">
+        <v>2.93</v>
+      </c>
+      <c r="AH38">
+        <v>1.26</v>
+      </c>
+      <c r="AI38">
+        <v>3.45</v>
+      </c>
+      <c r="AJ38">
+        <v>1.53</v>
+      </c>
+      <c r="AK38">
+        <v>2.28</v>
+      </c>
+      <c r="AL38">
+        <v>1.92</v>
+      </c>
+      <c r="AM38">
+        <v>1.79</v>
+      </c>
+      <c r="AN38">
         <v>2.5</v>
       </c>
-      <c r="O38">
-        <v>1.1</v>
-      </c>
-      <c r="P38">
-        <v>7.9</v>
-      </c>
-      <c r="Q38">
-        <v>1.4</v>
-      </c>
-      <c r="R38">
-        <v>2.97</v>
-      </c>
-      <c r="S38">
-        <v>2.25</v>
-      </c>
-      <c r="T38">
-        <v>1.62</v>
-      </c>
-      <c r="U38">
-        <v>1.83</v>
-      </c>
-      <c r="V38">
-        <v>1.83</v>
-      </c>
-      <c r="W38">
-        <v>1.19</v>
-      </c>
-      <c r="X38">
-        <v>1.4</v>
-      </c>
-      <c r="Y38">
-        <v>1.75</v>
-      </c>
-      <c r="Z38">
+      <c r="AO38">
+        <v>1.44</v>
+      </c>
+      <c r="AP38">
         <v>3</v>
       </c>
-      <c r="AA38">
-        <v>1.83</v>
-      </c>
-      <c r="AB38">
-        <v>1.7</v>
-      </c>
-      <c r="AC38">
-        <v>1.14</v>
-      </c>
-      <c r="AD38">
-        <v>2.84</v>
-      </c>
-      <c r="AE38">
-        <v>1.48</v>
-      </c>
-      <c r="AF38">
-        <v>8.35</v>
-      </c>
-      <c r="AG38">
-        <v>3.48</v>
-      </c>
-      <c r="AH38">
+      <c r="AQ38">
         <v>1.35</v>
-      </c>
-      <c r="AI38">
-        <v>3</v>
-      </c>
-      <c r="AJ38">
-        <v>1.62</v>
-      </c>
-      <c r="AK38">
-        <v>2.2</v>
-      </c>
-      <c r="AL38">
-        <v>2.38</v>
-      </c>
-      <c r="AM38">
-        <v>1.75</v>
-      </c>
-      <c r="AN38">
-        <v>2.6</v>
-      </c>
-      <c r="AO38">
-        <v>1.45</v>
-      </c>
-      <c r="AP38">
-        <v>3.51</v>
-      </c>
-      <c r="AQ38">
-        <v>1.26</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -5877,40 +5877,40 @@
         <v>2</v>
       </c>
       <c r="I39">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J39">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K39">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L39">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M39">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="N39">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="O39">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P39">
-        <v>7.77</v>
+        <v>9.15</v>
       </c>
       <c r="Q39">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="R39">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="S39">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="T39">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="U39">
         <v>2</v>
@@ -5919,67 +5919,67 @@
         <v>1.73</v>
       </c>
       <c r="W39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X39">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y39">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="Z39">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="AA39">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AB39">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AC39">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="AD39">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="AE39">
-        <v>2.24</v>
+        <v>2.86</v>
       </c>
       <c r="AF39">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="AG39">
-        <v>1.98</v>
+        <v>1.59</v>
       </c>
       <c r="AH39">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="AI39">
-        <v>3</v>
+        <v>5.07</v>
       </c>
       <c r="AJ39">
+        <v>1.26</v>
+      </c>
+      <c r="AK39">
+        <v>3.45</v>
+      </c>
+      <c r="AL39">
+        <v>1.91</v>
+      </c>
+      <c r="AM39">
+        <v>2.55</v>
+      </c>
+      <c r="AN39">
+        <v>1.78</v>
+      </c>
+      <c r="AO39">
+        <v>1.97</v>
+      </c>
+      <c r="AP39">
+        <v>2.2</v>
+      </c>
+      <c r="AQ39">
         <v>1.62</v>
-      </c>
-      <c r="AK39">
-        <v>2.2</v>
-      </c>
-      <c r="AL39">
-        <v>2</v>
-      </c>
-      <c r="AM39">
-        <v>1.75</v>
-      </c>
-      <c r="AN39">
-        <v>2.6</v>
-      </c>
-      <c r="AO39">
-        <v>1.45</v>
-      </c>
-      <c r="AP39">
-        <v>3.51</v>
-      </c>
-      <c r="AQ39">
-        <v>1.26</v>
       </c>
     </row>
     <row r="40" spans="1:43">
@@ -6002,46 +6002,46 @@
         <v>161</v>
       </c>
       <c r="G40">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="H40">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J40">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K40">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="M40">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="N40">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O40">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P40">
-        <v>7.29</v>
+        <v>7.9</v>
       </c>
       <c r="Q40">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="R40">
-        <v>2.65</v>
+        <v>2.97</v>
       </c>
       <c r="S40">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T40">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U40">
         <v>2</v>
@@ -6050,67 +6050,67 @@
         <v>1.73</v>
       </c>
       <c r="W40">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="X40">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="Y40">
+        <v>1.75</v>
+      </c>
+      <c r="Z40">
+        <v>3</v>
+      </c>
+      <c r="AA40">
+        <v>1.83</v>
+      </c>
+      <c r="AB40">
+        <v>1.7</v>
+      </c>
+      <c r="AC40">
+        <v>1.14</v>
+      </c>
+      <c r="AD40">
+        <v>2.84</v>
+      </c>
+      <c r="AE40">
+        <v>1.58</v>
+      </c>
+      <c r="AF40">
+        <v>8.35</v>
+      </c>
+      <c r="AG40">
+        <v>3.03</v>
+      </c>
+      <c r="AH40">
+        <v>1.35</v>
+      </c>
+      <c r="AI40">
+        <v>3</v>
+      </c>
+      <c r="AJ40">
         <v>1.62</v>
       </c>
-      <c r="Z40">
-        <v>1.33</v>
-      </c>
-      <c r="AA40">
-        <v>1.5</v>
-      </c>
-      <c r="AB40">
-        <v>1.64</v>
-      </c>
-      <c r="AC40">
-        <v>1.65</v>
-      </c>
-      <c r="AD40">
-        <v>3.29</v>
-      </c>
-      <c r="AE40">
-        <v>1.6</v>
-      </c>
-      <c r="AF40">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="AG40">
-        <v>2.93</v>
-      </c>
-      <c r="AH40">
+      <c r="AK40">
+        <v>2.2</v>
+      </c>
+      <c r="AL40">
+        <v>2.38</v>
+      </c>
+      <c r="AM40">
+        <v>1.75</v>
+      </c>
+      <c r="AN40">
+        <v>2.6</v>
+      </c>
+      <c r="AO40">
+        <v>1.45</v>
+      </c>
+      <c r="AP40">
+        <v>3.51</v>
+      </c>
+      <c r="AQ40">
         <v>1.26</v>
-      </c>
-      <c r="AI40">
-        <v>3.45</v>
-      </c>
-      <c r="AJ40">
-        <v>1.53</v>
-      </c>
-      <c r="AK40">
-        <v>2.28</v>
-      </c>
-      <c r="AL40">
-        <v>1.92</v>
-      </c>
-      <c r="AM40">
-        <v>1.79</v>
-      </c>
-      <c r="AN40">
-        <v>2.5</v>
-      </c>
-      <c r="AO40">
-        <v>1.44</v>
-      </c>
-      <c r="AP40">
-        <v>3</v>
-      </c>
-      <c r="AQ40">
-        <v>1.35</v>
       </c>
     </row>
     <row r="41" spans="1:43">
@@ -6142,13 +6142,13 @@
         <v>2.3</v>
       </c>
       <c r="J41">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K41">
         <v>3.3</v>
       </c>
       <c r="L41">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="M41">
         <v>1.5</v>
@@ -6169,10 +6169,10 @@
         <v>2.85</v>
       </c>
       <c r="S41">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="T41">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="U41">
         <v>2.2</v>
@@ -6273,13 +6273,13 @@
         <v>6</v>
       </c>
       <c r="J42">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="K42">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="L42">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="M42">
         <v>1.3</v>
@@ -6300,10 +6300,10 @@
         <v>4.2</v>
       </c>
       <c r="S42">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="T42">
-        <v>2.04</v>
+        <v>2.11</v>
       </c>
       <c r="U42">
         <v>1.85</v>
